--- a/myprogarm/excel/record.xlsx
+++ b/myprogarm/excel/record.xlsx
@@ -1,27 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\example\myprogarm\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C950A1DD-AB80-429D-9953-E918742EAB6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670" tabRatio="615"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22128" windowHeight="13176" tabRatio="615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="账户" sheetId="2" r:id="rId1"/>
-    <sheet name="note" sheetId="10" r:id="rId2"/>
-    <sheet name="晓辉账目" sheetId="14" r:id="rId3"/>
-    <sheet name="周期账单" sheetId="13" r:id="rId4"/>
-    <sheet name="房贷还款" sheetId="7" r:id="rId5"/>
-    <sheet name="礼金信息" sheetId="1" r:id="rId6"/>
-    <sheet name="书目" sheetId="3" r:id="rId7"/>
-    <sheet name="付费课程" sheetId="12" r:id="rId8"/>
+    <sheet name="新疆旅游" sheetId="15" r:id="rId2"/>
+    <sheet name="note" sheetId="10" r:id="rId3"/>
+    <sheet name="晓辉账目" sheetId="14" r:id="rId4"/>
+    <sheet name="周期账单" sheetId="13" r:id="rId5"/>
+    <sheet name="房贷还款" sheetId="7" r:id="rId6"/>
+    <sheet name="礼金信息" sheetId="1" r:id="rId7"/>
+    <sheet name="书目" sheetId="3" r:id="rId8"/>
+    <sheet name="付费课程" sheetId="12" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="635">
   <si>
     <t>zhibo8.com</t>
   </si>
@@ -1596,24 +1611,432 @@
   </si>
   <si>
     <t>Tensor快速入门</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>付款人</t>
+  </si>
+  <si>
+    <t>住宿城市</t>
+  </si>
+  <si>
+    <t>机票</t>
+  </si>
+  <si>
+    <t>租车</t>
+  </si>
+  <si>
+    <t>Suo</t>
+  </si>
+  <si>
+    <t>打车</t>
+  </si>
+  <si>
+    <t>乌鲁木齐</t>
+  </si>
+  <si>
+    <t>住宿</t>
+  </si>
+  <si>
+    <t>雄鹰酒店</t>
+  </si>
+  <si>
+    <t>车额外保险</t>
+  </si>
+  <si>
+    <t>早餐</t>
+  </si>
+  <si>
+    <t>zhang</t>
+  </si>
+  <si>
+    <t>独山子</t>
+  </si>
+  <si>
+    <t>超市</t>
+  </si>
+  <si>
+    <t>加油</t>
+  </si>
+  <si>
+    <t>过路费</t>
+  </si>
+  <si>
+    <t>20+35</t>
+  </si>
+  <si>
+    <t>Dong</t>
+  </si>
+  <si>
+    <t>晚餐</t>
+  </si>
+  <si>
+    <t>尚客优 三人间</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>回程机票</t>
+  </si>
+  <si>
+    <t>巩乃斯</t>
+  </si>
+  <si>
+    <t>独山子大峡谷门票</t>
+  </si>
+  <si>
+    <t>独山子玻璃桥</t>
+  </si>
+  <si>
+    <t>巩乃斯中海宾馆</t>
+  </si>
+  <si>
+    <r>
+      <t>大盘鸡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+      </rPr>
+      <t>凉菜</t>
+    </r>
+  </si>
+  <si>
+    <t>过来过往自助餐</t>
+  </si>
+  <si>
+    <t>库尔勒</t>
+  </si>
+  <si>
+    <r>
+      <t>如家酒店 标间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*2</t>
+    </r>
+  </si>
+  <si>
+    <t>足浴</t>
+  </si>
+  <si>
+    <r>
+      <t>抓饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+      </rPr>
+      <t>酸奶</t>
+    </r>
+  </si>
+  <si>
+    <t>库车</t>
+  </si>
+  <si>
+    <t>蟠桃</t>
+  </si>
+  <si>
+    <t>博斯腾门票</t>
+  </si>
+  <si>
+    <t>游泳门票+泳裤</t>
+  </si>
+  <si>
+    <t>60+120</t>
+  </si>
+  <si>
+    <t>桃子</t>
+  </si>
+  <si>
+    <t>12+35+20</t>
+  </si>
+  <si>
+    <t>金色阳光宾馆三人间</t>
+  </si>
+  <si>
+    <t>金刚烤肉</t>
+  </si>
+  <si>
+    <t>四川小炒</t>
+  </si>
+  <si>
+    <t>巴音布鲁克</t>
+  </si>
+  <si>
+    <t>20+20</t>
+  </si>
+  <si>
+    <t>dong</t>
+  </si>
+  <si>
+    <t>克孜尔石窟</t>
+  </si>
+  <si>
+    <r>
+      <t>烤肉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+      </rPr>
+      <t>小炒</t>
+    </r>
+  </si>
+  <si>
+    <t>风火轮 三人间</t>
+  </si>
+  <si>
+    <t>番茄炒蛋, 土豆丝,</t>
+  </si>
+  <si>
+    <t>伊宁</t>
+  </si>
+  <si>
+    <t>午饭</t>
+  </si>
+  <si>
+    <t>如家 标间*2</t>
+  </si>
+  <si>
+    <t>一号厨房</t>
+  </si>
+  <si>
+    <t>汉人街</t>
+  </si>
+  <si>
+    <t>博乐市</t>
+  </si>
+  <si>
+    <t>囊</t>
+  </si>
+  <si>
+    <t>水果</t>
+  </si>
+  <si>
+    <t>葡萄</t>
+  </si>
+  <si>
+    <t>23+35+21</t>
+  </si>
+  <si>
+    <t>霍尔果斯口岸</t>
+  </si>
+  <si>
+    <t>门票</t>
+  </si>
+  <si>
+    <t>格林豪泰 标间*2</t>
+  </si>
+  <si>
+    <t>黄面烤肉</t>
+  </si>
+  <si>
+    <t>舌尖记忆，饺子鸡</t>
+  </si>
+  <si>
+    <t>奎屯</t>
+  </si>
+  <si>
+    <t>秋衣+饮料</t>
+  </si>
+  <si>
+    <t>停车费</t>
+  </si>
+  <si>
+    <t>21+107</t>
+  </si>
+  <si>
+    <t>赛里木湖门票</t>
+  </si>
+  <si>
+    <t>兵客西岐宾馆3人间</t>
+  </si>
+  <si>
+    <t>晚饭</t>
+  </si>
+  <si>
+    <t>大盘鸡</t>
+  </si>
+  <si>
+    <t>红牛</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+      </rPr>
+      <t>布尔津县</t>
+    </r>
+  </si>
+  <si>
+    <t>21+26+20+22+20+22+20</t>
+  </si>
+  <si>
+    <t>世界魔鬼城</t>
+  </si>
+  <si>
+    <t>门票+小火车</t>
+  </si>
+  <si>
+    <t>狗鱼 手抓羊肉</t>
+  </si>
+  <si>
+    <t>中饭</t>
+  </si>
+  <si>
+    <t>Kfc</t>
+  </si>
+  <si>
+    <t>早饭</t>
+  </si>
+  <si>
+    <t>面疙瘩 羊肉</t>
+  </si>
+  <si>
+    <t>喀纳斯</t>
+  </si>
+  <si>
+    <t>中石油</t>
+  </si>
+  <si>
+    <t>喀纳斯城堡酒店 三人间</t>
+  </si>
+  <si>
+    <t>拉面拌面</t>
+  </si>
+  <si>
+    <t>零食</t>
+  </si>
+  <si>
+    <t>油饼</t>
+  </si>
+  <si>
+    <t>面包花生</t>
+  </si>
+  <si>
+    <t>禾木</t>
+  </si>
+  <si>
+    <t>喀纳斯景区</t>
+  </si>
+  <si>
+    <t>观鱼台</t>
+  </si>
+  <si>
+    <t>区间车</t>
+  </si>
+  <si>
+    <t>午餐</t>
+  </si>
+  <si>
+    <t>禾木门票</t>
+  </si>
+  <si>
+    <t>烧烤</t>
+  </si>
+  <si>
+    <t>泡面 火腿</t>
+  </si>
+  <si>
+    <t>克拉玛依</t>
+  </si>
+  <si>
+    <t>清蒸狗鱼清炖羊肉</t>
+  </si>
+  <si>
+    <t>20+74</t>
+  </si>
+  <si>
+    <t>蓝波湾快捷3人间</t>
+  </si>
+  <si>
+    <t>包子酸奶葱花饼</t>
+  </si>
+  <si>
+    <t>10+25+25</t>
+  </si>
+  <si>
+    <t>克榆公路</t>
+  </si>
+  <si>
+    <t>乌奎高速</t>
+  </si>
+  <si>
+    <t>红星大酒店三人间</t>
+  </si>
+  <si>
+    <t>啤酒白酒</t>
+  </si>
+  <si>
+    <t>酸奶</t>
+  </si>
+  <si>
+    <t>哈密瓜</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1637,13 +2060,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1668,148 +2091,17 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Microsoft YaHei"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1840,194 +2132,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2234,253 +2340,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFA3A3A3"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2514,7 +2396,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2554,14 +2436,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2569,24 +2448,6 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2610,16 +2471,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2634,69 +2495,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2712,13 +2566,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3019,27 +2879,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+    <sheetView topLeftCell="A101" workbookViewId="0">
       <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="27.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="18.1083333333333" style="17" customWidth="1"/>
-    <col min="4" max="4" width="22.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3050,7 +2910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3058,7 +2918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3069,7 +2929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3080,7 +2940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3092,863 +2952,863 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="55" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="62"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="55" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="62"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="62"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="1">
         <v>301</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="55" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:5">
-      <c r="A20" s="62" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.6">
+      <c r="A20" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="56" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="1">
         <v>65</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:5">
-      <c r="A21" s="62" t="s">
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.6">
+      <c r="A21" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="56" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="1">
         <v>65</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="55" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:5">
-      <c r="A23" s="62" t="s">
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.6">
+      <c r="A23" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="57" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="62"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="55" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1">
         <v>86</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:5">
-      <c r="A26" s="62" t="s">
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.6">
+      <c r="A26" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="56" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="1">
         <v>8</v>
       </c>
-      <c r="D27" s="62">
+      <c r="D27" s="55">
         <v>909</v>
       </c>
-      <c r="E27" s="62"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:5">
-      <c r="A28" s="62" t="s">
+      <c r="E27" s="55"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.6">
+      <c r="A28" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="55" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="55" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:5">
-      <c r="A29" s="62" t="s">
+    <row r="29" spans="1:5" ht="15.6">
+      <c r="A29" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="56" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="62"/>
-    </row>
-    <row r="30" ht="14.25" spans="1:5">
-      <c r="A30" s="62"/>
-      <c r="B30" s="63" t="s">
+      <c r="D29" s="56"/>
+      <c r="E29" s="55"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.6">
+      <c r="A30" s="55"/>
+      <c r="B30" s="56" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="62"/>
-    </row>
-    <row r="31" ht="14.25" spans="1:5">
-      <c r="A31" s="62"/>
-      <c r="B31" s="63">
+      <c r="E30" s="55"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.6">
+      <c r="A31" s="55"/>
+      <c r="B31" s="56">
         <v>3119425375</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="62"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:5">
-      <c r="A32" s="62"/>
-      <c r="B32" s="63">
+      <c r="D31" s="56"/>
+      <c r="E31" s="55"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.6">
+      <c r="A32" s="55"/>
+      <c r="B32" s="56">
         <v>3301169791</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="62"/>
-    </row>
-    <row r="33" ht="14.25" spans="1:5">
-      <c r="A33" s="62" t="s">
+      <c r="D32" s="56"/>
+      <c r="E32" s="55"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.6">
+      <c r="A33" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="62"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="55"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="55" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="55" t="s">
         <v>60</v>
       </c>
       <c r="C35" s="1">
         <v>8</v>
       </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="55" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="1">
         <v>8</v>
       </c>
-      <c r="D36" s="62">
+      <c r="D36" s="55">
         <v>909</v>
       </c>
-      <c r="E36" s="62"/>
+      <c r="E36" s="55"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="55" t="s">
         <v>63</v>
       </c>
       <c r="C37" s="1">
         <v>8</v>
       </c>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="55" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="1">
         <v>8</v>
       </c>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="55" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="1">
         <v>8</v>
       </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="55" t="s">
         <v>69</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="1">
         <v>301</v>
       </c>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="55" t="s">
         <v>72</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="55" t="s">
         <v>74</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="55" t="s">
         <v>76</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="55" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-    </row>
-    <row r="49" ht="14.25" spans="1:5">
-      <c r="A49" s="62" t="s">
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.6">
+      <c r="A49" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="56" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="55" t="s">
         <v>83</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="55" t="s">
         <v>85</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="62"/>
-      <c r="B52" s="62"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-    </row>
-    <row r="53" ht="14.25" spans="1:5">
-      <c r="A53" s="63" t="s">
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.6">
+      <c r="A53" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="55" t="s">
         <v>88</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="62" t="s">
+      <c r="A54" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="62">
+      <c r="B54" s="55">
         <v>30</v>
       </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="62" t="s">
+      <c r="A55" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="55" t="s">
         <v>90</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-    </row>
-    <row r="56" ht="14.25" spans="1:5">
-      <c r="A56" s="62" t="s">
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.6">
+      <c r="A56" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="56" t="s">
         <v>93</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="62" t="s">
+      <c r="A57" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="55" t="s">
         <v>72</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="62"/>
-      <c r="B58" s="62"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="62" t="s">
+      <c r="A59" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="62"/>
+      <c r="B59" s="55"/>
       <c r="C59" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="62"/>
-      <c r="B60" s="62"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="62" t="s">
+      <c r="A61" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="62" t="s">
+      <c r="A62" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="62" t="s">
+      <c r="A63" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-    </row>
-    <row r="64" ht="14.25" spans="1:5">
-      <c r="A64" s="62" t="s">
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.6">
+      <c r="A64" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="62" t="s">
+      <c r="B64" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="66" t="s">
+      <c r="C64" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-    </row>
-    <row r="65" ht="14.25" spans="1:5">
-      <c r="A65" s="62" t="s">
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.6">
+      <c r="A65" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="B65" s="63" t="s">
+      <c r="B65" s="56" t="s">
         <v>20</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="62" t="s">
+      <c r="A66" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="62" t="s">
+      <c r="B66" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="62" t="s">
+      <c r="A67" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="B67" s="62" t="s">
+      <c r="B67" s="55" t="s">
         <v>72</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="62"/>
-      <c r="B68" s="62" t="s">
+      <c r="A68" s="55"/>
+      <c r="B68" s="55" t="s">
         <v>39</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-    </row>
-    <row r="69" ht="14.25" spans="1:5">
-      <c r="A69" s="62" t="s">
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.6">
+      <c r="A69" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="63" t="s">
+      <c r="B69" s="56" t="s">
         <v>20</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="62" t="s">
+      <c r="A70" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="B70" s="62" t="s">
+      <c r="B70" s="55" t="s">
         <v>106</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-    </row>
-    <row r="71" ht="14.25" spans="1:5">
-      <c r="A71" s="62" t="s">
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.6">
+      <c r="A71" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="B71" s="63" t="s">
+      <c r="B71" s="56" t="s">
         <v>72</v>
       </c>
       <c r="C71" s="1">
         <v>123456</v>
       </c>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-    </row>
-    <row r="72" ht="15.75" spans="1:5">
-      <c r="A72" s="62" t="s">
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+    </row>
+    <row r="72" spans="1:5" ht="16.2">
+      <c r="A72" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="B72" s="62">
+      <c r="B72" s="55">
         <v>61445374</v>
       </c>
-      <c r="C72" s="67" t="s">
+      <c r="C72" s="60" t="s">
         <v>44</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E72" s="62"/>
-    </row>
-    <row r="73" ht="15.75" spans="1:5">
-      <c r="A73" s="62" t="s">
+      <c r="E72" s="55"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.2">
+      <c r="A73" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="B73" s="62" t="s">
+      <c r="B73" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C73" s="67" t="s">
+      <c r="C73" s="60" t="s">
         <v>113</v>
       </c>
       <c r="D73" s="27"/>
-      <c r="E73" s="62"/>
-    </row>
-    <row r="74" ht="27" spans="1:5">
+      <c r="E73" s="55"/>
+    </row>
+    <row r="74" spans="1:5" ht="28.8">
       <c r="A74" t="s">
         <v>114</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="62" t="s">
+      <c r="A75" s="55" t="s">
         <v>116</v>
       </c>
       <c r="B75" t="s">
         <v>117</v>
       </c>
-      <c r="C75" s="68" t="s">
+      <c r="C75" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="62" t="s">
+      <c r="A76" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="B76" s="62" t="s">
+      <c r="B76" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="68" t="s">
+      <c r="C76" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="69">
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="62">
         <v>13255813919</v>
       </c>
-      <c r="B77" s="70">
+      <c r="B77" s="63">
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>119</v>
       </c>
@@ -3959,7 +3819,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>120</v>
       </c>
@@ -3967,7 +3827,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>121</v>
       </c>
@@ -3986,7 +3846,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="1:3">
       <c r="B83" t="s">
         <v>126</v>
       </c>
@@ -4051,7 +3911,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="2:3">
+    <row r="90" spans="1:3">
       <c r="B90" t="s">
         <v>139</v>
       </c>
@@ -4059,7 +3919,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="2:3">
+    <row r="91" spans="1:3">
       <c r="B91" t="s">
         <v>141</v>
       </c>
@@ -4067,7 +3927,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="2:3">
+    <row r="92" spans="1:3">
       <c r="B92" t="s">
         <v>143</v>
       </c>
@@ -4086,7 +3946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>146</v>
       </c>
@@ -4105,7 +3965,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>148</v>
       </c>
@@ -4113,7 +3973,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>150</v>
       </c>
@@ -4138,7 +3998,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="100" ht="14.25" spans="2:4">
+    <row r="100" spans="1:4" ht="16.2">
       <c r="B100" s="27" t="s">
         <v>154</v>
       </c>
@@ -4149,7 +4009,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="101" ht="14.25" spans="1:4">
+    <row r="101" spans="1:4" ht="16.2">
       <c r="A101" t="s">
         <v>156</v>
       </c>
@@ -4177,7 +4037,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="104" ht="14.25" spans="1:4">
+    <row r="104" spans="1:4" ht="16.2">
       <c r="A104" t="s">
         <v>161</v>
       </c>
@@ -4191,7 +4051,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="1:4">
+    <row r="105" spans="1:4" ht="16.2">
       <c r="A105" t="s">
         <v>163</v>
       </c>
@@ -4205,7 +4065,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>165</v>
       </c>
@@ -4216,7 +4076,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>166</v>
       </c>
@@ -4227,7 +4087,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>168</v>
       </c>
@@ -4238,7 +4098,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>171</v>
       </c>
@@ -4249,7 +4109,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>174</v>
       </c>
@@ -4257,7 +4117,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>176</v>
       </c>
@@ -4265,7 +4125,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>178</v>
       </c>
@@ -4276,7 +4136,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>180</v>
       </c>
@@ -4287,7 +4147,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>182</v>
       </c>
@@ -4298,7 +4158,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>183</v>
       </c>
@@ -4309,7 +4169,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>185</v>
       </c>
@@ -4320,7 +4180,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>187</v>
       </c>
@@ -4331,7 +4191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="2:3">
+    <row r="119" spans="1:5">
       <c r="B119" t="s">
         <v>188</v>
       </c>
@@ -4339,7 +4199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" ht="14.25" spans="1:3">
+    <row r="120" spans="1:5" ht="16.2">
       <c r="A120" t="s">
         <v>189</v>
       </c>
@@ -4350,7 +4210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>190</v>
       </c>
@@ -4361,7 +4221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>191</v>
       </c>
@@ -4372,7 +4232,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>192</v>
       </c>
@@ -4383,7 +4243,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="124" ht="14.25" spans="1:3">
+    <row r="124" spans="1:5" ht="16.2">
       <c r="A124" t="s">
         <v>194</v>
       </c>
@@ -4394,7 +4254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>163</v>
       </c>
@@ -4405,7 +4265,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="126" ht="14.25" spans="1:3">
+    <row r="126" spans="1:5" ht="16.2">
       <c r="A126" t="s">
         <v>197</v>
       </c>
@@ -4416,7 +4276,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" ht="14.25" spans="1:5">
+    <row r="127" spans="1:5" ht="16.2">
       <c r="A127" t="s">
         <v>198</v>
       </c>
@@ -4433,7 +4293,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="128" ht="14.25" spans="1:4">
+    <row r="128" spans="1:5" ht="16.2">
       <c r="A128" t="s">
         <v>200</v>
       </c>
@@ -4447,7 +4307,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>201</v>
       </c>
@@ -4458,7 +4318,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>202</v>
       </c>
@@ -4469,7 +4329,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>203</v>
       </c>
@@ -4477,7 +4337,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>205</v>
       </c>
@@ -4485,7 +4345,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="133" ht="14.25" spans="1:3">
+    <row r="133" spans="1:4" ht="16.2">
       <c r="A133" t="s">
         <v>206</v>
       </c>
@@ -4512,148 +4372,1547 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId2" display="xingzhe64301@163.com"/>
-    <hyperlink ref="A53" r:id="rId3" display="ghuisuo@gmail.com "/>
-    <hyperlink ref="B56" r:id="rId4" display="MosesLocke@msn.cn"/>
-    <hyperlink ref="B65" r:id="rId2" display="xingzhe64301@163.com"/>
-    <hyperlink ref="B21" r:id="rId2" display="xingzhe64301@163.com"/>
-    <hyperlink ref="B69" r:id="rId2" display="xingzhe64301@163.com"/>
-    <hyperlink ref="D28" r:id="rId2" display="xingzhe64301@163.com"/>
-    <hyperlink ref="B49" r:id="rId2" display="xingzhe64301@163.com"/>
-    <hyperlink ref="B23" r:id="rId5" display="909688515@qq.com"/>
-    <hyperlink ref="B26" r:id="rId2" display="xingzhe64301@163.com"/>
-    <hyperlink ref="B29" r:id="rId2" display="xingzhe64301@163.com"/>
-    <hyperlink ref="D72" r:id="rId6" display="www.flexbenefit.cn"/>
-    <hyperlink ref="D101" r:id="rId7" display="http://web.zjgjj.com/szhfsnet/"/>
-    <hyperlink ref="B104" r:id="rId8" display="suoghui@163.com"/>
-    <hyperlink ref="B105" r:id="rId8" display="suoghui@163.com"/>
-    <hyperlink ref="B120" r:id="rId2" display="xingzhe64301@163.com"/>
-    <hyperlink ref="B124" r:id="rId9" display="songray280@gmail.com"/>
-    <hyperlink ref="B71" r:id="rId8" display="suoghui@163.com"/>
-    <hyperlink ref="B126" r:id="rId10" display="lyyygz@163.com"/>
-    <hyperlink ref="D127" r:id="rId10" display="lyyygz@163.com"/>
-    <hyperlink ref="B128" r:id="rId10" display="lyyygz@163.com"/>
-    <hyperlink ref="C64" r:id="rId2" display="xingzhe64301@163.com"/>
-    <hyperlink ref="B133" r:id="rId10" display="lyyygz@163.com"/>
-    <hyperlink ref="B100" r:id="rId10" display="lyyygz@163.com"/>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A53" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B56" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B65" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B69" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B49" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B23" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B29" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D72" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D101" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B104" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B105" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B120" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B124" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B71" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B126" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D127" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B128" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C64" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B133" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B100" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId25"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FCE186-7079-4EBA-A603-35D06D68A497}">
+  <dimension ref="A1:F90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A1" s="72" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="72" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1" s="73"/>
+      <c r="E1" s="72" t="s">
+        <v>526</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A2" s="74">
+        <v>44068</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="73">
+        <v>3660</v>
+      </c>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A3" s="74">
+        <v>44072</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>529</v>
+      </c>
+      <c r="C3" s="73">
+        <v>6905</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F3" s="73"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+    </row>
+    <row r="5" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A5" s="74">
+        <v>44073</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>531</v>
+      </c>
+      <c r="C5" s="73">
+        <v>120</v>
+      </c>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72" t="s">
+        <v>533</v>
+      </c>
+      <c r="C6" s="73">
+        <v>382</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>534</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F6" s="73"/>
+    </row>
+    <row r="7" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A7" s="72"/>
+      <c r="B7" s="72" t="s">
+        <v>535</v>
+      </c>
+      <c r="C7" s="73">
+        <v>385</v>
+      </c>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="73"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A8" s="74">
+        <v>44074</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>536</v>
+      </c>
+      <c r="C8" s="73">
+        <v>90</v>
+      </c>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73" t="s">
+        <v>537</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A9" s="73"/>
+      <c r="B9" s="72" t="s">
+        <v>539</v>
+      </c>
+      <c r="C9" s="73">
+        <v>521</v>
+      </c>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73" t="s">
+        <v>537</v>
+      </c>
+      <c r="F9" s="73"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A10" s="73"/>
+      <c r="B10" s="72" t="s">
+        <v>540</v>
+      </c>
+      <c r="C10" s="73">
+        <v>110</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="73"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A11" s="73"/>
+      <c r="B11" s="72" t="s">
+        <v>541</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>542</v>
+      </c>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F11" s="73"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A12" s="73"/>
+      <c r="B12" s="72" t="s">
+        <v>544</v>
+      </c>
+      <c r="C12" s="73">
+        <v>110</v>
+      </c>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73" t="s">
+        <v>537</v>
+      </c>
+      <c r="F12" s="73"/>
+    </row>
+    <row r="13" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A13" s="73"/>
+      <c r="B13" s="72" t="s">
+        <v>533</v>
+      </c>
+      <c r="C13" s="73">
+        <v>339</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>545</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F13" s="73"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A14" s="73"/>
+      <c r="B14" s="72" t="s">
+        <v>547</v>
+      </c>
+      <c r="C14" s="73">
+        <v>4164</v>
+      </c>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F14" s="73"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A15" s="75">
+        <v>44075</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>536</v>
+      </c>
+      <c r="C15" s="73">
+        <v>30</v>
+      </c>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="47.4" thickBot="1">
+      <c r="A16" s="73"/>
+      <c r="B16" s="72" t="s">
+        <v>549</v>
+      </c>
+      <c r="C16" s="73">
+        <v>90</v>
+      </c>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F16" s="73"/>
+    </row>
+    <row r="17" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A17" s="73"/>
+      <c r="B17" s="72" t="s">
+        <v>550</v>
+      </c>
+      <c r="C17" s="73">
+        <v>210</v>
+      </c>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F17" s="73"/>
+    </row>
+    <row r="18" spans="1:6" ht="47.4" thickBot="1">
+      <c r="A18" s="73"/>
+      <c r="B18" s="72" t="s">
+        <v>533</v>
+      </c>
+      <c r="C18" s="73">
+        <v>300</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>551</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="F18" s="73"/>
+    </row>
+    <row r="19" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A19" s="73"/>
+      <c r="B19" s="72" t="s">
+        <v>544</v>
+      </c>
+      <c r="C19" s="73">
+        <v>116</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>552</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F19" s="73"/>
+    </row>
+    <row r="20" spans="1:6" ht="47.4" thickBot="1">
+      <c r="A20" s="75">
+        <v>44076</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>536</v>
+      </c>
+      <c r="C20" s="73">
+        <v>60</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>553</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A21" s="73"/>
+      <c r="B21" s="72" t="s">
+        <v>540</v>
+      </c>
+      <c r="C21" s="73">
+        <v>310</v>
+      </c>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="F21" s="73"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A22" s="73"/>
+      <c r="B22" s="72" t="s">
+        <v>541</v>
+      </c>
+      <c r="C22" s="73">
+        <v>15</v>
+      </c>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F22" s="73"/>
+    </row>
+    <row r="23" spans="1:6" ht="47.4" thickBot="1">
+      <c r="A23" s="73"/>
+      <c r="B23" s="72" t="s">
+        <v>533</v>
+      </c>
+      <c r="C23" s="73">
+        <v>376</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>555</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F23" s="73"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A24" s="73"/>
+      <c r="B24" s="72" t="s">
+        <v>556</v>
+      </c>
+      <c r="C24" s="73">
+        <v>57</v>
+      </c>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F24" s="73"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A25" s="73"/>
+      <c r="B25" s="72" t="s">
+        <v>531</v>
+      </c>
+      <c r="C25" s="73">
+        <v>18</v>
+      </c>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F25" s="73"/>
+    </row>
+    <row r="26" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A26" s="75">
+        <v>44077</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>536</v>
+      </c>
+      <c r="C26" s="73">
+        <v>75</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>557</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F26" s="72" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A27" s="73"/>
+      <c r="B27" s="72" t="s">
+        <v>559</v>
+      </c>
+      <c r="C27" s="73">
+        <v>20</v>
+      </c>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F27" s="73"/>
+    </row>
+    <row r="28" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A28" s="73"/>
+      <c r="B28" s="72" t="s">
+        <v>560</v>
+      </c>
+      <c r="C28" s="73">
+        <v>135</v>
+      </c>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F28" s="73"/>
+    </row>
+    <row r="29" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A29" s="73"/>
+      <c r="B29" s="72" t="s">
+        <v>561</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>562</v>
+      </c>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F29" s="73"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A30" s="73"/>
+      <c r="B30" s="72" t="s">
+        <v>563</v>
+      </c>
+      <c r="C30" s="73">
+        <v>8</v>
+      </c>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+    </row>
+    <row r="31" spans="1:6" ht="29.4" thickBot="1">
+      <c r="A31" s="73"/>
+      <c r="B31" s="72" t="s">
+        <v>541</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>564</v>
+      </c>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F31" s="73"/>
+    </row>
+    <row r="32" spans="1:6" ht="47.4" thickBot="1">
+      <c r="A32" s="73"/>
+      <c r="B32" s="72" t="s">
+        <v>533</v>
+      </c>
+      <c r="C32" s="73">
+        <v>298</v>
+      </c>
+      <c r="D32" s="72" t="s">
+        <v>565</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F32" s="73"/>
+    </row>
+    <row r="33" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A33" s="73"/>
+      <c r="B33" s="72" t="s">
+        <v>544</v>
+      </c>
+      <c r="C33" s="73">
+        <v>190</v>
+      </c>
+      <c r="D33" s="72" t="s">
+        <v>566</v>
+      </c>
+      <c r="E33" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F33" s="73"/>
+    </row>
+    <row r="34" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A34" s="75">
+        <v>44078</v>
+      </c>
+      <c r="B34" s="72" t="s">
+        <v>536</v>
+      </c>
+      <c r="C34" s="73">
+        <v>170</v>
+      </c>
+      <c r="D34" s="72" t="s">
+        <v>567</v>
+      </c>
+      <c r="E34" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="F34" s="72" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A35" s="73"/>
+      <c r="B35" s="72" t="s">
+        <v>541</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>569</v>
+      </c>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73" t="s">
+        <v>570</v>
+      </c>
+      <c r="F35" s="73"/>
+    </row>
+    <row r="36" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A36" s="73"/>
+      <c r="B36" s="72" t="s">
+        <v>571</v>
+      </c>
+      <c r="C36" s="73">
+        <v>210</v>
+      </c>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F36" s="73"/>
+    </row>
+    <row r="37" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A37" s="73"/>
+      <c r="B37" s="72" t="s">
+        <v>544</v>
+      </c>
+      <c r="C37" s="73">
+        <v>149</v>
+      </c>
+      <c r="D37" s="72" t="s">
+        <v>572</v>
+      </c>
+      <c r="E37" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F37" s="73"/>
+    </row>
+    <row r="38" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A38" s="73"/>
+      <c r="B38" s="72" t="s">
+        <v>533</v>
+      </c>
+      <c r="C38" s="73">
+        <v>240</v>
+      </c>
+      <c r="D38" s="72" t="s">
+        <v>573</v>
+      </c>
+      <c r="E38" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F38" s="73"/>
+    </row>
+    <row r="39" spans="1:6" ht="47.4" thickBot="1">
+      <c r="A39" s="75">
+        <v>44079</v>
+      </c>
+      <c r="B39" s="72" t="s">
+        <v>536</v>
+      </c>
+      <c r="C39" s="73">
+        <v>78</v>
+      </c>
+      <c r="D39" s="72" t="s">
+        <v>574</v>
+      </c>
+      <c r="E39" s="73"/>
+      <c r="F39" s="72" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A40" s="73"/>
+      <c r="B40" s="72" t="s">
+        <v>540</v>
+      </c>
+      <c r="C40" s="73">
+        <v>325</v>
+      </c>
+      <c r="D40" s="72"/>
+      <c r="E40" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F40" s="73"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A41" s="73"/>
+      <c r="B41" s="72" t="s">
+        <v>576</v>
+      </c>
+      <c r="C41" s="73">
+        <v>86</v>
+      </c>
+      <c r="D41" s="72"/>
+      <c r="E41" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F41" s="73"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A42" s="73"/>
+      <c r="B42" s="72" t="s">
+        <v>541</v>
+      </c>
+      <c r="C42" s="73">
+        <v>16</v>
+      </c>
+      <c r="D42" s="72"/>
+      <c r="E42" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F42" s="73"/>
+    </row>
+    <row r="43" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A43" s="73"/>
+      <c r="B43" s="72" t="s">
+        <v>533</v>
+      </c>
+      <c r="C43" s="73">
+        <v>270</v>
+      </c>
+      <c r="D43" s="72" t="s">
+        <v>577</v>
+      </c>
+      <c r="E43" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F43" s="73"/>
+    </row>
+    <row r="44" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A44" s="73"/>
+      <c r="B44" s="72" t="s">
+        <v>544</v>
+      </c>
+      <c r="C44" s="73">
+        <v>150</v>
+      </c>
+      <c r="D44" s="72" t="s">
+        <v>578</v>
+      </c>
+      <c r="E44" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F44" s="73"/>
+    </row>
+    <row r="45" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A45" s="75">
+        <v>44080</v>
+      </c>
+      <c r="B45" s="72" t="s">
+        <v>536</v>
+      </c>
+      <c r="C45" s="73">
+        <v>126</v>
+      </c>
+      <c r="D45" s="72" t="s">
+        <v>579</v>
+      </c>
+      <c r="E45" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F45" s="72" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A46" s="73"/>
+      <c r="B46" s="72" t="s">
+        <v>581</v>
+      </c>
+      <c r="C46" s="73">
+        <v>22</v>
+      </c>
+      <c r="D46" s="72"/>
+      <c r="E46" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F46" s="73"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A47" s="73"/>
+      <c r="B47" s="72" t="s">
+        <v>582</v>
+      </c>
+      <c r="C47" s="73">
+        <v>30</v>
+      </c>
+      <c r="D47" s="72" t="s">
+        <v>583</v>
+      </c>
+      <c r="E47" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F47" s="73"/>
+    </row>
+    <row r="48" spans="1:6" ht="29.4" thickBot="1">
+      <c r="A48" s="73"/>
+      <c r="B48" s="72" t="s">
+        <v>541</v>
+      </c>
+      <c r="C48" s="73" t="s">
+        <v>584</v>
+      </c>
+      <c r="D48" s="72"/>
+      <c r="E48" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F48" s="73"/>
+    </row>
+    <row r="49" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A49" s="73"/>
+      <c r="B49" s="72" t="s">
+        <v>585</v>
+      </c>
+      <c r="C49" s="73">
+        <v>90</v>
+      </c>
+      <c r="D49" s="72" t="s">
+        <v>586</v>
+      </c>
+      <c r="E49" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F49" s="73"/>
+    </row>
+    <row r="50" spans="1:6" ht="47.4" thickBot="1">
+      <c r="A50" s="73"/>
+      <c r="B50" s="72" t="s">
+        <v>533</v>
+      </c>
+      <c r="C50" s="73">
+        <v>336</v>
+      </c>
+      <c r="D50" s="72" t="s">
+        <v>587</v>
+      </c>
+      <c r="E50" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F50" s="73"/>
+    </row>
+    <row r="51" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A51" s="73"/>
+      <c r="B51" s="72" t="s">
+        <v>544</v>
+      </c>
+      <c r="C51" s="73">
+        <v>150</v>
+      </c>
+      <c r="D51" s="72" t="s">
+        <v>588</v>
+      </c>
+      <c r="E51" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F51" s="73"/>
+    </row>
+    <row r="52" spans="1:6" ht="47.4" thickBot="1">
+      <c r="A52" s="75">
+        <v>44081</v>
+      </c>
+      <c r="B52" s="72" t="s">
+        <v>536</v>
+      </c>
+      <c r="C52" s="73">
+        <v>208</v>
+      </c>
+      <c r="D52" s="72" t="s">
+        <v>589</v>
+      </c>
+      <c r="E52" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F52" s="72" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A53" s="73"/>
+      <c r="B53" s="72" t="s">
+        <v>591</v>
+      </c>
+      <c r="C53" s="73">
+        <v>240</v>
+      </c>
+      <c r="D53" s="72"/>
+      <c r="E53" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F53" s="73"/>
+    </row>
+    <row r="54" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A54" s="73"/>
+      <c r="B54" s="72" t="s">
+        <v>592</v>
+      </c>
+      <c r="C54" s="73">
+        <v>2</v>
+      </c>
+      <c r="D54" s="72"/>
+      <c r="E54" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F54" s="73"/>
+    </row>
+    <row r="55" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A55" s="73"/>
+      <c r="B55" s="72" t="s">
+        <v>541</v>
+      </c>
+      <c r="C55" s="73" t="s">
+        <v>593</v>
+      </c>
+      <c r="D55" s="72"/>
+      <c r="E55" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F55" s="73"/>
+    </row>
+    <row r="56" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A56" s="73"/>
+      <c r="B56" s="72" t="s">
+        <v>594</v>
+      </c>
+      <c r="C56" s="73">
+        <v>435</v>
+      </c>
+      <c r="D56" s="72"/>
+      <c r="E56" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F56" s="73"/>
+    </row>
+    <row r="57" spans="1:6" ht="47.4" thickBot="1">
+      <c r="A57" s="73"/>
+      <c r="B57" s="72" t="s">
+        <v>533</v>
+      </c>
+      <c r="C57" s="73">
+        <v>350</v>
+      </c>
+      <c r="D57" s="72" t="s">
+        <v>595</v>
+      </c>
+      <c r="E57" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F57" s="73"/>
+    </row>
+    <row r="58" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A58" s="73"/>
+      <c r="B58" s="72" t="s">
+        <v>596</v>
+      </c>
+      <c r="C58" s="73">
+        <v>100</v>
+      </c>
+      <c r="D58" s="72" t="s">
+        <v>597</v>
+      </c>
+      <c r="E58" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F58" s="73"/>
+    </row>
+    <row r="59" spans="1:6" ht="46.2" thickBot="1">
+      <c r="A59" s="75">
+        <v>44082</v>
+      </c>
+      <c r="B59" s="72" t="s">
+        <v>598</v>
+      </c>
+      <c r="C59" s="73">
+        <v>82</v>
+      </c>
+      <c r="D59" s="72"/>
+      <c r="E59" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F59" s="73" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="43.8" thickBot="1">
+      <c r="A60" s="73"/>
+      <c r="B60" s="72" t="s">
+        <v>541</v>
+      </c>
+      <c r="C60" s="73" t="s">
+        <v>600</v>
+      </c>
+      <c r="D60" s="72"/>
+      <c r="E60" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F60" s="73"/>
+    </row>
+    <row r="61" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A61" s="73"/>
+      <c r="B61" s="72" t="s">
+        <v>601</v>
+      </c>
+      <c r="C61" s="73">
+        <v>186</v>
+      </c>
+      <c r="D61" s="72" t="s">
+        <v>602</v>
+      </c>
+      <c r="E61" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F61" s="73"/>
+    </row>
+    <row r="62" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A62" s="73"/>
+      <c r="B62" s="72" t="s">
+        <v>533</v>
+      </c>
+      <c r="C62" s="73">
+        <v>420</v>
+      </c>
+      <c r="D62" s="72"/>
+      <c r="E62" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F62" s="73"/>
+    </row>
+    <row r="63" spans="1:6" ht="47.4" thickBot="1">
+      <c r="A63" s="73"/>
+      <c r="B63" s="72" t="s">
+        <v>596</v>
+      </c>
+      <c r="C63" s="73">
+        <v>300</v>
+      </c>
+      <c r="D63" s="72" t="s">
+        <v>603</v>
+      </c>
+      <c r="E63" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F63" s="73"/>
+    </row>
+    <row r="64" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A64" s="73"/>
+      <c r="B64" s="72" t="s">
+        <v>604</v>
+      </c>
+      <c r="C64" s="73"/>
+      <c r="D64" s="72" t="s">
+        <v>605</v>
+      </c>
+      <c r="E64" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F64" s="73"/>
+    </row>
+    <row r="65" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A65" s="75">
+        <v>44083</v>
+      </c>
+      <c r="B65" s="72" t="s">
+        <v>606</v>
+      </c>
+      <c r="C65" s="73">
+        <v>185</v>
+      </c>
+      <c r="D65" s="72" t="s">
+        <v>607</v>
+      </c>
+      <c r="E65" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F65" s="72" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A66" s="73"/>
+      <c r="B66" s="72" t="s">
+        <v>540</v>
+      </c>
+      <c r="C66" s="73">
+        <v>380</v>
+      </c>
+      <c r="D66" s="72" t="s">
+        <v>609</v>
+      </c>
+      <c r="E66" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F66" s="73"/>
+    </row>
+    <row r="67" spans="1:6" ht="63" thickBot="1">
+      <c r="A67" s="73"/>
+      <c r="B67" s="72" t="s">
+        <v>533</v>
+      </c>
+      <c r="C67" s="73">
+        <v>580</v>
+      </c>
+      <c r="D67" s="72" t="s">
+        <v>610</v>
+      </c>
+      <c r="E67" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F67" s="73"/>
+    </row>
+    <row r="68" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A68" s="73"/>
+      <c r="B68" s="72" t="s">
+        <v>596</v>
+      </c>
+      <c r="C68" s="73">
+        <v>110</v>
+      </c>
+      <c r="D68" s="72" t="s">
+        <v>611</v>
+      </c>
+      <c r="E68" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F68" s="73"/>
+    </row>
+    <row r="69" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A69" s="73"/>
+      <c r="B69" s="72" t="s">
+        <v>612</v>
+      </c>
+      <c r="C69" s="73">
+        <v>15</v>
+      </c>
+      <c r="D69" s="72" t="s">
+        <v>613</v>
+      </c>
+      <c r="E69" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F69" s="73"/>
+    </row>
+    <row r="70" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A70" s="75">
+        <v>44084</v>
+      </c>
+      <c r="B70" s="72" t="s">
+        <v>536</v>
+      </c>
+      <c r="C70" s="73"/>
+      <c r="D70" s="72" t="s">
+        <v>614</v>
+      </c>
+      <c r="E70" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F70" s="72" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A71" s="73"/>
+      <c r="B71" s="72" t="s">
+        <v>616</v>
+      </c>
+      <c r="C71" s="73"/>
+      <c r="D71" s="72" t="s">
+        <v>586</v>
+      </c>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+    </row>
+    <row r="72" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A72" s="73"/>
+      <c r="B72" s="72" t="s">
+        <v>617</v>
+      </c>
+      <c r="C72" s="73">
+        <v>60</v>
+      </c>
+      <c r="D72" s="72" t="s">
+        <v>618</v>
+      </c>
+      <c r="E72" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F72" s="73"/>
+    </row>
+    <row r="73" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A73" s="73"/>
+      <c r="B73" s="72" t="s">
+        <v>619</v>
+      </c>
+      <c r="C73" s="73">
+        <v>150</v>
+      </c>
+      <c r="D73" s="72"/>
+      <c r="E73" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F73" s="73"/>
+    </row>
+    <row r="74" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A74" s="73"/>
+      <c r="B74" s="72" t="s">
+        <v>533</v>
+      </c>
+      <c r="C74" s="73">
+        <v>512</v>
+      </c>
+      <c r="D74" s="72"/>
+      <c r="E74" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F74" s="73"/>
+    </row>
+    <row r="75" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A75" s="73"/>
+      <c r="B75" s="72" t="s">
+        <v>620</v>
+      </c>
+      <c r="C75" s="73">
+        <v>306</v>
+      </c>
+      <c r="D75" s="72"/>
+      <c r="E75" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F75" s="73"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A76" s="73"/>
+      <c r="B76" s="72" t="s">
+        <v>596</v>
+      </c>
+      <c r="C76" s="73">
+        <v>170</v>
+      </c>
+      <c r="D76" s="72"/>
+      <c r="E76" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F76" s="73"/>
+    </row>
+    <row r="77" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A77" s="73"/>
+      <c r="B77" s="72" t="s">
+        <v>621</v>
+      </c>
+      <c r="C77" s="73">
+        <v>140</v>
+      </c>
+      <c r="D77" s="72"/>
+      <c r="E77" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F77" s="73"/>
+    </row>
+    <row r="78" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A78" s="73"/>
+      <c r="B78" s="72" t="s">
+        <v>612</v>
+      </c>
+      <c r="C78" s="73">
+        <v>27</v>
+      </c>
+      <c r="D78" s="72" t="s">
+        <v>622</v>
+      </c>
+      <c r="E78" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F78" s="73"/>
+    </row>
+    <row r="79" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A79" s="75">
+        <v>44085</v>
+      </c>
+      <c r="B79" s="72"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="73"/>
+      <c r="F79" s="72" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="47.4" thickBot="1">
+      <c r="A80" s="73"/>
+      <c r="B80" s="72" t="s">
+        <v>544</v>
+      </c>
+      <c r="C80" s="73">
+        <v>282</v>
+      </c>
+      <c r="D80" s="72" t="s">
+        <v>624</v>
+      </c>
+      <c r="E80" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F80" s="73"/>
+    </row>
+    <row r="81" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A81" s="73"/>
+      <c r="B81" s="72" t="s">
+        <v>541</v>
+      </c>
+      <c r="C81" s="73" t="s">
+        <v>625</v>
+      </c>
+      <c r="D81" s="72"/>
+      <c r="E81" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F81" s="73"/>
+    </row>
+    <row r="82" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A82" s="73"/>
+      <c r="B82" s="72" t="s">
+        <v>592</v>
+      </c>
+      <c r="C82" s="73">
+        <v>10</v>
+      </c>
+      <c r="D82" s="72"/>
+      <c r="E82" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F82" s="73"/>
+    </row>
+    <row r="83" spans="1:6" ht="47.4" thickBot="1">
+      <c r="A83" s="73"/>
+      <c r="B83" s="72" t="s">
+        <v>533</v>
+      </c>
+      <c r="C83" s="73">
+        <v>304</v>
+      </c>
+      <c r="D83" s="72" t="s">
+        <v>626</v>
+      </c>
+      <c r="E83" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F83" s="73"/>
+    </row>
+    <row r="84" spans="1:6" ht="47.4" thickBot="1">
+      <c r="A84" s="75">
+        <v>44086</v>
+      </c>
+      <c r="B84" s="72" t="s">
+        <v>536</v>
+      </c>
+      <c r="C84" s="73">
+        <v>84</v>
+      </c>
+      <c r="D84" s="72" t="s">
+        <v>627</v>
+      </c>
+      <c r="E84" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F84" s="72" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A85" s="73"/>
+      <c r="B85" s="72" t="s">
+        <v>541</v>
+      </c>
+      <c r="C85" s="73" t="s">
+        <v>628</v>
+      </c>
+      <c r="D85" s="72" t="s">
+        <v>629</v>
+      </c>
+      <c r="E85" s="73" t="s">
+        <v>537</v>
+      </c>
+      <c r="F85" s="73"/>
+    </row>
+    <row r="86" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A86" s="73"/>
+      <c r="B86" s="72" t="s">
+        <v>541</v>
+      </c>
+      <c r="C86" s="73">
+        <v>20</v>
+      </c>
+      <c r="D86" s="72" t="s">
+        <v>630</v>
+      </c>
+      <c r="E86" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="F86" s="73"/>
+    </row>
+    <row r="87" spans="1:6" ht="47.4" thickBot="1">
+      <c r="A87" s="73"/>
+      <c r="B87" s="72" t="s">
+        <v>533</v>
+      </c>
+      <c r="C87" s="73">
+        <v>376</v>
+      </c>
+      <c r="D87" s="72" t="s">
+        <v>631</v>
+      </c>
+      <c r="E87" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F87" s="73"/>
+    </row>
+    <row r="88" spans="1:6" ht="31.8" thickBot="1">
+      <c r="A88" s="73"/>
+      <c r="B88" s="72" t="s">
+        <v>612</v>
+      </c>
+      <c r="C88" s="73"/>
+      <c r="D88" s="72" t="s">
+        <v>632</v>
+      </c>
+      <c r="E88" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F88" s="73"/>
+    </row>
+    <row r="89" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A89" s="73"/>
+      <c r="B89" s="72" t="s">
+        <v>612</v>
+      </c>
+      <c r="C89" s="73"/>
+      <c r="D89" s="72" t="s">
+        <v>633</v>
+      </c>
+      <c r="E89" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="F89" s="73"/>
+    </row>
+    <row r="90" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A90" s="73"/>
+      <c r="B90" s="72" t="s">
+        <v>612</v>
+      </c>
+      <c r="C90" s="73">
+        <v>27</v>
+      </c>
+      <c r="D90" s="72" t="s">
+        <v>634</v>
+      </c>
+      <c r="E90" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="F90" s="73"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="19.2166666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.4416666666667" customWidth="1"/>
-    <col min="12" max="12" width="9.44166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="17" width="11.4416666666667" customWidth="1"/>
+    <col min="14" max="17" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:18">
+      <c r="B1" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="38" t="s">
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="37">
+      <c r="M1" s="67"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="36">
         <v>6.1</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="32"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="31"/>
       <c r="B2" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>42967</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="33">
         <v>739</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33">
         <v>17000</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>42926</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="33">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="32">
         <v>42551</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="33">
         <v>-102500</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="33">
+      <c r="J3" s="33"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="32">
         <v>43225</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="N3" s="34">
+      <c r="N3" s="33">
         <v>15599</v>
       </c>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44">
+      <c r="O3" s="37"/>
+      <c r="P3" s="37">
         <v>22998</v>
       </c>
-      <c r="Q3" s="45">
+      <c r="Q3" s="38">
         <v>21999</v>
       </c>
       <c r="R3" t="s">
@@ -4661,662 +5920,662 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>42998</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="33">
         <v>1146</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33">
         <v>16000</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>43022</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="33">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="32">
         <v>43144</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="33">
         <v>38000</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="33">
         <f>I3+I4</f>
         <v>-64500</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="33" t="s">
+      <c r="K4" s="37"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4" s="33">
         <v>195</v>
       </c>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44">
+      <c r="O4" s="37"/>
+      <c r="P4" s="37">
         <v>239</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="Q4" s="37">
         <v>239</v>
       </c>
       <c r="R4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="33">
+    <row r="5" spans="1:18">
+      <c r="A5" s="32">
         <v>43028</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <v>998.48</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33">
         <v>6000</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>43033</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="33">
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32">
         <v>43497</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="33">
         <v>30000</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="33">
         <f>J4+I5</f>
         <v>-34500</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34" t="s">
+      <c r="K5" s="37"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="33">
         <v>779</v>
       </c>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44">
+      <c r="O5" s="37"/>
+      <c r="P5" s="37">
         <v>1509</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="37">
         <v>1509</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="33">
+    <row r="6" spans="1:18">
+      <c r="A6" s="32">
         <v>43059</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>1163</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33">
         <v>5000</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>43054</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34" t="s">
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="33">
         <v>99</v>
       </c>
-      <c r="O6" s="44"/>
-      <c r="P6" s="45">
+      <c r="O6" s="37"/>
+      <c r="P6" s="38">
         <v>99</v>
       </c>
-      <c r="Q6" s="45">
+      <c r="Q6" s="38">
         <v>99</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:17">
-      <c r="A7" s="33">
+    <row r="7" spans="1:18">
+      <c r="A7" s="32">
         <v>43089</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>1108</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33">
         <v>5000</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>43089</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34" t="s">
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="33">
         <v>105</v>
       </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="45">
+      <c r="O7" s="37"/>
+      <c r="P7" s="38">
         <v>105</v>
       </c>
-      <c r="Q7" s="45">
+      <c r="Q7" s="38">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="33">
+    <row r="8" spans="1:18">
+      <c r="A8" s="32">
         <v>43120</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <v>1161</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33">
         <v>4000</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>43120</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="47">
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="40">
         <v>559</v>
       </c>
-      <c r="Q8" s="44" t="s">
+      <c r="Q8" s="37" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:15">
-      <c r="A9" s="33">
+    <row r="9" spans="1:18">
+      <c r="A9" s="32">
         <v>43120</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="33">
         <v>1189</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <v>4000</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>43151</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="44"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="33">
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="37"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="32">
         <v>43151</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="33">
         <v>1100</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="33">
         <v>17518</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <v>4000</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="48">
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="41">
         <v>399</v>
       </c>
-      <c r="P10" s="49">
+      <c r="P10" s="42">
         <v>629</v>
       </c>
-      <c r="Q10" s="44" t="s">
+      <c r="Q10" s="37" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="11" s="29" customFormat="1" spans="1:17">
-      <c r="A11" s="35">
+    <row r="11" spans="1:18" s="29" customFormat="1">
+      <c r="A11" s="34">
         <v>43179</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>1100</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35">
         <v>14000</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36">
+      <c r="E11" s="35"/>
+      <c r="F11" s="35">
         <v>10000</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52">
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="45">
         <v>11749</v>
       </c>
-      <c r="P11" s="53">
+      <c r="P11" s="46">
         <v>12199</v>
       </c>
-      <c r="Q11" s="50" t="s">
+      <c r="Q11" s="43" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34">
+    <row r="12" spans="1:18">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33">
         <v>1100</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33">
         <v>200000</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="54">
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="47">
         <v>776</v>
       </c>
-      <c r="P12" s="55">
+      <c r="P12" s="48">
         <v>779</v>
       </c>
-      <c r="Q12" s="44"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="33">
+      <c r="Q12" s="37"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="32">
         <v>43210</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="33">
         <v>1100</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="54">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="47">
         <v>1949</v>
       </c>
-      <c r="P13" s="55">
+      <c r="P13" s="48">
         <v>2299</v>
       </c>
-      <c r="Q13" s="45" t="s">
+      <c r="Q13" s="38" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="33">
+    <row r="14" spans="1:18">
+      <c r="A14" s="32">
         <v>43240</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="33">
         <v>1100</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="56">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="49">
         <v>22499</v>
       </c>
-      <c r="P14" s="55">
+      <c r="P14" s="48">
         <v>22998</v>
       </c>
-      <c r="Q14" s="45" t="s">
+      <c r="Q14" s="38" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="33">
+    <row r="15" spans="1:18">
+      <c r="A15" s="32">
         <v>43269</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="33">
         <v>13701</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33">
         <v>13701</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="56">
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="49">
         <v>1509</v>
       </c>
-      <c r="P15" s="55">
+      <c r="P15" s="48">
         <v>1509</v>
       </c>
-      <c r="Q15" s="44"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:17">
-      <c r="A16" s="33">
+      <c r="Q15" s="37"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="32">
         <v>43271</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="33">
         <v>1100</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="O16" s="57">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="O16" s="50">
         <f>2*229</f>
         <v>458</v>
       </c>
-      <c r="P16" s="58">
+      <c r="P16" s="51">
         <f>198*3</f>
         <v>594</v>
       </c>
-      <c r="Q16" s="45" t="s">
+      <c r="Q16" s="38" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:17">
-      <c r="A17" s="33">
+    <row r="17" spans="1:17">
+      <c r="A17" s="32">
         <v>43266</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="33">
         <v>4000</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="O17" s="56"/>
-      <c r="P17" s="59">
+      <c r="O17" s="49"/>
+      <c r="P17" s="52">
         <v>3499</v>
       </c>
-      <c r="Q17" s="45" t="s">
+      <c r="Q17" s="38" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="33">
+      <c r="A18" s="32">
         <v>43275</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33">
         <v>1600</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="33">
         <f>D11-C18</f>
         <v>12400</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="O18" s="56">
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="O18" s="49">
         <v>239</v>
       </c>
-      <c r="P18" s="60">
+      <c r="P18" s="53">
         <f>239*1</f>
         <v>239</v>
       </c>
-      <c r="Q18" s="45" t="s">
+      <c r="Q18" s="38" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:17">
-      <c r="A19" s="33">
+    <row r="19" spans="1:17">
+      <c r="A19" s="32">
         <v>43275</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="33">
         <v>15000</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="O19" s="61">
+      <c r="O19" s="54">
         <v>269</v>
       </c>
-      <c r="P19" s="55">
+      <c r="P19" s="48">
         <v>269</v>
       </c>
-      <c r="Q19" s="44" t="s">
+      <c r="Q19" s="37" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34">
+    <row r="20" spans="1:17">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33">
         <v>4000</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="33">
+    <row r="21" spans="1:17">
+      <c r="A21" s="32">
         <v>43543</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="33">
         <v>18000</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="33">
+    <row r="22" spans="1:17">
+      <c r="A22" s="32">
         <v>43575</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="33">
         <v>30000</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="33">
+    <row r="23" spans="1:17">
+      <c r="A23" s="32">
         <v>43621</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="33">
         <v>1400</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="33">
+    <row r="24" spans="1:17">
+      <c r="A24" s="32">
         <v>43636</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="33">
         <v>480</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="33">
+    <row r="25" spans="1:17">
+      <c r="A25" s="32">
         <v>43640</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="33">
         <v>3600</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34" t="s">
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="33">
+    <row r="26" spans="1:17">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="32">
         <v>43762</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="33">
         <v>21000</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34" t="s">
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="33">
+    <row r="31" spans="1:17">
+      <c r="A31" s="32">
         <v>43775</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33">
         <v>10000</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34" t="s">
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="33">
+    <row r="32" spans="1:17">
+      <c r="A32" s="32">
         <v>43776</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="33">
         <v>10000</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34" t="s">
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="33">
+      <c r="A33" s="32">
         <v>43808</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="33">
         <v>10000</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34" t="s">
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5328,24 +6587,22 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5583333333333" customWidth="1"/>
-    <col min="3" max="3" width="21.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.2166666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -5411,29 +6668,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.4416666666667" customWidth="1"/>
-    <col min="7" max="7" width="17.2166666666667" customWidth="1"/>
-    <col min="8" max="8" width="42.775" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="42.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>256</v>
       </c>
@@ -5453,7 +6708,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" spans="1:8" ht="16.2">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -5479,7 +6734,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" spans="1:8" ht="16.2">
       <c r="A3" t="s">
         <v>267</v>
       </c>
@@ -5505,7 +6760,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>271</v>
       </c>
@@ -5525,12 +6780,12 @@
         <v>43625</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>274</v>
       </c>
@@ -5557,39 +6812,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="lyyygz@163.com"/>
-    <hyperlink ref="G2" r:id="rId2" display="suoghui@163.com"/>
-    <hyperlink ref="H2" r:id="rId3" display="https://account.microsoft.com/profile/"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:XFD66"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13" style="17" customWidth="1"/>
     <col min="2" max="2" width="7" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12.8833333333333" style="17" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="17" customWidth="1"/>
     <col min="4" max="4" width="8" style="17" customWidth="1"/>
-    <col min="5" max="6" width="9.10833333333333" style="17"/>
-    <col min="7" max="8" width="19.1083333333333" customWidth="1"/>
-    <col min="9" max="9" width="15.6666666666667" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="17"/>
+    <col min="7" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:9">
+    <row r="1" spans="1:11" ht="18">
       <c r="A1" s="18" t="s">
         <v>275</v>
       </c>
@@ -5618,7 +6870,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:11">
       <c r="A2" s="19">
         <v>41567</v>
       </c>
@@ -5639,7 +6891,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:11">
       <c r="A3" s="19">
         <v>41598</v>
       </c>
@@ -5647,14 +6899,14 @@
         <v>286</v>
       </c>
       <c r="C3" s="20">
-        <v>4888.02</v>
+        <v>4888.0200000000004</v>
       </c>
       <c r="D3" s="20">
         <v>2083.33</v>
       </c>
       <c r="E3" s="20">
         <f t="shared" ref="E3:E66" si="0">C3-D3</f>
-        <v>2804.69</v>
+        <v>2804.6900000000005</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>285</v>
@@ -5690,14 +6942,14 @@
         <v>288</v>
       </c>
       <c r="C5" s="20">
-        <v>4872.39</v>
+        <v>4872.3900000000003</v>
       </c>
       <c r="D5" s="20">
         <v>2083.33</v>
       </c>
       <c r="E5" s="20">
         <f t="shared" si="0"/>
-        <v>2789.06</v>
+        <v>2789.0600000000004</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>285</v>
@@ -5734,14 +6986,14 @@
         <v>290</v>
       </c>
       <c r="C7" s="20">
-        <v>4856.77</v>
+        <v>4856.7700000000004</v>
       </c>
       <c r="D7" s="20">
         <v>2083.33</v>
       </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>2773.44</v>
+        <v>2773.4400000000005</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>285</v>
@@ -5778,14 +7030,14 @@
         <v>292</v>
       </c>
       <c r="C9" s="20">
-        <v>4841.15</v>
+        <v>4841.1499999999996</v>
       </c>
       <c r="D9" s="20">
         <v>2083.33</v>
       </c>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>2757.82</v>
+        <v>2757.8199999999997</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>285</v>
@@ -5824,14 +7076,14 @@
       </c>
       <c r="C11" s="20">
         <f>C10-7.81</f>
-        <v>4825.52</v>
+        <v>4825.5199999999995</v>
       </c>
       <c r="D11" s="20">
         <v>2083.33</v>
       </c>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
-        <v>2742.19</v>
+        <v>2742.1899999999996</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>285</v>
@@ -5847,21 +7099,21 @@
       </c>
       <c r="C12" s="20">
         <f>C11-7.81</f>
-        <v>4817.71</v>
+        <v>4817.7099999999991</v>
       </c>
       <c r="D12" s="20">
         <v>2083.33</v>
       </c>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
-        <v>2734.38</v>
+        <v>2734.3799999999992</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>285</v>
       </c>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:11">
       <c r="A13" s="19">
         <v>41902</v>
       </c>
@@ -5870,20 +7122,20 @@
       </c>
       <c r="C13" s="20">
         <f>C12-7.82</f>
-        <v>4809.89</v>
+        <v>4809.8899999999994</v>
       </c>
       <c r="D13" s="20">
         <v>2083.33</v>
       </c>
       <c r="E13" s="20">
         <f t="shared" si="0"/>
-        <v>2726.56</v>
+        <v>2726.5599999999995</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:11">
       <c r="A14" s="19">
         <v>41932</v>
       </c>
@@ -5892,20 +7144,20 @@
       </c>
       <c r="C14" s="20">
         <f>C13-7.81</f>
-        <v>4802.08</v>
+        <v>4802.079999999999</v>
       </c>
       <c r="D14" s="20">
         <v>2083.33</v>
       </c>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
-        <v>2718.75</v>
+        <v>2718.7499999999991</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:11">
       <c r="A15" s="19">
         <v>41963</v>
       </c>
@@ -5914,20 +7166,20 @@
       </c>
       <c r="C15" s="20">
         <f t="shared" ref="C15:C16" si="1">C14-7.81</f>
-        <v>4794.27</v>
+        <v>4794.2699999999986</v>
       </c>
       <c r="D15" s="20">
         <v>2083.33</v>
       </c>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
-        <v>2710.94</v>
+        <v>2710.9399999999987</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:11">
       <c r="A16" s="19">
         <v>41993</v>
       </c>
@@ -5936,20 +7188,20 @@
       </c>
       <c r="C16" s="20">
         <f t="shared" si="1"/>
-        <v>4786.46</v>
+        <v>4786.4599999999982</v>
       </c>
       <c r="D16" s="20">
         <v>2083.33</v>
       </c>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
-        <v>2703.13</v>
+        <v>2703.1299999999983</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:16384">
       <c r="A17" s="19">
         <v>42024</v>
       </c>
@@ -5957,20 +7209,20 @@
         <v>300</v>
       </c>
       <c r="C17" s="20">
-        <v>4683.81</v>
+        <v>4683.8100000000004</v>
       </c>
       <c r="D17" s="20">
         <v>2083.33</v>
       </c>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>2600.48</v>
+        <v>2600.4800000000005</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:16384">
       <c r="A18" s="19">
         <v>42055</v>
       </c>
@@ -5979,20 +7231,20 @@
       </c>
       <c r="C18" s="20">
         <f>4621.52</f>
-        <v>4621.52</v>
+        <v>4621.5200000000004</v>
       </c>
       <c r="D18" s="20">
         <v>2083.33</v>
       </c>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>2538.19</v>
+        <v>2538.1900000000005</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:16384">
       <c r="A19" s="19">
         <v>42083</v>
       </c>
@@ -6000,20 +7252,20 @@
         <v>302</v>
       </c>
       <c r="C19" s="20">
-        <v>4614.15</v>
+        <v>4614.1499999999996</v>
       </c>
       <c r="D19" s="20">
         <v>2083.33</v>
       </c>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>2530.82</v>
+        <v>2530.8199999999997</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:16384">
       <c r="A20" s="19">
         <v>42114</v>
       </c>
@@ -6022,20 +7274,20 @@
       </c>
       <c r="C20" s="20">
         <f>4606.77</f>
-        <v>4606.77</v>
+        <v>4606.7700000000004</v>
       </c>
       <c r="D20" s="20">
         <v>2083.33</v>
       </c>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>2523.44</v>
+        <v>2523.4400000000005</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:16384">
       <c r="A21" s="19">
         <v>42144</v>
       </c>
@@ -6043,20 +7295,20 @@
         <v>304</v>
       </c>
       <c r="C21" s="20">
-        <v>4599.39</v>
+        <v>4599.3900000000003</v>
       </c>
       <c r="D21" s="20">
         <v>2083.33</v>
       </c>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>2516.06</v>
+        <v>2516.0600000000004</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:16384">
       <c r="A22" s="19">
         <v>42175</v>
       </c>
@@ -6072,13 +7324,13 @@
       </c>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>2508.68</v>
+        <v>2508.6800000000003</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:16384">
       <c r="A23" s="19">
         <v>42205</v>
       </c>
@@ -6094,13 +7346,13 @@
       </c>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>2501.3</v>
+        <v>2501.3000000000002</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="24" s="16" customFormat="1" spans="1:16384">
+    <row r="24" spans="1:16384" s="16" customFormat="1">
       <c r="A24" s="19">
         <v>42236</v>
       </c>
@@ -22500,7 +23752,7 @@
       <c r="XFC24" s="22"/>
       <c r="XFD24" s="22"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:16384">
       <c r="A25" s="19">
         <v>42267</v>
       </c>
@@ -22516,7 +23768,7 @@
       </c>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>2486.55</v>
+        <v>2486.5500000000002</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>285</v>
@@ -22525,7 +23777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:16384">
       <c r="A26" s="19">
         <v>42297</v>
       </c>
@@ -22547,7 +23799,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:16384">
       <c r="A27" s="19">
         <v>42328</v>
       </c>
@@ -22569,7 +23821,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:16384">
       <c r="A28" s="19">
         <v>42358</v>
       </c>
@@ -22591,7 +23843,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:16384">
       <c r="A29" s="19">
         <v>42389</v>
       </c>
@@ -22607,13 +23859,13 @@
       </c>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>2090.89</v>
+        <v>2090.8900000000003</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:16384">
       <c r="A30" s="19">
         <v>42420</v>
       </c>
@@ -22628,13 +23880,13 @@
       </c>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>1873.26</v>
+        <v>1873.2600000000002</v>
       </c>
       <c r="F30" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:16384">
       <c r="A31" s="23">
         <v>42449</v>
       </c>
@@ -22655,7 +23907,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:16384">
       <c r="A32" s="19">
         <v>42480</v>
       </c>
@@ -22693,7 +23945,7 @@
       </c>
       <c r="E33" s="24">
         <f t="shared" si="0"/>
-        <v>1856.34</v>
+        <v>1856.3400000000001</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>285</v>
@@ -22715,7 +23967,7 @@
       </c>
       <c r="E34" s="24">
         <f t="shared" si="0"/>
-        <v>1850.7</v>
+        <v>1850.7000000000003</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>285</v>
@@ -22730,14 +23982,14 @@
       </c>
       <c r="C35" s="24">
         <f t="shared" ref="C35:C66" si="3">C34-5.64</f>
-        <v>3928.39</v>
+        <v>3928.3900000000003</v>
       </c>
       <c r="D35" s="20">
         <v>2083.33</v>
       </c>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>1845.06</v>
+        <v>1845.0600000000004</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>285</v>
@@ -22752,14 +24004,14 @@
       </c>
       <c r="C36" s="24">
         <f t="shared" si="3"/>
-        <v>3922.75</v>
+        <v>3922.7500000000005</v>
       </c>
       <c r="D36" s="20">
         <v>2083.33</v>
       </c>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>1839.42</v>
+        <v>1839.4200000000005</v>
       </c>
       <c r="F36" s="20" t="s">
         <v>285</v>
@@ -22774,14 +24026,14 @@
       </c>
       <c r="C37" s="24">
         <f t="shared" si="3"/>
-        <v>3917.11</v>
+        <v>3917.1100000000006</v>
       </c>
       <c r="D37" s="20">
         <v>2083.33</v>
       </c>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>1833.78</v>
+        <v>1833.7800000000007</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>285</v>
@@ -22796,14 +24048,14 @@
       </c>
       <c r="C38" s="24">
         <f t="shared" si="3"/>
-        <v>3911.47</v>
+        <v>3911.4700000000007</v>
       </c>
       <c r="D38" s="20">
         <v>2083.33</v>
       </c>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>1828.14</v>
+        <v>1828.1400000000008</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>285</v>
@@ -22818,14 +24070,14 @@
       </c>
       <c r="C39" s="24">
         <f t="shared" si="3"/>
-        <v>3905.83</v>
+        <v>3905.8300000000008</v>
       </c>
       <c r="D39" s="20">
         <v>2083.33</v>
       </c>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>1822.5</v>
+        <v>1822.5000000000009</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>285</v>
@@ -22840,14 +24092,14 @@
       </c>
       <c r="C40" s="24">
         <f t="shared" si="3"/>
-        <v>3900.19</v>
+        <v>3900.190000000001</v>
       </c>
       <c r="D40" s="20">
         <v>2083.33</v>
       </c>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>1816.86</v>
+        <v>1816.860000000001</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>285</v>
@@ -22862,14 +24114,14 @@
       </c>
       <c r="C41" s="24">
         <f t="shared" si="3"/>
-        <v>3894.55</v>
+        <v>3894.5500000000011</v>
       </c>
       <c r="D41" s="20">
         <v>2083.33</v>
       </c>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>1811.22</v>
+        <v>1811.2200000000012</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>285</v>
@@ -22884,14 +24136,14 @@
       </c>
       <c r="C42" s="24">
         <f t="shared" si="3"/>
-        <v>3888.91</v>
+        <v>3888.9100000000012</v>
       </c>
       <c r="D42" s="20">
         <v>2083.33</v>
       </c>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>1805.58</v>
+        <v>1805.5800000000013</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>285</v>
@@ -22906,14 +24158,14 @@
       </c>
       <c r="C43" s="24">
         <f t="shared" si="3"/>
-        <v>3883.27</v>
+        <v>3883.2700000000013</v>
       </c>
       <c r="D43" s="20">
         <v>2083.33</v>
       </c>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>1799.94</v>
+        <v>1799.9400000000014</v>
       </c>
       <c r="F43" s="20" t="s">
         <v>285</v>
@@ -22928,14 +24180,14 @@
       </c>
       <c r="C44" s="24">
         <f t="shared" si="3"/>
-        <v>3877.63</v>
+        <v>3877.6300000000015</v>
       </c>
       <c r="D44" s="20">
         <v>2083.33</v>
       </c>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>1794.3</v>
+        <v>1794.3000000000015</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>285</v>
@@ -22950,14 +24202,14 @@
       </c>
       <c r="C45" s="24">
         <f t="shared" si="3"/>
-        <v>3871.99</v>
+        <v>3871.9900000000016</v>
       </c>
       <c r="D45" s="20">
         <v>2083.33</v>
       </c>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>1788.66</v>
+        <v>1788.6600000000017</v>
       </c>
       <c r="F45" s="20" t="s">
         <v>285</v>
@@ -22972,14 +24224,14 @@
       </c>
       <c r="C46" s="24">
         <f t="shared" si="3"/>
-        <v>3866.35</v>
+        <v>3866.3500000000017</v>
       </c>
       <c r="D46" s="20">
         <v>2083.33</v>
       </c>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>1783.02</v>
+        <v>1783.0200000000018</v>
       </c>
       <c r="F46" s="20" t="s">
         <v>285</v>
@@ -22994,14 +24246,14 @@
       </c>
       <c r="C47" s="24">
         <f t="shared" si="3"/>
-        <v>3860.71</v>
+        <v>3860.7100000000019</v>
       </c>
       <c r="D47" s="20">
         <v>2083.33</v>
       </c>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>1777.38</v>
+        <v>1777.3800000000019</v>
       </c>
       <c r="F47" s="20" t="s">
         <v>285</v>
@@ -23016,14 +24268,14 @@
       </c>
       <c r="C48" s="24">
         <f t="shared" si="3"/>
-        <v>3855.07</v>
+        <v>3855.070000000002</v>
       </c>
       <c r="D48" s="20">
         <v>2083.33</v>
       </c>
       <c r="E48" s="20">
         <f t="shared" si="0"/>
-        <v>1771.74</v>
+        <v>1771.7400000000021</v>
       </c>
       <c r="F48" s="20" t="s">
         <v>285</v>
@@ -23038,14 +24290,14 @@
       </c>
       <c r="C49" s="24">
         <f t="shared" si="3"/>
-        <v>3849.43</v>
+        <v>3849.4300000000021</v>
       </c>
       <c r="D49" s="20">
         <v>2083.33</v>
       </c>
       <c r="E49" s="20">
         <f t="shared" si="0"/>
-        <v>1766.1</v>
+        <v>1766.1000000000022</v>
       </c>
       <c r="F49" s="20" t="s">
         <v>285</v>
@@ -23060,14 +24312,14 @@
       </c>
       <c r="C50" s="24">
         <f t="shared" si="3"/>
-        <v>3843.79</v>
+        <v>3843.7900000000022</v>
       </c>
       <c r="D50" s="20">
         <v>2083.33</v>
       </c>
       <c r="E50" s="20">
         <f t="shared" si="0"/>
-        <v>1760.46</v>
+        <v>1760.4600000000023</v>
       </c>
       <c r="F50" s="20" t="s">
         <v>285</v>
@@ -23082,14 +24334,14 @@
       </c>
       <c r="C51" s="24">
         <f t="shared" si="3"/>
-        <v>3838.15</v>
+        <v>3838.1500000000024</v>
       </c>
       <c r="D51" s="20">
         <v>2083.33</v>
       </c>
       <c r="E51" s="20">
         <f t="shared" si="0"/>
-        <v>1754.82</v>
+        <v>1754.8200000000024</v>
       </c>
       <c r="F51" s="20" t="s">
         <v>285</v>
@@ -23104,14 +24356,14 @@
       </c>
       <c r="C52" s="24">
         <f t="shared" si="3"/>
-        <v>3832.51</v>
+        <v>3832.5100000000025</v>
       </c>
       <c r="D52" s="20">
         <v>2083.33</v>
       </c>
       <c r="E52" s="20">
         <f t="shared" si="0"/>
-        <v>1749.18</v>
+        <v>1749.1800000000026</v>
       </c>
       <c r="F52" s="20" t="s">
         <v>285</v>
@@ -23126,14 +24378,14 @@
       </c>
       <c r="C53" s="24">
         <f t="shared" si="3"/>
-        <v>3826.87</v>
+        <v>3826.8700000000026</v>
       </c>
       <c r="D53" s="20">
         <v>2083.33</v>
       </c>
       <c r="E53" s="20">
         <f t="shared" si="0"/>
-        <v>1743.54</v>
+        <v>1743.5400000000027</v>
       </c>
       <c r="F53" s="20" t="s">
         <v>285</v>
@@ -23148,14 +24400,14 @@
       </c>
       <c r="C54" s="24">
         <f t="shared" si="3"/>
-        <v>3821.23</v>
+        <v>3821.2300000000027</v>
       </c>
       <c r="D54" s="20">
         <v>2083.33</v>
       </c>
       <c r="E54" s="20">
         <f t="shared" si="0"/>
-        <v>1737.9</v>
+        <v>1737.9000000000028</v>
       </c>
       <c r="F54" s="20" t="s">
         <v>285</v>
@@ -23170,14 +24422,14 @@
       </c>
       <c r="C55" s="24">
         <f t="shared" si="3"/>
-        <v>3815.59</v>
+        <v>3815.5900000000029</v>
       </c>
       <c r="D55" s="20">
         <v>2083.33</v>
       </c>
       <c r="E55" s="20">
         <f t="shared" si="0"/>
-        <v>1732.26</v>
+        <v>1732.2600000000029</v>
       </c>
       <c r="F55" s="20" t="s">
         <v>285</v>
@@ -23192,14 +24444,14 @@
       </c>
       <c r="C56" s="24">
         <f t="shared" si="3"/>
-        <v>3809.95</v>
+        <v>3809.950000000003</v>
       </c>
       <c r="D56" s="20">
         <v>2083.33</v>
       </c>
       <c r="E56" s="20">
         <f t="shared" si="0"/>
-        <v>1726.62</v>
+        <v>1726.6200000000031</v>
       </c>
       <c r="F56" s="20" t="s">
         <v>285</v>
@@ -23214,14 +24466,14 @@
       </c>
       <c r="C57" s="24">
         <f t="shared" si="3"/>
-        <v>3804.31</v>
+        <v>3804.3100000000031</v>
       </c>
       <c r="D57" s="20">
         <v>2083.33</v>
       </c>
       <c r="E57" s="20">
         <f t="shared" si="0"/>
-        <v>1720.98</v>
+        <v>1720.9800000000032</v>
       </c>
       <c r="F57" s="20" t="s">
         <v>285</v>
@@ -23236,20 +24488,20 @@
       </c>
       <c r="C58" s="24">
         <f t="shared" si="3"/>
-        <v>3798.67</v>
+        <v>3798.6700000000033</v>
       </c>
       <c r="D58" s="20">
         <v>2083.33</v>
       </c>
       <c r="E58" s="20">
         <f t="shared" si="0"/>
-        <v>1715.34</v>
+        <v>1715.3400000000033</v>
       </c>
       <c r="F58" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" s="25">
         <v>43301</v>
       </c>
@@ -23258,17 +24510,17 @@
       </c>
       <c r="C59" s="26">
         <f t="shared" si="3"/>
-        <v>3793.03</v>
+        <v>3793.0300000000034</v>
       </c>
       <c r="D59" s="17">
         <v>2083.33</v>
       </c>
       <c r="E59" s="17">
         <f t="shared" si="0"/>
-        <v>1709.7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>1709.7000000000035</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="25">
         <v>43332</v>
       </c>
@@ -23277,17 +24529,17 @@
       </c>
       <c r="C60" s="26">
         <f t="shared" si="3"/>
-        <v>3787.39</v>
+        <v>3787.3900000000035</v>
       </c>
       <c r="D60" s="17">
         <v>2083.33</v>
       </c>
       <c r="E60" s="17">
         <f t="shared" si="0"/>
-        <v>1704.06</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>1704.0600000000036</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="25">
         <v>43363</v>
       </c>
@@ -23296,17 +24548,17 @@
       </c>
       <c r="C61" s="26">
         <f t="shared" si="3"/>
-        <v>3781.75</v>
+        <v>3781.7500000000036</v>
       </c>
       <c r="D61" s="17">
         <v>2083.33</v>
       </c>
       <c r="E61" s="17">
         <f t="shared" si="0"/>
-        <v>1698.42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>1698.4200000000037</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="25">
         <v>43393</v>
       </c>
@@ -23315,17 +24567,17 @@
       </c>
       <c r="C62" s="26">
         <f t="shared" si="3"/>
-        <v>3776.11</v>
+        <v>3776.1100000000038</v>
       </c>
       <c r="D62" s="17">
         <v>2083.33</v>
       </c>
       <c r="E62" s="17">
         <f t="shared" si="0"/>
-        <v>1692.78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>1692.7800000000038</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="25">
         <v>43424</v>
       </c>
@@ -23334,17 +24586,17 @@
       </c>
       <c r="C63" s="26">
         <f t="shared" si="3"/>
-        <v>3770.47</v>
+        <v>3770.4700000000039</v>
       </c>
       <c r="D63" s="17">
         <v>2083.33</v>
       </c>
       <c r="E63" s="17">
         <f t="shared" si="0"/>
-        <v>1687.14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>1687.140000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="25">
         <v>43454</v>
       </c>
@@ -23353,14 +24605,14 @@
       </c>
       <c r="C64" s="26">
         <f t="shared" si="3"/>
-        <v>3764.83</v>
+        <v>3764.830000000004</v>
       </c>
       <c r="D64" s="17">
         <v>2083.33</v>
       </c>
       <c r="E64" s="17">
         <f t="shared" si="0"/>
-        <v>1681.5</v>
+        <v>1681.5000000000041</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -23372,14 +24624,14 @@
       </c>
       <c r="C65" s="26">
         <f t="shared" si="3"/>
-        <v>3759.19</v>
+        <v>3759.1900000000041</v>
       </c>
       <c r="D65" s="17">
         <v>2083.33</v>
       </c>
       <c r="E65" s="17">
         <f t="shared" si="0"/>
-        <v>1675.86</v>
+        <v>1675.8600000000042</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -23391,45 +24643,43 @@
       </c>
       <c r="C66" s="26">
         <f t="shared" si="3"/>
-        <v>3753.55</v>
+        <v>3753.5500000000043</v>
       </c>
       <c r="D66" s="17">
         <v>2083.33</v>
       </c>
       <c r="E66" s="17">
         <f t="shared" si="0"/>
-        <v>1670.22</v>
+        <v>1670.2200000000043</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"已还,未还"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="19" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11.1083333333333" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="15" t="s">
         <v>350</v>
       </c>
@@ -23509,7 +24759,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>359</v>
       </c>
@@ -23517,7 +24767,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>360</v>
       </c>
@@ -23525,7 +24775,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>361</v>
       </c>
@@ -23544,7 +24794,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>363</v>
       </c>
@@ -23580,7 +24830,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>366</v>
       </c>
@@ -23610,7 +24860,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>369</v>
       </c>
@@ -23618,7 +24868,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>371</v>
       </c>
@@ -23626,7 +24876,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>373</v>
       </c>
@@ -23667,7 +24917,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>378</v>
       </c>
@@ -23784,7 +25034,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>391</v>
       </c>
@@ -23798,7 +25048,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" ht="14.1" customHeight="1"/>
+    <row r="40" spans="1:5" ht="14.1" customHeight="1"/>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>392</v>
@@ -23874,29 +25124,26 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.1083333333333" style="3" customWidth="1"/>
-    <col min="2" max="2" width="61.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="18.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="61.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:4">
+    <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>401</v>
       </c>
@@ -24102,7 +25349,7 @@
         <v>419</v>
       </c>
       <c r="C21" s="8">
-        <v>66.1</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -24264,7 +25511,7 @@
         <v>434</v>
       </c>
       <c r="C36" s="8">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="D36" s="1"/>
     </row>
@@ -24372,7 +25619,7 @@
         <v>444</v>
       </c>
       <c r="C46" s="8">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D46" s="1"/>
     </row>
@@ -24414,7 +25661,7 @@
         <v>448</v>
       </c>
       <c r="C50" s="8">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="D50" s="1"/>
     </row>
@@ -24592,7 +25839,7 @@
       </c>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" ht="14.25" spans="1:4">
+    <row r="67" spans="1:4" ht="15.6">
       <c r="A67" s="7">
         <v>40704</v>
       </c>
@@ -24600,11 +25847,11 @@
         <v>465</v>
       </c>
       <c r="C67" s="8">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D67" s="8"/>
     </row>
-    <row r="68" ht="14.25" spans="1:4">
+    <row r="68" spans="1:4" ht="15.6">
       <c r="A68" s="7"/>
       <c r="B68" s="11" t="s">
         <v>466</v>
@@ -24790,7 +26037,7 @@
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
     </row>
-    <row r="85" ht="14.25" spans="1:4">
+    <row r="85" spans="1:4" ht="15.6">
       <c r="A85" s="7">
         <v>40521</v>
       </c>
@@ -24848,7 +26095,7 @@
         <v>490</v>
       </c>
       <c r="C90" s="8">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="D90" s="8"/>
     </row>
@@ -24878,30 +26125,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B85" r:id="rId1" display="操作系统：精髓与设计原理" tooltip="操作系统：精髓与设计原理（第五版）——国外计算机科学教材系列"/>
+    <hyperlink ref="B85" r:id="rId1" tooltip="操作系统：精髓与设计原理（第五版）——国外计算机科学教材系列" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="23.2166666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="23.2166666666667" customWidth="1"/>
-    <col min="6" max="6" width="12.4416666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -24933,7 +26178,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>201904</v>
       </c>
@@ -24953,7 +26198,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>201903</v>
       </c>
@@ -24973,7 +26218,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>201902</v>
       </c>
@@ -24993,7 +26238,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>201902</v>
       </c>
@@ -25013,7 +26258,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>510</v>
       </c>
@@ -25033,7 +26278,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
         <v>512</v>
       </c>
@@ -25053,7 +26298,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
         <v>514</v>
       </c>
@@ -25070,7 +26315,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
         <v>515</v>
       </c>
@@ -25084,7 +26329,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
         <v>516</v>
       </c>
@@ -25104,7 +26349,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
         <v>517</v>
       </c>
@@ -25118,7 +26363,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
         <v>518</v>
       </c>
@@ -25135,7 +26380,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
         <v>519</v>
       </c>
@@ -25152,7 +26397,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
         <v>520</v>
       </c>
@@ -25172,7 +26417,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
         <v>521</v>
       </c>
@@ -25186,7 +26431,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
         <v>522</v>
       </c>
@@ -25212,12 +26457,11 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"ongoing, not start, finish"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/myprogarm/excel/record.xlsx
+++ b/myprogarm/excel/record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\example\myprogarm\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\example\myprogarm\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C950A1DD-AB80-429D-9953-E918742EAB6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A4F1B6-6A7A-46F7-8C50-72729E430BB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22128" windowHeight="13176" tabRatio="615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="账户" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="637">
   <si>
     <t>zhibo8.com</t>
   </si>
@@ -1701,7 +1701,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1712,6 +1712,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>凉菜</t>
     </r>
@@ -1730,7 +1732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1748,7 +1750,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1759,6 +1761,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>酸奶</t>
     </r>
@@ -1813,7 +1817,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1824,6 +1828,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>小炒</t>
     </r>
@@ -1915,6 +1921,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>布尔津县</t>
     </r>
@@ -2023,6 +2031,14 @@
   </si>
   <si>
     <t>哈密瓜</t>
+  </si>
+  <si>
+    <t>adobe ID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple ID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2030,14 +2046,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2049,7 +2072,7 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2060,14 +2083,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2081,7 +2104,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2091,7 +2114,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2099,6 +2122,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2357,12 +2403,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2390,13 +2436,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2409,7 +2455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -2424,20 +2470,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2458,9 +2504,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2471,29 +2517,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2519,22 +2577,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2885,18 +2932,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3104,7 +3151,7 @@
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6">
+    <row r="20" spans="1:5" ht="14.25">
       <c r="A20" s="55" t="s">
         <v>34</v>
       </c>
@@ -3117,7 +3164,7 @@
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6">
+    <row r="21" spans="1:5" ht="14.25">
       <c r="A21" s="55" t="s">
         <v>35</v>
       </c>
@@ -3143,7 +3190,7 @@
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6">
+    <row r="23" spans="1:5" ht="14.25">
       <c r="A23" s="55" t="s">
         <v>38</v>
       </c>
@@ -3184,7 +3231,7 @@
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6">
+    <row r="26" spans="1:5" ht="14.25">
       <c r="A26" s="55" t="s">
         <v>46</v>
       </c>
@@ -3212,7 +3259,7 @@
       </c>
       <c r="E27" s="55"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6">
+    <row r="28" spans="1:5" ht="14.25">
       <c r="A28" s="55" t="s">
         <v>48</v>
       </c>
@@ -3229,7 +3276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.6">
+    <row r="29" spans="1:5" ht="14.25">
       <c r="A29" s="55" t="s">
         <v>52</v>
       </c>
@@ -3242,7 +3289,7 @@
       <c r="D29" s="56"/>
       <c r="E29" s="55"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6">
+    <row r="30" spans="1:5" ht="14.25">
       <c r="A30" s="55"/>
       <c r="B30" s="56" t="s">
         <v>39</v>
@@ -3255,7 +3302,7 @@
       </c>
       <c r="E30" s="55"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6">
+    <row r="31" spans="1:5" ht="14.25">
       <c r="A31" s="55"/>
       <c r="B31" s="56">
         <v>3119425375</v>
@@ -3266,7 +3313,7 @@
       <c r="D31" s="56"/>
       <c r="E31" s="55"/>
     </row>
-    <row r="32" spans="1:5" ht="15.6">
+    <row r="32" spans="1:5" ht="14.25">
       <c r="A32" s="55"/>
       <c r="B32" s="56">
         <v>3301169791</v>
@@ -3277,7 +3324,7 @@
       <c r="D32" s="56"/>
       <c r="E32" s="55"/>
     </row>
-    <row r="33" spans="1:5" ht="15.6">
+    <row r="33" spans="1:5" ht="14.25">
       <c r="A33" s="55" t="s">
         <v>56</v>
       </c>
@@ -3479,7 +3526,7 @@
       <c r="D48" s="55"/>
       <c r="E48" s="55"/>
     </row>
-    <row r="49" spans="1:5" ht="15.6">
+    <row r="49" spans="1:5" ht="14.25">
       <c r="A49" s="55" t="s">
         <v>81</v>
       </c>
@@ -3525,7 +3572,7 @@
       <c r="D52" s="55"/>
       <c r="E52" s="55"/>
     </row>
-    <row r="53" spans="1:5" ht="15.6">
+    <row r="53" spans="1:5" ht="14.25">
       <c r="A53" s="56" t="s">
         <v>87</v>
       </c>
@@ -3560,7 +3607,7 @@
       <c r="D55" s="55"/>
       <c r="E55" s="55"/>
     </row>
-    <row r="56" spans="1:5" ht="15.6">
+    <row r="56" spans="1:5" ht="14.25">
       <c r="A56" s="55" t="s">
         <v>92</v>
       </c>
@@ -3642,7 +3689,7 @@
       <c r="D63" s="55"/>
       <c r="E63" s="55"/>
     </row>
-    <row r="64" spans="1:5" ht="15.6">
+    <row r="64" spans="1:5" ht="14.25">
       <c r="A64" s="55" t="s">
         <v>100</v>
       </c>
@@ -3655,7 +3702,7 @@
       <c r="D64" s="55"/>
       <c r="E64" s="55"/>
     </row>
-    <row r="65" spans="1:5" ht="15.6">
+    <row r="65" spans="1:5" ht="14.25">
       <c r="A65" s="55" t="s">
         <v>101</v>
       </c>
@@ -3697,7 +3744,7 @@
       <c r="D68" s="55"/>
       <c r="E68" s="55"/>
     </row>
-    <row r="69" spans="1:5" ht="15.6">
+    <row r="69" spans="1:5" ht="14.25">
       <c r="A69" s="55" t="s">
         <v>104</v>
       </c>
@@ -3723,7 +3770,7 @@
       <c r="D70" s="55"/>
       <c r="E70" s="55"/>
     </row>
-    <row r="71" spans="1:5" ht="15.6">
+    <row r="71" spans="1:5" ht="14.25">
       <c r="A71" s="55" t="s">
         <v>108</v>
       </c>
@@ -3736,7 +3783,7 @@
       <c r="D71" s="55"/>
       <c r="E71" s="55"/>
     </row>
-    <row r="72" spans="1:5" ht="16.2">
+    <row r="72" spans="1:5" ht="15.75">
       <c r="A72" s="55" t="s">
         <v>109</v>
       </c>
@@ -3751,7 +3798,7 @@
       </c>
       <c r="E72" s="55"/>
     </row>
-    <row r="73" spans="1:5" ht="16.2">
+    <row r="73" spans="1:5" ht="15.75">
       <c r="A73" s="55" t="s">
         <v>111</v>
       </c>
@@ -3764,7 +3811,7 @@
       <c r="D73" s="27"/>
       <c r="E73" s="55"/>
     </row>
-    <row r="74" spans="1:5" ht="28.8">
+    <row r="74" spans="1:5" ht="27">
       <c r="A74" t="s">
         <v>114</v>
       </c>
@@ -3998,7 +4045,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16.2">
+    <row r="100" spans="1:4" ht="14.25">
       <c r="B100" s="27" t="s">
         <v>154</v>
       </c>
@@ -4009,7 +4056,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16.2">
+    <row r="101" spans="1:4" ht="14.25">
       <c r="A101" t="s">
         <v>156</v>
       </c>
@@ -4037,7 +4084,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="16.2">
+    <row r="104" spans="1:4" ht="14.25">
       <c r="A104" t="s">
         <v>161</v>
       </c>
@@ -4051,7 +4098,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16.2">
+    <row r="105" spans="1:4" ht="14.25">
       <c r="A105" t="s">
         <v>163</v>
       </c>
@@ -4199,7 +4246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="16.2">
+    <row r="120" spans="1:5" ht="14.25">
       <c r="A120" t="s">
         <v>189</v>
       </c>
@@ -4243,7 +4290,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="16.2">
+    <row r="124" spans="1:5" ht="14.25">
       <c r="A124" t="s">
         <v>194</v>
       </c>
@@ -4265,7 +4312,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="16.2">
+    <row r="126" spans="1:5" ht="14.25">
       <c r="A126" t="s">
         <v>197</v>
       </c>
@@ -4276,7 +4323,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="16.2">
+    <row r="127" spans="1:5" ht="14.25">
       <c r="A127" t="s">
         <v>198</v>
       </c>
@@ -4293,7 +4340,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="16.2">
+    <row r="128" spans="1:5" ht="14.25">
       <c r="A128" t="s">
         <v>200</v>
       </c>
@@ -4345,7 +4392,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16.2">
+    <row r="133" spans="1:4" ht="14.25">
       <c r="A133" t="s">
         <v>206</v>
       </c>
@@ -4370,7 +4417,16 @@
         <v>150</v>
       </c>
     </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="76" t="s">
+        <v>635</v>
+      </c>
+      <c r="B135" s="76" t="s">
+        <v>636</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A53" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -4398,8 +4454,8 @@
     <hyperlink ref="B100" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -4407,1398 +4463,1399 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FCE186-7079-4EBA-A603-35D06D68A497}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A1" s="64" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="72" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="64" t="s">
         <v>525</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="64" t="s">
         <v>526</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="64" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A2" s="74">
+    <row r="2" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A2" s="66">
         <v>44068</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="64" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="73">
+      <c r="C2" s="65">
         <v>3660</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F2" s="73"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A3" s="74">
+      <c r="F2" s="65"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A3" s="66">
         <v>44072</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="64" t="s">
         <v>529</v>
       </c>
-      <c r="C3" s="73">
+      <c r="C3" s="65">
         <v>6905</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F3" s="73"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-    </row>
-    <row r="5" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A5" s="74">
+      <c r="F3" s="65"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A5" s="66">
         <v>44073</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="64" t="s">
         <v>531</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="65">
         <v>120</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73" t="s">
+      <c r="D5" s="65"/>
+      <c r="E5" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="64" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72" t="s">
+    <row r="6" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="65">
         <v>382</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="64" t="s">
         <v>534</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F6" s="73"/>
-    </row>
-    <row r="7" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72" t="s">
+      <c r="F6" s="65"/>
+    </row>
+    <row r="7" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64" t="s">
         <v>535</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="65">
         <v>385</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73" t="s">
+      <c r="D7" s="65"/>
+      <c r="E7" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F7" s="73"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A8" s="74">
+      <c r="F7" s="65"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A8" s="66">
         <v>44074</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="65">
         <v>90</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73" t="s">
+      <c r="D8" s="65"/>
+      <c r="E8" s="65" t="s">
         <v>537</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="64" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="72" t="s">
+    <row r="9" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A9" s="65"/>
+      <c r="B9" s="64" t="s">
         <v>539</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="65">
         <v>521</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73" t="s">
+      <c r="D9" s="65"/>
+      <c r="E9" s="65" t="s">
         <v>537</v>
       </c>
-      <c r="F9" s="73"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A10" s="73"/>
-      <c r="B10" s="72" t="s">
+      <c r="F9" s="65"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A10" s="65"/>
+      <c r="B10" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="65">
         <v>110</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73" t="s">
+      <c r="D10" s="65"/>
+      <c r="E10" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F10" s="73"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="72" t="s">
+      <c r="F10" s="65"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A11" s="65"/>
+      <c r="B11" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="65" t="s">
         <v>542</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73" t="s">
+      <c r="D11" s="65"/>
+      <c r="E11" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F11" s="73"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A12" s="73"/>
-      <c r="B12" s="72" t="s">
+      <c r="F11" s="65"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A12" s="65"/>
+      <c r="B12" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="65">
         <v>110</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73" t="s">
+      <c r="D12" s="65"/>
+      <c r="E12" s="65" t="s">
         <v>537</v>
       </c>
-      <c r="F12" s="73"/>
-    </row>
-    <row r="13" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="72" t="s">
+      <c r="F12" s="65"/>
+    </row>
+    <row r="13" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A13" s="65"/>
+      <c r="B13" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="65">
         <v>339</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="64" t="s">
         <v>545</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F13" s="73"/>
-    </row>
-    <row r="14" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A14" s="73"/>
-      <c r="B14" s="72" t="s">
+      <c r="F13" s="65"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A14" s="65"/>
+      <c r="B14" s="64" t="s">
         <v>547</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="65">
         <v>4164</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73" t="s">
+      <c r="D14" s="65"/>
+      <c r="E14" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F14" s="73"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A15" s="75">
+      <c r="F14" s="65"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A15" s="67">
         <v>44075</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="65">
         <v>30</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73" t="s">
+      <c r="D15" s="65"/>
+      <c r="E15" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="64" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A16" s="73"/>
-      <c r="B16" s="72" t="s">
+    <row r="16" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A16" s="65"/>
+      <c r="B16" s="64" t="s">
         <v>549</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="65">
         <v>90</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73" t="s">
+      <c r="D16" s="65"/>
+      <c r="E16" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F16" s="73"/>
-    </row>
-    <row r="17" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A17" s="73"/>
-      <c r="B17" s="72" t="s">
+      <c r="F16" s="65"/>
+    </row>
+    <row r="17" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A17" s="65"/>
+      <c r="B17" s="64" t="s">
         <v>550</v>
       </c>
-      <c r="C17" s="73">
+      <c r="C17" s="65">
         <v>210</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73" t="s">
+      <c r="D17" s="65"/>
+      <c r="E17" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F17" s="73"/>
-    </row>
-    <row r="18" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A18" s="73"/>
-      <c r="B18" s="72" t="s">
+      <c r="F17" s="65"/>
+    </row>
+    <row r="18" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A18" s="65"/>
+      <c r="B18" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="65">
         <v>300</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F18" s="73"/>
-    </row>
-    <row r="19" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A19" s="73"/>
-      <c r="B19" s="72" t="s">
+      <c r="F18" s="65"/>
+    </row>
+    <row r="19" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A19" s="65"/>
+      <c r="B19" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="65">
         <v>116</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="64" t="s">
         <v>552</v>
       </c>
-      <c r="E19" s="73" t="s">
+      <c r="E19" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F19" s="73"/>
-    </row>
-    <row r="20" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A20" s="75">
+      <c r="F19" s="65"/>
+    </row>
+    <row r="20" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A20" s="67">
         <v>44076</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="65">
         <v>60</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="64" t="s">
         <v>553</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="64" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A21" s="73"/>
-      <c r="B21" s="72" t="s">
+    <row r="21" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A21" s="65"/>
+      <c r="B21" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="65">
         <v>310</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73" t="s">
+      <c r="D21" s="65"/>
+      <c r="E21" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F21" s="73"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A22" s="73"/>
-      <c r="B22" s="72" t="s">
+      <c r="F21" s="65"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A22" s="65"/>
+      <c r="B22" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="65">
         <v>15</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73" t="s">
+      <c r="D22" s="65"/>
+      <c r="E22" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F22" s="73"/>
-    </row>
-    <row r="23" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A23" s="73"/>
-      <c r="B23" s="72" t="s">
+      <c r="F22" s="65"/>
+    </row>
+    <row r="23" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A23" s="65"/>
+      <c r="B23" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C23" s="73">
+      <c r="C23" s="65">
         <v>376</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F23" s="73"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A24" s="73"/>
-      <c r="B24" s="72" t="s">
+      <c r="F23" s="65"/>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A24" s="65"/>
+      <c r="B24" s="64" t="s">
         <v>556</v>
       </c>
-      <c r="C24" s="73">
+      <c r="C24" s="65">
         <v>57</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73" t="s">
+      <c r="D24" s="65"/>
+      <c r="E24" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F24" s="73"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A25" s="73"/>
-      <c r="B25" s="72" t="s">
+      <c r="F24" s="65"/>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A25" s="65"/>
+      <c r="B25" s="64" t="s">
         <v>531</v>
       </c>
-      <c r="C25" s="73">
+      <c r="C25" s="65">
         <v>18</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73" t="s">
+      <c r="D25" s="65"/>
+      <c r="E25" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F25" s="73"/>
-    </row>
-    <row r="26" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A26" s="75">
+      <c r="F25" s="65"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A26" s="67">
         <v>44077</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C26" s="73">
+      <c r="C26" s="65">
         <v>75</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="64" t="s">
         <v>557</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="64" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A27" s="73"/>
-      <c r="B27" s="72" t="s">
+    <row r="27" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A27" s="65"/>
+      <c r="B27" s="64" t="s">
         <v>559</v>
       </c>
-      <c r="C27" s="73">
+      <c r="C27" s="65">
         <v>20</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73" t="s">
+      <c r="D27" s="65"/>
+      <c r="E27" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F27" s="73"/>
-    </row>
-    <row r="28" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A28" s="73"/>
-      <c r="B28" s="72" t="s">
+      <c r="F27" s="65"/>
+    </row>
+    <row r="28" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A28" s="65"/>
+      <c r="B28" s="64" t="s">
         <v>560</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="65">
         <v>135</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73" t="s">
+      <c r="D28" s="65"/>
+      <c r="E28" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F28" s="73"/>
-    </row>
-    <row r="29" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A29" s="73"/>
-      <c r="B29" s="72" t="s">
+      <c r="F28" s="65"/>
+    </row>
+    <row r="29" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A29" s="65"/>
+      <c r="B29" s="64" t="s">
         <v>561</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="65" t="s">
         <v>562</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73" t="s">
+      <c r="D29" s="65"/>
+      <c r="E29" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F29" s="73"/>
-    </row>
-    <row r="30" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A30" s="73"/>
-      <c r="B30" s="72" t="s">
+      <c r="F29" s="65"/>
+    </row>
+    <row r="30" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A30" s="65"/>
+      <c r="B30" s="64" t="s">
         <v>563</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="65">
         <v>8</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-    </row>
-    <row r="31" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A31" s="73"/>
-      <c r="B31" s="72" t="s">
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A31" s="65"/>
+      <c r="B31" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="65" t="s">
         <v>564</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73" t="s">
+      <c r="D31" s="65"/>
+      <c r="E31" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F31" s="73"/>
-    </row>
-    <row r="32" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A32" s="73"/>
-      <c r="B32" s="72" t="s">
+      <c r="F31" s="65"/>
+    </row>
+    <row r="32" spans="1:6" ht="50.25" thickBot="1">
+      <c r="A32" s="65"/>
+      <c r="B32" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="65">
         <v>298</v>
       </c>
-      <c r="D32" s="72" t="s">
+      <c r="D32" s="64" t="s">
         <v>565</v>
       </c>
-      <c r="E32" s="73" t="s">
+      <c r="E32" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F32" s="73"/>
-    </row>
-    <row r="33" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A33" s="73"/>
-      <c r="B33" s="72" t="s">
+      <c r="F32" s="65"/>
+    </row>
+    <row r="33" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A33" s="65"/>
+      <c r="B33" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C33" s="73">
+      <c r="C33" s="65">
         <v>190</v>
       </c>
-      <c r="D33" s="72" t="s">
+      <c r="D33" s="64" t="s">
         <v>566</v>
       </c>
-      <c r="E33" s="73" t="s">
+      <c r="E33" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F33" s="73"/>
-    </row>
-    <row r="34" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A34" s="75">
+      <c r="F33" s="65"/>
+    </row>
+    <row r="34" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A34" s="67">
         <v>44078</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C34" s="73">
+      <c r="C34" s="65">
         <v>170</v>
       </c>
-      <c r="D34" s="72" t="s">
+      <c r="D34" s="64" t="s">
         <v>567</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F34" s="72" t="s">
+      <c r="F34" s="64" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A35" s="73"/>
-      <c r="B35" s="72" t="s">
+    <row r="35" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A35" s="65"/>
+      <c r="B35" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="65" t="s">
         <v>569</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73" t="s">
+      <c r="D35" s="65"/>
+      <c r="E35" s="65" t="s">
         <v>570</v>
       </c>
-      <c r="F35" s="73"/>
-    </row>
-    <row r="36" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A36" s="73"/>
-      <c r="B36" s="72" t="s">
+      <c r="F35" s="65"/>
+    </row>
+    <row r="36" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A36" s="65"/>
+      <c r="B36" s="64" t="s">
         <v>571</v>
       </c>
-      <c r="C36" s="73">
+      <c r="C36" s="65">
         <v>210</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73" t="s">
+      <c r="D36" s="65"/>
+      <c r="E36" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F36" s="73"/>
-    </row>
-    <row r="37" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A37" s="73"/>
-      <c r="B37" s="72" t="s">
+      <c r="F36" s="65"/>
+    </row>
+    <row r="37" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A37" s="65"/>
+      <c r="B37" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C37" s="73">
+      <c r="C37" s="65">
         <v>149</v>
       </c>
-      <c r="D37" s="72" t="s">
+      <c r="D37" s="64" t="s">
         <v>572</v>
       </c>
-      <c r="E37" s="73" t="s">
+      <c r="E37" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F37" s="73"/>
-    </row>
-    <row r="38" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A38" s="73"/>
-      <c r="B38" s="72" t="s">
+      <c r="F37" s="65"/>
+    </row>
+    <row r="38" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A38" s="65"/>
+      <c r="B38" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C38" s="73">
+      <c r="C38" s="65">
         <v>240</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="64" t="s">
         <v>573</v>
       </c>
-      <c r="E38" s="73" t="s">
+      <c r="E38" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F38" s="73"/>
-    </row>
-    <row r="39" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A39" s="75">
+      <c r="F38" s="65"/>
+    </row>
+    <row r="39" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A39" s="67">
         <v>44079</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C39" s="73">
+      <c r="C39" s="65">
         <v>78</v>
       </c>
-      <c r="D39" s="72" t="s">
+      <c r="D39" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="E39" s="73"/>
-      <c r="F39" s="72" t="s">
+      <c r="E39" s="65"/>
+      <c r="F39" s="64" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A40" s="73"/>
-      <c r="B40" s="72" t="s">
+    <row r="40" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A40" s="65"/>
+      <c r="B40" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="C40" s="73">
+      <c r="C40" s="65">
         <v>325</v>
       </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="73" t="s">
+      <c r="D40" s="64"/>
+      <c r="E40" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F40" s="73"/>
-    </row>
-    <row r="41" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A41" s="73"/>
-      <c r="B41" s="72" t="s">
+      <c r="F40" s="65"/>
+    </row>
+    <row r="41" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A41" s="65"/>
+      <c r="B41" s="64" t="s">
         <v>576</v>
       </c>
-      <c r="C41" s="73">
+      <c r="C41" s="65">
         <v>86</v>
       </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="73" t="s">
+      <c r="D41" s="64"/>
+      <c r="E41" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F41" s="73"/>
-    </row>
-    <row r="42" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A42" s="73"/>
-      <c r="B42" s="72" t="s">
+      <c r="F41" s="65"/>
+    </row>
+    <row r="42" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A42" s="65"/>
+      <c r="B42" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C42" s="73">
+      <c r="C42" s="65">
         <v>16</v>
       </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="73" t="s">
+      <c r="D42" s="64"/>
+      <c r="E42" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F42" s="73"/>
-    </row>
-    <row r="43" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A43" s="73"/>
-      <c r="B43" s="72" t="s">
+      <c r="F42" s="65"/>
+    </row>
+    <row r="43" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A43" s="65"/>
+      <c r="B43" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C43" s="73">
+      <c r="C43" s="65">
         <v>270</v>
       </c>
-      <c r="D43" s="72" t="s">
+      <c r="D43" s="64" t="s">
         <v>577</v>
       </c>
-      <c r="E43" s="73" t="s">
+      <c r="E43" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F43" s="73"/>
-    </row>
-    <row r="44" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A44" s="73"/>
-      <c r="B44" s="72" t="s">
+      <c r="F43" s="65"/>
+    </row>
+    <row r="44" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A44" s="65"/>
+      <c r="B44" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C44" s="73">
+      <c r="C44" s="65">
         <v>150</v>
       </c>
-      <c r="D44" s="72" t="s">
+      <c r="D44" s="64" t="s">
         <v>578</v>
       </c>
-      <c r="E44" s="73" t="s">
+      <c r="E44" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F44" s="73"/>
-    </row>
-    <row r="45" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A45" s="75">
+      <c r="F44" s="65"/>
+    </row>
+    <row r="45" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A45" s="67">
         <v>44080</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C45" s="73">
+      <c r="C45" s="65">
         <v>126</v>
       </c>
-      <c r="D45" s="72" t="s">
+      <c r="D45" s="64" t="s">
         <v>579</v>
       </c>
-      <c r="E45" s="73" t="s">
+      <c r="E45" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F45" s="72" t="s">
+      <c r="F45" s="64" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A46" s="73"/>
-      <c r="B46" s="72" t="s">
+    <row r="46" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A46" s="65"/>
+      <c r="B46" s="64" t="s">
         <v>581</v>
       </c>
-      <c r="C46" s="73">
+      <c r="C46" s="65">
         <v>22</v>
       </c>
-      <c r="D46" s="72"/>
-      <c r="E46" s="73" t="s">
+      <c r="D46" s="64"/>
+      <c r="E46" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F46" s="73"/>
-    </row>
-    <row r="47" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A47" s="73"/>
-      <c r="B47" s="72" t="s">
+      <c r="F46" s="65"/>
+    </row>
+    <row r="47" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A47" s="65"/>
+      <c r="B47" s="64" t="s">
         <v>582</v>
       </c>
-      <c r="C47" s="73">
+      <c r="C47" s="65">
         <v>30</v>
       </c>
-      <c r="D47" s="72" t="s">
+      <c r="D47" s="64" t="s">
         <v>583</v>
       </c>
-      <c r="E47" s="73" t="s">
+      <c r="E47" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F47" s="73"/>
-    </row>
-    <row r="48" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A48" s="73"/>
-      <c r="B48" s="72" t="s">
+      <c r="F47" s="65"/>
+    </row>
+    <row r="48" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A48" s="65"/>
+      <c r="B48" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C48" s="73" t="s">
+      <c r="C48" s="65" t="s">
         <v>584</v>
       </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="73" t="s">
+      <c r="D48" s="64"/>
+      <c r="E48" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F48" s="73"/>
-    </row>
-    <row r="49" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A49" s="73"/>
-      <c r="B49" s="72" t="s">
+      <c r="F48" s="65"/>
+    </row>
+    <row r="49" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A49" s="65"/>
+      <c r="B49" s="64" t="s">
         <v>585</v>
       </c>
-      <c r="C49" s="73">
+      <c r="C49" s="65">
         <v>90</v>
       </c>
-      <c r="D49" s="72" t="s">
+      <c r="D49" s="64" t="s">
         <v>586</v>
       </c>
-      <c r="E49" s="73" t="s">
+      <c r="E49" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F49" s="73"/>
-    </row>
-    <row r="50" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A50" s="73"/>
-      <c r="B50" s="72" t="s">
+      <c r="F49" s="65"/>
+    </row>
+    <row r="50" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A50" s="65"/>
+      <c r="B50" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C50" s="73">
+      <c r="C50" s="65">
         <v>336</v>
       </c>
-      <c r="D50" s="72" t="s">
+      <c r="D50" s="64" t="s">
         <v>587</v>
       </c>
-      <c r="E50" s="73" t="s">
+      <c r="E50" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F50" s="73"/>
-    </row>
-    <row r="51" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A51" s="73"/>
-      <c r="B51" s="72" t="s">
+      <c r="F50" s="65"/>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A51" s="65"/>
+      <c r="B51" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C51" s="73">
+      <c r="C51" s="65">
         <v>150</v>
       </c>
-      <c r="D51" s="72" t="s">
+      <c r="D51" s="64" t="s">
         <v>588</v>
       </c>
-      <c r="E51" s="73" t="s">
+      <c r="E51" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F51" s="73"/>
-    </row>
-    <row r="52" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A52" s="75">
+      <c r="F51" s="65"/>
+    </row>
+    <row r="52" spans="1:6" ht="50.25" thickBot="1">
+      <c r="A52" s="67">
         <v>44081</v>
       </c>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C52" s="73">
+      <c r="C52" s="65">
         <v>208</v>
       </c>
-      <c r="D52" s="72" t="s">
+      <c r="D52" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="E52" s="73" t="s">
+      <c r="E52" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F52" s="72" t="s">
+      <c r="F52" s="64" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A53" s="73"/>
-      <c r="B53" s="72" t="s">
+    <row r="53" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A53" s="65"/>
+      <c r="B53" s="64" t="s">
         <v>591</v>
       </c>
-      <c r="C53" s="73">
+      <c r="C53" s="65">
         <v>240</v>
       </c>
-      <c r="D53" s="72"/>
-      <c r="E53" s="73" t="s">
+      <c r="D53" s="64"/>
+      <c r="E53" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F53" s="73"/>
-    </row>
-    <row r="54" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A54" s="73"/>
-      <c r="B54" s="72" t="s">
+      <c r="F53" s="65"/>
+    </row>
+    <row r="54" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A54" s="65"/>
+      <c r="B54" s="64" t="s">
         <v>592</v>
       </c>
-      <c r="C54" s="73">
+      <c r="C54" s="65">
         <v>2</v>
       </c>
-      <c r="D54" s="72"/>
-      <c r="E54" s="73" t="s">
+      <c r="D54" s="64"/>
+      <c r="E54" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F54" s="73"/>
-    </row>
-    <row r="55" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A55" s="73"/>
-      <c r="B55" s="72" t="s">
+      <c r="F54" s="65"/>
+    </row>
+    <row r="55" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A55" s="65"/>
+      <c r="B55" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C55" s="73" t="s">
+      <c r="C55" s="65" t="s">
         <v>593</v>
       </c>
-      <c r="D55" s="72"/>
-      <c r="E55" s="73" t="s">
+      <c r="D55" s="64"/>
+      <c r="E55" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F55" s="73"/>
-    </row>
-    <row r="56" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A56" s="73"/>
-      <c r="B56" s="72" t="s">
+      <c r="F55" s="65"/>
+    </row>
+    <row r="56" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A56" s="65"/>
+      <c r="B56" s="64" t="s">
         <v>594</v>
       </c>
-      <c r="C56" s="73">
+      <c r="C56" s="65">
         <v>435</v>
       </c>
-      <c r="D56" s="72"/>
-      <c r="E56" s="73" t="s">
+      <c r="D56" s="64"/>
+      <c r="E56" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F56" s="73"/>
-    </row>
-    <row r="57" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A57" s="73"/>
-      <c r="B57" s="72" t="s">
+      <c r="F56" s="65"/>
+    </row>
+    <row r="57" spans="1:6" ht="50.25" thickBot="1">
+      <c r="A57" s="65"/>
+      <c r="B57" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C57" s="73">
+      <c r="C57" s="65">
         <v>350</v>
       </c>
-      <c r="D57" s="72" t="s">
+      <c r="D57" s="64" t="s">
         <v>595</v>
       </c>
-      <c r="E57" s="73" t="s">
+      <c r="E57" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F57" s="73"/>
-    </row>
-    <row r="58" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A58" s="73"/>
-      <c r="B58" s="72" t="s">
+      <c r="F57" s="65"/>
+    </row>
+    <row r="58" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A58" s="65"/>
+      <c r="B58" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="C58" s="73">
+      <c r="C58" s="65">
         <v>100</v>
       </c>
-      <c r="D58" s="72" t="s">
+      <c r="D58" s="64" t="s">
         <v>597</v>
       </c>
-      <c r="E58" s="73" t="s">
+      <c r="E58" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F58" s="73"/>
-    </row>
-    <row r="59" spans="1:6" ht="46.2" thickBot="1">
-      <c r="A59" s="75">
+      <c r="F58" s="65"/>
+    </row>
+    <row r="59" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A59" s="67">
         <v>44082</v>
       </c>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="64" t="s">
         <v>598</v>
       </c>
-      <c r="C59" s="73">
+      <c r="C59" s="65">
         <v>82</v>
       </c>
-      <c r="D59" s="72"/>
-      <c r="E59" s="73" t="s">
+      <c r="D59" s="64"/>
+      <c r="E59" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F59" s="73" t="s">
+      <c r="F59" s="65" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="43.8" thickBot="1">
-      <c r="A60" s="73"/>
-      <c r="B60" s="72" t="s">
+    <row r="60" spans="1:6" ht="41.25" thickBot="1">
+      <c r="A60" s="65"/>
+      <c r="B60" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C60" s="73" t="s">
+      <c r="C60" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="D60" s="72"/>
-      <c r="E60" s="73" t="s">
+      <c r="D60" s="64"/>
+      <c r="E60" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F60" s="73"/>
-    </row>
-    <row r="61" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A61" s="73"/>
-      <c r="B61" s="72" t="s">
+      <c r="F60" s="65"/>
+    </row>
+    <row r="61" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A61" s="65"/>
+      <c r="B61" s="64" t="s">
         <v>601</v>
       </c>
-      <c r="C61" s="73">
+      <c r="C61" s="65">
         <v>186</v>
       </c>
-      <c r="D61" s="72" t="s">
+      <c r="D61" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="E61" s="73" t="s">
+      <c r="E61" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F61" s="73"/>
-    </row>
-    <row r="62" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A62" s="73"/>
-      <c r="B62" s="72" t="s">
+      <c r="F61" s="65"/>
+    </row>
+    <row r="62" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A62" s="65"/>
+      <c r="B62" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C62" s="73">
+      <c r="C62" s="65">
         <v>420</v>
       </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="73" t="s">
+      <c r="D62" s="64"/>
+      <c r="E62" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F62" s="73"/>
-    </row>
-    <row r="63" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A63" s="73"/>
-      <c r="B63" s="72" t="s">
+      <c r="F62" s="65"/>
+    </row>
+    <row r="63" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A63" s="65"/>
+      <c r="B63" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="C63" s="73">
+      <c r="C63" s="65">
         <v>300</v>
       </c>
-      <c r="D63" s="72" t="s">
+      <c r="D63" s="64" t="s">
         <v>603</v>
       </c>
-      <c r="E63" s="73" t="s">
+      <c r="E63" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F63" s="73"/>
-    </row>
-    <row r="64" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A64" s="73"/>
-      <c r="B64" s="72" t="s">
+      <c r="F63" s="65"/>
+    </row>
+    <row r="64" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A64" s="65"/>
+      <c r="B64" s="64" t="s">
         <v>604</v>
       </c>
-      <c r="C64" s="73"/>
-      <c r="D64" s="72" t="s">
+      <c r="C64" s="65"/>
+      <c r="D64" s="64" t="s">
         <v>605</v>
       </c>
-      <c r="E64" s="73" t="s">
+      <c r="E64" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F64" s="73"/>
-    </row>
-    <row r="65" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A65" s="75">
+      <c r="F64" s="65"/>
+    </row>
+    <row r="65" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A65" s="67">
         <v>44083</v>
       </c>
-      <c r="B65" s="72" t="s">
+      <c r="B65" s="64" t="s">
         <v>606</v>
       </c>
-      <c r="C65" s="73">
+      <c r="C65" s="65">
         <v>185</v>
       </c>
-      <c r="D65" s="72" t="s">
+      <c r="D65" s="64" t="s">
         <v>607</v>
       </c>
-      <c r="E65" s="73" t="s">
+      <c r="E65" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F65" s="72" t="s">
+      <c r="F65" s="64" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A66" s="73"/>
-      <c r="B66" s="72" t="s">
+    <row r="66" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A66" s="65"/>
+      <c r="B66" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="C66" s="73">
+      <c r="C66" s="65">
         <v>380</v>
       </c>
-      <c r="D66" s="72" t="s">
+      <c r="D66" s="64" t="s">
         <v>609</v>
       </c>
-      <c r="E66" s="73" t="s">
+      <c r="E66" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F66" s="73"/>
-    </row>
-    <row r="67" spans="1:6" ht="63" thickBot="1">
-      <c r="A67" s="73"/>
-      <c r="B67" s="72" t="s">
+      <c r="F66" s="65"/>
+    </row>
+    <row r="67" spans="1:6" ht="50.25" thickBot="1">
+      <c r="A67" s="65"/>
+      <c r="B67" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C67" s="73">
+      <c r="C67" s="65">
         <v>580</v>
       </c>
-      <c r="D67" s="72" t="s">
+      <c r="D67" s="64" t="s">
         <v>610</v>
       </c>
-      <c r="E67" s="73" t="s">
+      <c r="E67" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F67" s="73"/>
-    </row>
-    <row r="68" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A68" s="73"/>
-      <c r="B68" s="72" t="s">
+      <c r="F67" s="65"/>
+    </row>
+    <row r="68" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A68" s="65"/>
+      <c r="B68" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="C68" s="73">
+      <c r="C68" s="65">
         <v>110</v>
       </c>
-      <c r="D68" s="72" t="s">
+      <c r="D68" s="64" t="s">
         <v>611</v>
       </c>
-      <c r="E68" s="73" t="s">
+      <c r="E68" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F68" s="73"/>
-    </row>
-    <row r="69" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A69" s="73"/>
-      <c r="B69" s="72" t="s">
+      <c r="F68" s="65"/>
+    </row>
+    <row r="69" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A69" s="65"/>
+      <c r="B69" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="C69" s="73">
+      <c r="C69" s="65">
         <v>15</v>
       </c>
-      <c r="D69" s="72" t="s">
+      <c r="D69" s="64" t="s">
         <v>613</v>
       </c>
-      <c r="E69" s="73" t="s">
+      <c r="E69" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F69" s="73"/>
-    </row>
-    <row r="70" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A70" s="75">
+      <c r="F69" s="65"/>
+    </row>
+    <row r="70" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A70" s="67">
         <v>44084</v>
       </c>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C70" s="73"/>
-      <c r="D70" s="72" t="s">
+      <c r="C70" s="65"/>
+      <c r="D70" s="64" t="s">
         <v>614</v>
       </c>
-      <c r="E70" s="73" t="s">
+      <c r="E70" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F70" s="72" t="s">
+      <c r="F70" s="64" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A71" s="73"/>
-      <c r="B71" s="72" t="s">
+    <row r="71" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A71" s="65"/>
+      <c r="B71" s="64" t="s">
         <v>616</v>
       </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="72" t="s">
+      <c r="C71" s="65"/>
+      <c r="D71" s="64" t="s">
         <v>586</v>
       </c>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-    </row>
-    <row r="72" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A72" s="73"/>
-      <c r="B72" s="72" t="s">
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+    </row>
+    <row r="72" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A72" s="65"/>
+      <c r="B72" s="64" t="s">
         <v>617</v>
       </c>
-      <c r="C72" s="73">
+      <c r="C72" s="65">
         <v>60</v>
       </c>
-      <c r="D72" s="72" t="s">
+      <c r="D72" s="64" t="s">
         <v>618</v>
       </c>
-      <c r="E72" s="73" t="s">
+      <c r="E72" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F72" s="73"/>
-    </row>
-    <row r="73" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A73" s="73"/>
-      <c r="B73" s="72" t="s">
+      <c r="F72" s="65"/>
+    </row>
+    <row r="73" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A73" s="65"/>
+      <c r="B73" s="64" t="s">
         <v>619</v>
       </c>
-      <c r="C73" s="73">
+      <c r="C73" s="65">
         <v>150</v>
       </c>
-      <c r="D73" s="72"/>
-      <c r="E73" s="73" t="s">
+      <c r="D73" s="64"/>
+      <c r="E73" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F73" s="73"/>
-    </row>
-    <row r="74" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A74" s="73"/>
-      <c r="B74" s="72" t="s">
+      <c r="F73" s="65"/>
+    </row>
+    <row r="74" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A74" s="65"/>
+      <c r="B74" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C74" s="73">
+      <c r="C74" s="65">
         <v>512</v>
       </c>
-      <c r="D74" s="72"/>
-      <c r="E74" s="73" t="s">
+      <c r="D74" s="64"/>
+      <c r="E74" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F74" s="73"/>
-    </row>
-    <row r="75" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A75" s="73"/>
-      <c r="B75" s="72" t="s">
+      <c r="F74" s="65"/>
+    </row>
+    <row r="75" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A75" s="65"/>
+      <c r="B75" s="64" t="s">
         <v>620</v>
       </c>
-      <c r="C75" s="73">
+      <c r="C75" s="65">
         <v>306</v>
       </c>
-      <c r="D75" s="72"/>
-      <c r="E75" s="73" t="s">
+      <c r="D75" s="64"/>
+      <c r="E75" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F75" s="73"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A76" s="73"/>
-      <c r="B76" s="72" t="s">
+      <c r="F75" s="65"/>
+    </row>
+    <row r="76" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A76" s="65"/>
+      <c r="B76" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="C76" s="73">
+      <c r="C76" s="65">
         <v>170</v>
       </c>
-      <c r="D76" s="72"/>
-      <c r="E76" s="73" t="s">
+      <c r="D76" s="64"/>
+      <c r="E76" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F76" s="73"/>
-    </row>
-    <row r="77" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A77" s="73"/>
-      <c r="B77" s="72" t="s">
+      <c r="F76" s="65"/>
+    </row>
+    <row r="77" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A77" s="65"/>
+      <c r="B77" s="64" t="s">
         <v>621</v>
       </c>
-      <c r="C77" s="73">
+      <c r="C77" s="65">
         <v>140</v>
       </c>
-      <c r="D77" s="72"/>
-      <c r="E77" s="73" t="s">
+      <c r="D77" s="64"/>
+      <c r="E77" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F77" s="73"/>
-    </row>
-    <row r="78" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A78" s="73"/>
-      <c r="B78" s="72" t="s">
+      <c r="F77" s="65"/>
+    </row>
+    <row r="78" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A78" s="65"/>
+      <c r="B78" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="C78" s="73">
+      <c r="C78" s="65">
         <v>27</v>
       </c>
-      <c r="D78" s="72" t="s">
+      <c r="D78" s="64" t="s">
         <v>622</v>
       </c>
-      <c r="E78" s="73" t="s">
+      <c r="E78" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F78" s="73"/>
-    </row>
-    <row r="79" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A79" s="75">
+      <c r="F78" s="65"/>
+    </row>
+    <row r="79" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A79" s="67">
         <v>44085</v>
       </c>
-      <c r="B79" s="72"/>
-      <c r="C79" s="73"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="72" t="s">
+      <c r="B79" s="64"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="64" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A80" s="73"/>
-      <c r="B80" s="72" t="s">
+    <row r="80" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A80" s="65"/>
+      <c r="B80" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C80" s="73">
+      <c r="C80" s="65">
         <v>282</v>
       </c>
-      <c r="D80" s="72" t="s">
+      <c r="D80" s="64" t="s">
         <v>624</v>
       </c>
-      <c r="E80" s="73" t="s">
+      <c r="E80" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F80" s="73"/>
-    </row>
-    <row r="81" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A81" s="73"/>
-      <c r="B81" s="72" t="s">
+      <c r="F80" s="65"/>
+    </row>
+    <row r="81" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A81" s="65"/>
+      <c r="B81" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C81" s="73" t="s">
+      <c r="C81" s="65" t="s">
         <v>625</v>
       </c>
-      <c r="D81" s="72"/>
-      <c r="E81" s="73" t="s">
+      <c r="D81" s="64"/>
+      <c r="E81" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F81" s="73"/>
-    </row>
-    <row r="82" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A82" s="73"/>
-      <c r="B82" s="72" t="s">
+      <c r="F81" s="65"/>
+    </row>
+    <row r="82" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A82" s="65"/>
+      <c r="B82" s="64" t="s">
         <v>592</v>
       </c>
-      <c r="C82" s="73">
+      <c r="C82" s="65">
         <v>10</v>
       </c>
-      <c r="D82" s="72"/>
-      <c r="E82" s="73" t="s">
+      <c r="D82" s="64"/>
+      <c r="E82" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F82" s="73"/>
-    </row>
-    <row r="83" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A83" s="73"/>
-      <c r="B83" s="72" t="s">
+      <c r="F82" s="65"/>
+    </row>
+    <row r="83" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A83" s="65"/>
+      <c r="B83" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C83" s="73">
+      <c r="C83" s="65">
         <v>304</v>
       </c>
-      <c r="D83" s="72" t="s">
+      <c r="D83" s="64" t="s">
         <v>626</v>
       </c>
-      <c r="E83" s="73" t="s">
+      <c r="E83" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F83" s="73"/>
-    </row>
-    <row r="84" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A84" s="75">
+      <c r="F83" s="65"/>
+    </row>
+    <row r="84" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A84" s="67">
         <v>44086</v>
       </c>
-      <c r="B84" s="72" t="s">
+      <c r="B84" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C84" s="73">
+      <c r="C84" s="65">
         <v>84</v>
       </c>
-      <c r="D84" s="72" t="s">
+      <c r="D84" s="64" t="s">
         <v>627</v>
       </c>
-      <c r="E84" s="73" t="s">
+      <c r="E84" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F84" s="72" t="s">
+      <c r="F84" s="64" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A85" s="73"/>
-      <c r="B85" s="72" t="s">
+    <row r="85" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A85" s="65"/>
+      <c r="B85" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C85" s="73" t="s">
+      <c r="C85" s="65" t="s">
         <v>628</v>
       </c>
-      <c r="D85" s="72" t="s">
+      <c r="D85" s="64" t="s">
         <v>629</v>
       </c>
-      <c r="E85" s="73" t="s">
+      <c r="E85" s="65" t="s">
         <v>537</v>
       </c>
-      <c r="F85" s="73"/>
-    </row>
-    <row r="86" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A86" s="73"/>
-      <c r="B86" s="72" t="s">
+      <c r="F85" s="65"/>
+    </row>
+    <row r="86" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A86" s="65"/>
+      <c r="B86" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C86" s="73">
+      <c r="C86" s="65">
         <v>20</v>
       </c>
-      <c r="D86" s="72" t="s">
+      <c r="D86" s="64" t="s">
         <v>630</v>
       </c>
-      <c r="E86" s="73" t="s">
+      <c r="E86" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F86" s="73"/>
-    </row>
-    <row r="87" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A87" s="73"/>
-      <c r="B87" s="72" t="s">
+      <c r="F86" s="65"/>
+    </row>
+    <row r="87" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A87" s="65"/>
+      <c r="B87" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C87" s="73">
+      <c r="C87" s="65">
         <v>376</v>
       </c>
-      <c r="D87" s="72" t="s">
+      <c r="D87" s="64" t="s">
         <v>631</v>
       </c>
-      <c r="E87" s="73" t="s">
+      <c r="E87" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F87" s="73"/>
-    </row>
-    <row r="88" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A88" s="73"/>
-      <c r="B88" s="72" t="s">
+      <c r="F87" s="65"/>
+    </row>
+    <row r="88" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A88" s="65"/>
+      <c r="B88" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="C88" s="73"/>
-      <c r="D88" s="72" t="s">
+      <c r="C88" s="65"/>
+      <c r="D88" s="64" t="s">
         <v>632</v>
       </c>
-      <c r="E88" s="73" t="s">
+      <c r="E88" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F88" s="73"/>
-    </row>
-    <row r="89" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A89" s="73"/>
-      <c r="B89" s="72" t="s">
+      <c r="F88" s="65"/>
+    </row>
+    <row r="89" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A89" s="65"/>
+      <c r="B89" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="C89" s="73"/>
-      <c r="D89" s="72" t="s">
+      <c r="C89" s="65"/>
+      <c r="D89" s="64" t="s">
         <v>633</v>
       </c>
-      <c r="E89" s="73" t="s">
+      <c r="E89" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F89" s="73"/>
-    </row>
-    <row r="90" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A90" s="73"/>
-      <c r="B90" s="72" t="s">
+      <c r="F89" s="65"/>
+    </row>
+    <row r="90" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A90" s="65"/>
+      <c r="B90" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="C90" s="73">
+      <c r="C90" s="65">
         <v>27</v>
       </c>
-      <c r="D90" s="72" t="s">
+      <c r="D90" s="64" t="s">
         <v>634</v>
       </c>
-      <c r="E90" s="73" t="s">
+      <c r="E90" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F90" s="73"/>
+      <c r="F90" s="65"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -5812,38 +5869,38 @@
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="17" width="11.44140625" customWidth="1"/>
+    <col min="14" max="17" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
       <c r="K1" s="36"/>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="72"/>
       <c r="O1" s="36">
         <v>6.1</v>
       </c>
@@ -5864,13 +5921,13 @@
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="36"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="71"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="75"/>
       <c r="O2" s="36"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
@@ -6585,6 +6642,7 @@
     <mergeCell ref="H1:J2"/>
     <mergeCell ref="L1:N2"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -6598,11 +6656,11 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -6666,6 +6724,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
 </worksheet>
@@ -6679,13 +6738,13 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="42.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6708,7 +6767,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2">
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -6734,7 +6793,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.2">
+    <row r="3" spans="1:8" ht="14.25">
       <c r="A3" t="s">
         <v>267</v>
       </c>
@@ -6811,6 +6870,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
@@ -6830,18 +6890,18 @@
       <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" style="17" customWidth="1"/>
     <col min="2" max="2" width="7" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="17" customWidth="1"/>
     <col min="4" max="4" width="8" style="17" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="17"/>
-    <col min="7" max="8" width="19.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="5" max="6" width="9.125" style="17"/>
+    <col min="7" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
+    <row r="1" spans="1:11" ht="18.75">
       <c r="A1" s="18" t="s">
         <v>275</v>
       </c>
@@ -24654,6 +24714,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"已还,未还"</formula1>
@@ -24672,11 +24733,11 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="19" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -25122,6 +25183,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -25136,11 +25198,11 @@
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="61.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="28.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="61.875" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
@@ -25839,7 +25901,7 @@
       </c>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" ht="15.6">
+    <row r="67" spans="1:4" ht="14.25">
       <c r="A67" s="7">
         <v>40704</v>
       </c>
@@ -25851,7 +25913,7 @@
       </c>
       <c r="D67" s="8"/>
     </row>
-    <row r="68" spans="1:4" ht="15.6">
+    <row r="68" spans="1:4" ht="14.25">
       <c r="A68" s="7"/>
       <c r="B68" s="11" t="s">
         <v>466</v>
@@ -26037,7 +26099,7 @@
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
     </row>
-    <row r="85" spans="1:4" ht="15.6">
+    <row r="85" spans="1:4" ht="14.25">
       <c r="A85" s="7">
         <v>40521</v>
       </c>
@@ -26124,6 +26186,7 @@
       <c r="D92" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B85" r:id="rId1" tooltip="操作系统：精髓与设计原理（第五版）——国外计算机科学教材系列" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
@@ -26140,13 +26203,13 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -26456,6 +26519,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"ongoing, not start, finish"</formula1>

--- a/myprogarm/excel/record.xlsx
+++ b/myprogarm/excel/record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\example\myprogarm\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\example\myprogarm\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C950A1DD-AB80-429D-9953-E918742EAB6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B0D721-8779-40B5-B7DA-6E738AF076EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22128" windowHeight="13176" tabRatio="615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="615" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="账户" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="643">
   <si>
     <t>zhibo8.com</t>
   </si>
@@ -1701,7 +1703,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1712,6 +1714,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>凉菜</t>
     </r>
@@ -1730,7 +1734,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1748,7 +1752,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1759,6 +1763,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>酸奶</t>
     </r>
@@ -1813,7 +1819,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1824,6 +1830,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>小炒</t>
     </r>
@@ -1915,6 +1923,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>布尔津县</t>
     </r>
@@ -2023,6 +2033,38 @@
   </si>
   <si>
     <t>哈密瓜</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.shrew.net/shop/user/detail</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>songray280@gmail.com</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用卡</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>vpn access manager</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chu123</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2030,14 +2072,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2049,7 +2098,7 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2060,14 +2109,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2081,7 +2130,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2091,7 +2140,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2099,6 +2148,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2357,12 +2423,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2390,13 +2456,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2409,7 +2475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -2424,20 +2490,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2458,9 +2524,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2471,29 +2537,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2519,22 +2597,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2891,12 +2958,12 @@
       <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3104,7 +3171,7 @@
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6">
+    <row r="20" spans="1:5" ht="14.25">
       <c r="A20" s="55" t="s">
         <v>34</v>
       </c>
@@ -3117,7 +3184,7 @@
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6">
+    <row r="21" spans="1:5" ht="14.25">
       <c r="A21" s="55" t="s">
         <v>35</v>
       </c>
@@ -3143,7 +3210,7 @@
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6">
+    <row r="23" spans="1:5" ht="14.25">
       <c r="A23" s="55" t="s">
         <v>38</v>
       </c>
@@ -3184,7 +3251,7 @@
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6">
+    <row r="26" spans="1:5" ht="14.25">
       <c r="A26" s="55" t="s">
         <v>46</v>
       </c>
@@ -3212,7 +3279,7 @@
       </c>
       <c r="E27" s="55"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6">
+    <row r="28" spans="1:5" ht="14.25">
       <c r="A28" s="55" t="s">
         <v>48</v>
       </c>
@@ -3229,7 +3296,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.6">
+    <row r="29" spans="1:5" ht="14.25">
       <c r="A29" s="55" t="s">
         <v>52</v>
       </c>
@@ -3242,7 +3309,7 @@
       <c r="D29" s="56"/>
       <c r="E29" s="55"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6">
+    <row r="30" spans="1:5" ht="14.25">
       <c r="A30" s="55"/>
       <c r="B30" s="56" t="s">
         <v>39</v>
@@ -3255,7 +3322,7 @@
       </c>
       <c r="E30" s="55"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6">
+    <row r="31" spans="1:5" ht="14.25">
       <c r="A31" s="55"/>
       <c r="B31" s="56">
         <v>3119425375</v>
@@ -3266,7 +3333,7 @@
       <c r="D31" s="56"/>
       <c r="E31" s="55"/>
     </row>
-    <row r="32" spans="1:5" ht="15.6">
+    <row r="32" spans="1:5" ht="14.25">
       <c r="A32" s="55"/>
       <c r="B32" s="56">
         <v>3301169791</v>
@@ -3277,7 +3344,7 @@
       <c r="D32" s="56"/>
       <c r="E32" s="55"/>
     </row>
-    <row r="33" spans="1:5" ht="15.6">
+    <row r="33" spans="1:5" ht="14.25">
       <c r="A33" s="55" t="s">
         <v>56</v>
       </c>
@@ -3479,7 +3546,7 @@
       <c r="D48" s="55"/>
       <c r="E48" s="55"/>
     </row>
-    <row r="49" spans="1:5" ht="15.6">
+    <row r="49" spans="1:5" ht="14.25">
       <c r="A49" s="55" t="s">
         <v>81</v>
       </c>
@@ -3525,7 +3592,7 @@
       <c r="D52" s="55"/>
       <c r="E52" s="55"/>
     </row>
-    <row r="53" spans="1:5" ht="15.6">
+    <row r="53" spans="1:5" ht="14.25">
       <c r="A53" s="56" t="s">
         <v>87</v>
       </c>
@@ -3560,7 +3627,7 @@
       <c r="D55" s="55"/>
       <c r="E55" s="55"/>
     </row>
-    <row r="56" spans="1:5" ht="15.6">
+    <row r="56" spans="1:5" ht="14.25">
       <c r="A56" s="55" t="s">
         <v>92</v>
       </c>
@@ -3642,7 +3709,7 @@
       <c r="D63" s="55"/>
       <c r="E63" s="55"/>
     </row>
-    <row r="64" spans="1:5" ht="15.6">
+    <row r="64" spans="1:5" ht="14.25">
       <c r="A64" s="55" t="s">
         <v>100</v>
       </c>
@@ -3655,7 +3722,7 @@
       <c r="D64" s="55"/>
       <c r="E64" s="55"/>
     </row>
-    <row r="65" spans="1:5" ht="15.6">
+    <row r="65" spans="1:5" ht="14.25">
       <c r="A65" s="55" t="s">
         <v>101</v>
       </c>
@@ -3697,7 +3764,7 @@
       <c r="D68" s="55"/>
       <c r="E68" s="55"/>
     </row>
-    <row r="69" spans="1:5" ht="15.6">
+    <row r="69" spans="1:5" ht="14.25">
       <c r="A69" s="55" t="s">
         <v>104</v>
       </c>
@@ -3723,7 +3790,7 @@
       <c r="D70" s="55"/>
       <c r="E70" s="55"/>
     </row>
-    <row r="71" spans="1:5" ht="15.6">
+    <row r="71" spans="1:5" ht="14.25">
       <c r="A71" s="55" t="s">
         <v>108</v>
       </c>
@@ -3736,7 +3803,7 @@
       <c r="D71" s="55"/>
       <c r="E71" s="55"/>
     </row>
-    <row r="72" spans="1:5" ht="16.2">
+    <row r="72" spans="1:5" ht="15.75">
       <c r="A72" s="55" t="s">
         <v>109</v>
       </c>
@@ -3751,7 +3818,7 @@
       </c>
       <c r="E72" s="55"/>
     </row>
-    <row r="73" spans="1:5" ht="16.2">
+    <row r="73" spans="1:5" ht="15.75">
       <c r="A73" s="55" t="s">
         <v>111</v>
       </c>
@@ -3764,7 +3831,7 @@
       <c r="D73" s="27"/>
       <c r="E73" s="55"/>
     </row>
-    <row r="74" spans="1:5" ht="28.8">
+    <row r="74" spans="1:5" ht="27">
       <c r="A74" t="s">
         <v>114</v>
       </c>
@@ -3998,7 +4065,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16.2">
+    <row r="100" spans="1:4" ht="14.25">
       <c r="B100" s="27" t="s">
         <v>154</v>
       </c>
@@ -4009,7 +4076,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16.2">
+    <row r="101" spans="1:4" ht="14.25">
       <c r="A101" t="s">
         <v>156</v>
       </c>
@@ -4037,7 +4104,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="16.2">
+    <row r="104" spans="1:4" ht="14.25">
       <c r="A104" t="s">
         <v>161</v>
       </c>
@@ -4051,7 +4118,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16.2">
+    <row r="105" spans="1:4" ht="14.25">
       <c r="A105" t="s">
         <v>163</v>
       </c>
@@ -4199,7 +4266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="16.2">
+    <row r="120" spans="1:5" ht="14.25">
       <c r="A120" t="s">
         <v>189</v>
       </c>
@@ -4243,7 +4310,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="16.2">
+    <row r="124" spans="1:5" ht="14.25">
       <c r="A124" t="s">
         <v>194</v>
       </c>
@@ -4265,7 +4332,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="16.2">
+    <row r="126" spans="1:5" ht="14.25">
       <c r="A126" t="s">
         <v>197</v>
       </c>
@@ -4276,7 +4343,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="16.2">
+    <row r="127" spans="1:5" ht="14.25">
       <c r="A127" t="s">
         <v>198</v>
       </c>
@@ -4293,7 +4360,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="16.2">
+    <row r="128" spans="1:5" ht="14.25">
       <c r="A128" t="s">
         <v>200</v>
       </c>
@@ -4345,7 +4412,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16.2">
+    <row r="133" spans="1:4" ht="14.25">
       <c r="A133" t="s">
         <v>206</v>
       </c>
@@ -4371,6 +4438,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A53" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -4407,1398 +4475,1399 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FCE186-7079-4EBA-A603-35D06D68A497}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A1" s="64" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="72" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="64" t="s">
         <v>525</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="64" t="s">
         <v>526</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="64" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A2" s="74">
+    <row r="2" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A2" s="66">
         <v>44068</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="64" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="73">
+      <c r="C2" s="65">
         <v>3660</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F2" s="73"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A3" s="74">
+      <c r="F2" s="65"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A3" s="66">
         <v>44072</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="64" t="s">
         <v>529</v>
       </c>
-      <c r="C3" s="73">
+      <c r="C3" s="65">
         <v>6905</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F3" s="73"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-    </row>
-    <row r="5" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A5" s="74">
+      <c r="F3" s="65"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A5" s="66">
         <v>44073</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="64" t="s">
         <v>531</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="65">
         <v>120</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73" t="s">
+      <c r="D5" s="65"/>
+      <c r="E5" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="64" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72" t="s">
+    <row r="6" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="65">
         <v>382</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="64" t="s">
         <v>534</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F6" s="73"/>
-    </row>
-    <row r="7" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72" t="s">
+      <c r="F6" s="65"/>
+    </row>
+    <row r="7" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64" t="s">
         <v>535</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="65">
         <v>385</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73" t="s">
+      <c r="D7" s="65"/>
+      <c r="E7" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F7" s="73"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A8" s="74">
+      <c r="F7" s="65"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A8" s="66">
         <v>44074</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="65">
         <v>90</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73" t="s">
+      <c r="D8" s="65"/>
+      <c r="E8" s="65" t="s">
         <v>537</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="64" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="72" t="s">
+    <row r="9" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A9" s="65"/>
+      <c r="B9" s="64" t="s">
         <v>539</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="65">
         <v>521</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73" t="s">
+      <c r="D9" s="65"/>
+      <c r="E9" s="65" t="s">
         <v>537</v>
       </c>
-      <c r="F9" s="73"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A10" s="73"/>
-      <c r="B10" s="72" t="s">
+      <c r="F9" s="65"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A10" s="65"/>
+      <c r="B10" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="65">
         <v>110</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73" t="s">
+      <c r="D10" s="65"/>
+      <c r="E10" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F10" s="73"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="72" t="s">
+      <c r="F10" s="65"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A11" s="65"/>
+      <c r="B11" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="65" t="s">
         <v>542</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73" t="s">
+      <c r="D11" s="65"/>
+      <c r="E11" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F11" s="73"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A12" s="73"/>
-      <c r="B12" s="72" t="s">
+      <c r="F11" s="65"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A12" s="65"/>
+      <c r="B12" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="65">
         <v>110</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73" t="s">
+      <c r="D12" s="65"/>
+      <c r="E12" s="65" t="s">
         <v>537</v>
       </c>
-      <c r="F12" s="73"/>
-    </row>
-    <row r="13" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="72" t="s">
+      <c r="F12" s="65"/>
+    </row>
+    <row r="13" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A13" s="65"/>
+      <c r="B13" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="65">
         <v>339</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="64" t="s">
         <v>545</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F13" s="73"/>
-    </row>
-    <row r="14" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A14" s="73"/>
-      <c r="B14" s="72" t="s">
+      <c r="F13" s="65"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A14" s="65"/>
+      <c r="B14" s="64" t="s">
         <v>547</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="65">
         <v>4164</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73" t="s">
+      <c r="D14" s="65"/>
+      <c r="E14" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F14" s="73"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A15" s="75">
+      <c r="F14" s="65"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A15" s="67">
         <v>44075</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="65">
         <v>30</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73" t="s">
+      <c r="D15" s="65"/>
+      <c r="E15" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="64" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A16" s="73"/>
-      <c r="B16" s="72" t="s">
+    <row r="16" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A16" s="65"/>
+      <c r="B16" s="64" t="s">
         <v>549</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="65">
         <v>90</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73" t="s">
+      <c r="D16" s="65"/>
+      <c r="E16" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F16" s="73"/>
-    </row>
-    <row r="17" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A17" s="73"/>
-      <c r="B17" s="72" t="s">
+      <c r="F16" s="65"/>
+    </row>
+    <row r="17" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A17" s="65"/>
+      <c r="B17" s="64" t="s">
         <v>550</v>
       </c>
-      <c r="C17" s="73">
+      <c r="C17" s="65">
         <v>210</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73" t="s">
+      <c r="D17" s="65"/>
+      <c r="E17" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F17" s="73"/>
-    </row>
-    <row r="18" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A18" s="73"/>
-      <c r="B18" s="72" t="s">
+      <c r="F17" s="65"/>
+    </row>
+    <row r="18" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A18" s="65"/>
+      <c r="B18" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="65">
         <v>300</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F18" s="73"/>
-    </row>
-    <row r="19" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A19" s="73"/>
-      <c r="B19" s="72" t="s">
+      <c r="F18" s="65"/>
+    </row>
+    <row r="19" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A19" s="65"/>
+      <c r="B19" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="65">
         <v>116</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="64" t="s">
         <v>552</v>
       </c>
-      <c r="E19" s="73" t="s">
+      <c r="E19" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F19" s="73"/>
-    </row>
-    <row r="20" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A20" s="75">
+      <c r="F19" s="65"/>
+    </row>
+    <row r="20" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A20" s="67">
         <v>44076</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="65">
         <v>60</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="64" t="s">
         <v>553</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="64" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A21" s="73"/>
-      <c r="B21" s="72" t="s">
+    <row r="21" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A21" s="65"/>
+      <c r="B21" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="65">
         <v>310</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73" t="s">
+      <c r="D21" s="65"/>
+      <c r="E21" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F21" s="73"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A22" s="73"/>
-      <c r="B22" s="72" t="s">
+      <c r="F21" s="65"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A22" s="65"/>
+      <c r="B22" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="65">
         <v>15</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73" t="s">
+      <c r="D22" s="65"/>
+      <c r="E22" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F22" s="73"/>
-    </row>
-    <row r="23" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A23" s="73"/>
-      <c r="B23" s="72" t="s">
+      <c r="F22" s="65"/>
+    </row>
+    <row r="23" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A23" s="65"/>
+      <c r="B23" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C23" s="73">
+      <c r="C23" s="65">
         <v>376</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F23" s="73"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A24" s="73"/>
-      <c r="B24" s="72" t="s">
+      <c r="F23" s="65"/>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A24" s="65"/>
+      <c r="B24" s="64" t="s">
         <v>556</v>
       </c>
-      <c r="C24" s="73">
+      <c r="C24" s="65">
         <v>57</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73" t="s">
+      <c r="D24" s="65"/>
+      <c r="E24" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F24" s="73"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A25" s="73"/>
-      <c r="B25" s="72" t="s">
+      <c r="F24" s="65"/>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A25" s="65"/>
+      <c r="B25" s="64" t="s">
         <v>531</v>
       </c>
-      <c r="C25" s="73">
+      <c r="C25" s="65">
         <v>18</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73" t="s">
+      <c r="D25" s="65"/>
+      <c r="E25" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F25" s="73"/>
-    </row>
-    <row r="26" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A26" s="75">
+      <c r="F25" s="65"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A26" s="67">
         <v>44077</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C26" s="73">
+      <c r="C26" s="65">
         <v>75</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="64" t="s">
         <v>557</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="64" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A27" s="73"/>
-      <c r="B27" s="72" t="s">
+    <row r="27" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A27" s="65"/>
+      <c r="B27" s="64" t="s">
         <v>559</v>
       </c>
-      <c r="C27" s="73">
+      <c r="C27" s="65">
         <v>20</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73" t="s">
+      <c r="D27" s="65"/>
+      <c r="E27" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F27" s="73"/>
-    </row>
-    <row r="28" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A28" s="73"/>
-      <c r="B28" s="72" t="s">
+      <c r="F27" s="65"/>
+    </row>
+    <row r="28" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A28" s="65"/>
+      <c r="B28" s="64" t="s">
         <v>560</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="65">
         <v>135</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73" t="s">
+      <c r="D28" s="65"/>
+      <c r="E28" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F28" s="73"/>
-    </row>
-    <row r="29" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A29" s="73"/>
-      <c r="B29" s="72" t="s">
+      <c r="F28" s="65"/>
+    </row>
+    <row r="29" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A29" s="65"/>
+      <c r="B29" s="64" t="s">
         <v>561</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="65" t="s">
         <v>562</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73" t="s">
+      <c r="D29" s="65"/>
+      <c r="E29" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F29" s="73"/>
-    </row>
-    <row r="30" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A30" s="73"/>
-      <c r="B30" s="72" t="s">
+      <c r="F29" s="65"/>
+    </row>
+    <row r="30" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A30" s="65"/>
+      <c r="B30" s="64" t="s">
         <v>563</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="65">
         <v>8</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-    </row>
-    <row r="31" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A31" s="73"/>
-      <c r="B31" s="72" t="s">
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A31" s="65"/>
+      <c r="B31" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="65" t="s">
         <v>564</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73" t="s">
+      <c r="D31" s="65"/>
+      <c r="E31" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F31" s="73"/>
-    </row>
-    <row r="32" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A32" s="73"/>
-      <c r="B32" s="72" t="s">
+      <c r="F31" s="65"/>
+    </row>
+    <row r="32" spans="1:6" ht="50.25" thickBot="1">
+      <c r="A32" s="65"/>
+      <c r="B32" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="65">
         <v>298</v>
       </c>
-      <c r="D32" s="72" t="s">
+      <c r="D32" s="64" t="s">
         <v>565</v>
       </c>
-      <c r="E32" s="73" t="s">
+      <c r="E32" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F32" s="73"/>
-    </row>
-    <row r="33" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A33" s="73"/>
-      <c r="B33" s="72" t="s">
+      <c r="F32" s="65"/>
+    </row>
+    <row r="33" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A33" s="65"/>
+      <c r="B33" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C33" s="73">
+      <c r="C33" s="65">
         <v>190</v>
       </c>
-      <c r="D33" s="72" t="s">
+      <c r="D33" s="64" t="s">
         <v>566</v>
       </c>
-      <c r="E33" s="73" t="s">
+      <c r="E33" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F33" s="73"/>
-    </row>
-    <row r="34" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A34" s="75">
+      <c r="F33" s="65"/>
+    </row>
+    <row r="34" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A34" s="67">
         <v>44078</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C34" s="73">
+      <c r="C34" s="65">
         <v>170</v>
       </c>
-      <c r="D34" s="72" t="s">
+      <c r="D34" s="64" t="s">
         <v>567</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F34" s="72" t="s">
+      <c r="F34" s="64" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A35" s="73"/>
-      <c r="B35" s="72" t="s">
+    <row r="35" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A35" s="65"/>
+      <c r="B35" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="65" t="s">
         <v>569</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73" t="s">
+      <c r="D35" s="65"/>
+      <c r="E35" s="65" t="s">
         <v>570</v>
       </c>
-      <c r="F35" s="73"/>
-    </row>
-    <row r="36" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A36" s="73"/>
-      <c r="B36" s="72" t="s">
+      <c r="F35" s="65"/>
+    </row>
+    <row r="36" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A36" s="65"/>
+      <c r="B36" s="64" t="s">
         <v>571</v>
       </c>
-      <c r="C36" s="73">
+      <c r="C36" s="65">
         <v>210</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73" t="s">
+      <c r="D36" s="65"/>
+      <c r="E36" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F36" s="73"/>
-    </row>
-    <row r="37" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A37" s="73"/>
-      <c r="B37" s="72" t="s">
+      <c r="F36" s="65"/>
+    </row>
+    <row r="37" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A37" s="65"/>
+      <c r="B37" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C37" s="73">
+      <c r="C37" s="65">
         <v>149</v>
       </c>
-      <c r="D37" s="72" t="s">
+      <c r="D37" s="64" t="s">
         <v>572</v>
       </c>
-      <c r="E37" s="73" t="s">
+      <c r="E37" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F37" s="73"/>
-    </row>
-    <row r="38" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A38" s="73"/>
-      <c r="B38" s="72" t="s">
+      <c r="F37" s="65"/>
+    </row>
+    <row r="38" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A38" s="65"/>
+      <c r="B38" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C38" s="73">
+      <c r="C38" s="65">
         <v>240</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="64" t="s">
         <v>573</v>
       </c>
-      <c r="E38" s="73" t="s">
+      <c r="E38" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F38" s="73"/>
-    </row>
-    <row r="39" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A39" s="75">
+      <c r="F38" s="65"/>
+    </row>
+    <row r="39" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A39" s="67">
         <v>44079</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C39" s="73">
+      <c r="C39" s="65">
         <v>78</v>
       </c>
-      <c r="D39" s="72" t="s">
+      <c r="D39" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="E39" s="73"/>
-      <c r="F39" s="72" t="s">
+      <c r="E39" s="65"/>
+      <c r="F39" s="64" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A40" s="73"/>
-      <c r="B40" s="72" t="s">
+    <row r="40" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A40" s="65"/>
+      <c r="B40" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="C40" s="73">
+      <c r="C40" s="65">
         <v>325</v>
       </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="73" t="s">
+      <c r="D40" s="64"/>
+      <c r="E40" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F40" s="73"/>
-    </row>
-    <row r="41" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A41" s="73"/>
-      <c r="B41" s="72" t="s">
+      <c r="F40" s="65"/>
+    </row>
+    <row r="41" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A41" s="65"/>
+      <c r="B41" s="64" t="s">
         <v>576</v>
       </c>
-      <c r="C41" s="73">
+      <c r="C41" s="65">
         <v>86</v>
       </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="73" t="s">
+      <c r="D41" s="64"/>
+      <c r="E41" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F41" s="73"/>
-    </row>
-    <row r="42" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A42" s="73"/>
-      <c r="B42" s="72" t="s">
+      <c r="F41" s="65"/>
+    </row>
+    <row r="42" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A42" s="65"/>
+      <c r="B42" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C42" s="73">
+      <c r="C42" s="65">
         <v>16</v>
       </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="73" t="s">
+      <c r="D42" s="64"/>
+      <c r="E42" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F42" s="73"/>
-    </row>
-    <row r="43" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A43" s="73"/>
-      <c r="B43" s="72" t="s">
+      <c r="F42" s="65"/>
+    </row>
+    <row r="43" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A43" s="65"/>
+      <c r="B43" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C43" s="73">
+      <c r="C43" s="65">
         <v>270</v>
       </c>
-      <c r="D43" s="72" t="s">
+      <c r="D43" s="64" t="s">
         <v>577</v>
       </c>
-      <c r="E43" s="73" t="s">
+      <c r="E43" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F43" s="73"/>
-    </row>
-    <row r="44" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A44" s="73"/>
-      <c r="B44" s="72" t="s">
+      <c r="F43" s="65"/>
+    </row>
+    <row r="44" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A44" s="65"/>
+      <c r="B44" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C44" s="73">
+      <c r="C44" s="65">
         <v>150</v>
       </c>
-      <c r="D44" s="72" t="s">
+      <c r="D44" s="64" t="s">
         <v>578</v>
       </c>
-      <c r="E44" s="73" t="s">
+      <c r="E44" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F44" s="73"/>
-    </row>
-    <row r="45" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A45" s="75">
+      <c r="F44" s="65"/>
+    </row>
+    <row r="45" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A45" s="67">
         <v>44080</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C45" s="73">
+      <c r="C45" s="65">
         <v>126</v>
       </c>
-      <c r="D45" s="72" t="s">
+      <c r="D45" s="64" t="s">
         <v>579</v>
       </c>
-      <c r="E45" s="73" t="s">
+      <c r="E45" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F45" s="72" t="s">
+      <c r="F45" s="64" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A46" s="73"/>
-      <c r="B46" s="72" t="s">
+    <row r="46" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A46" s="65"/>
+      <c r="B46" s="64" t="s">
         <v>581</v>
       </c>
-      <c r="C46" s="73">
+      <c r="C46" s="65">
         <v>22</v>
       </c>
-      <c r="D46" s="72"/>
-      <c r="E46" s="73" t="s">
+      <c r="D46" s="64"/>
+      <c r="E46" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F46" s="73"/>
-    </row>
-    <row r="47" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A47" s="73"/>
-      <c r="B47" s="72" t="s">
+      <c r="F46" s="65"/>
+    </row>
+    <row r="47" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A47" s="65"/>
+      <c r="B47" s="64" t="s">
         <v>582</v>
       </c>
-      <c r="C47" s="73">
+      <c r="C47" s="65">
         <v>30</v>
       </c>
-      <c r="D47" s="72" t="s">
+      <c r="D47" s="64" t="s">
         <v>583</v>
       </c>
-      <c r="E47" s="73" t="s">
+      <c r="E47" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F47" s="73"/>
-    </row>
-    <row r="48" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A48" s="73"/>
-      <c r="B48" s="72" t="s">
+      <c r="F47" s="65"/>
+    </row>
+    <row r="48" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A48" s="65"/>
+      <c r="B48" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C48" s="73" t="s">
+      <c r="C48" s="65" t="s">
         <v>584</v>
       </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="73" t="s">
+      <c r="D48" s="64"/>
+      <c r="E48" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F48" s="73"/>
-    </row>
-    <row r="49" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A49" s="73"/>
-      <c r="B49" s="72" t="s">
+      <c r="F48" s="65"/>
+    </row>
+    <row r="49" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A49" s="65"/>
+      <c r="B49" s="64" t="s">
         <v>585</v>
       </c>
-      <c r="C49" s="73">
+      <c r="C49" s="65">
         <v>90</v>
       </c>
-      <c r="D49" s="72" t="s">
+      <c r="D49" s="64" t="s">
         <v>586</v>
       </c>
-      <c r="E49" s="73" t="s">
+      <c r="E49" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F49" s="73"/>
-    </row>
-    <row r="50" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A50" s="73"/>
-      <c r="B50" s="72" t="s">
+      <c r="F49" s="65"/>
+    </row>
+    <row r="50" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A50" s="65"/>
+      <c r="B50" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C50" s="73">
+      <c r="C50" s="65">
         <v>336</v>
       </c>
-      <c r="D50" s="72" t="s">
+      <c r="D50" s="64" t="s">
         <v>587</v>
       </c>
-      <c r="E50" s="73" t="s">
+      <c r="E50" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F50" s="73"/>
-    </row>
-    <row r="51" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A51" s="73"/>
-      <c r="B51" s="72" t="s">
+      <c r="F50" s="65"/>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A51" s="65"/>
+      <c r="B51" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C51" s="73">
+      <c r="C51" s="65">
         <v>150</v>
       </c>
-      <c r="D51" s="72" t="s">
+      <c r="D51" s="64" t="s">
         <v>588</v>
       </c>
-      <c r="E51" s="73" t="s">
+      <c r="E51" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F51" s="73"/>
-    </row>
-    <row r="52" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A52" s="75">
+      <c r="F51" s="65"/>
+    </row>
+    <row r="52" spans="1:6" ht="50.25" thickBot="1">
+      <c r="A52" s="67">
         <v>44081</v>
       </c>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C52" s="73">
+      <c r="C52" s="65">
         <v>208</v>
       </c>
-      <c r="D52" s="72" t="s">
+      <c r="D52" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="E52" s="73" t="s">
+      <c r="E52" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F52" s="72" t="s">
+      <c r="F52" s="64" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A53" s="73"/>
-      <c r="B53" s="72" t="s">
+    <row r="53" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A53" s="65"/>
+      <c r="B53" s="64" t="s">
         <v>591</v>
       </c>
-      <c r="C53" s="73">
+      <c r="C53" s="65">
         <v>240</v>
       </c>
-      <c r="D53" s="72"/>
-      <c r="E53" s="73" t="s">
+      <c r="D53" s="64"/>
+      <c r="E53" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F53" s="73"/>
-    </row>
-    <row r="54" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A54" s="73"/>
-      <c r="B54" s="72" t="s">
+      <c r="F53" s="65"/>
+    </row>
+    <row r="54" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A54" s="65"/>
+      <c r="B54" s="64" t="s">
         <v>592</v>
       </c>
-      <c r="C54" s="73">
+      <c r="C54" s="65">
         <v>2</v>
       </c>
-      <c r="D54" s="72"/>
-      <c r="E54" s="73" t="s">
+      <c r="D54" s="64"/>
+      <c r="E54" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F54" s="73"/>
-    </row>
-    <row r="55" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A55" s="73"/>
-      <c r="B55" s="72" t="s">
+      <c r="F54" s="65"/>
+    </row>
+    <row r="55" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A55" s="65"/>
+      <c r="B55" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C55" s="73" t="s">
+      <c r="C55" s="65" t="s">
         <v>593</v>
       </c>
-      <c r="D55" s="72"/>
-      <c r="E55" s="73" t="s">
+      <c r="D55" s="64"/>
+      <c r="E55" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F55" s="73"/>
-    </row>
-    <row r="56" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A56" s="73"/>
-      <c r="B56" s="72" t="s">
+      <c r="F55" s="65"/>
+    </row>
+    <row r="56" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A56" s="65"/>
+      <c r="B56" s="64" t="s">
         <v>594</v>
       </c>
-      <c r="C56" s="73">
+      <c r="C56" s="65">
         <v>435</v>
       </c>
-      <c r="D56" s="72"/>
-      <c r="E56" s="73" t="s">
+      <c r="D56" s="64"/>
+      <c r="E56" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F56" s="73"/>
-    </row>
-    <row r="57" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A57" s="73"/>
-      <c r="B57" s="72" t="s">
+      <c r="F56" s="65"/>
+    </row>
+    <row r="57" spans="1:6" ht="50.25" thickBot="1">
+      <c r="A57" s="65"/>
+      <c r="B57" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C57" s="73">
+      <c r="C57" s="65">
         <v>350</v>
       </c>
-      <c r="D57" s="72" t="s">
+      <c r="D57" s="64" t="s">
         <v>595</v>
       </c>
-      <c r="E57" s="73" t="s">
+      <c r="E57" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F57" s="73"/>
-    </row>
-    <row r="58" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A58" s="73"/>
-      <c r="B58" s="72" t="s">
+      <c r="F57" s="65"/>
+    </row>
+    <row r="58" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A58" s="65"/>
+      <c r="B58" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="C58" s="73">
+      <c r="C58" s="65">
         <v>100</v>
       </c>
-      <c r="D58" s="72" t="s">
+      <c r="D58" s="64" t="s">
         <v>597</v>
       </c>
-      <c r="E58" s="73" t="s">
+      <c r="E58" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F58" s="73"/>
-    </row>
-    <row r="59" spans="1:6" ht="46.2" thickBot="1">
-      <c r="A59" s="75">
+      <c r="F58" s="65"/>
+    </row>
+    <row r="59" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A59" s="67">
         <v>44082</v>
       </c>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="64" t="s">
         <v>598</v>
       </c>
-      <c r="C59" s="73">
+      <c r="C59" s="65">
         <v>82</v>
       </c>
-      <c r="D59" s="72"/>
-      <c r="E59" s="73" t="s">
+      <c r="D59" s="64"/>
+      <c r="E59" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F59" s="73" t="s">
+      <c r="F59" s="65" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="43.8" thickBot="1">
-      <c r="A60" s="73"/>
-      <c r="B60" s="72" t="s">
+    <row r="60" spans="1:6" ht="41.25" thickBot="1">
+      <c r="A60" s="65"/>
+      <c r="B60" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C60" s="73" t="s">
+      <c r="C60" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="D60" s="72"/>
-      <c r="E60" s="73" t="s">
+      <c r="D60" s="64"/>
+      <c r="E60" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F60" s="73"/>
-    </row>
-    <row r="61" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A61" s="73"/>
-      <c r="B61" s="72" t="s">
+      <c r="F60" s="65"/>
+    </row>
+    <row r="61" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A61" s="65"/>
+      <c r="B61" s="64" t="s">
         <v>601</v>
       </c>
-      <c r="C61" s="73">
+      <c r="C61" s="65">
         <v>186</v>
       </c>
-      <c r="D61" s="72" t="s">
+      <c r="D61" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="E61" s="73" t="s">
+      <c r="E61" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F61" s="73"/>
-    </row>
-    <row r="62" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A62" s="73"/>
-      <c r="B62" s="72" t="s">
+      <c r="F61" s="65"/>
+    </row>
+    <row r="62" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A62" s="65"/>
+      <c r="B62" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C62" s="73">
+      <c r="C62" s="65">
         <v>420</v>
       </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="73" t="s">
+      <c r="D62" s="64"/>
+      <c r="E62" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F62" s="73"/>
-    </row>
-    <row r="63" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A63" s="73"/>
-      <c r="B63" s="72" t="s">
+      <c r="F62" s="65"/>
+    </row>
+    <row r="63" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A63" s="65"/>
+      <c r="B63" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="C63" s="73">
+      <c r="C63" s="65">
         <v>300</v>
       </c>
-      <c r="D63" s="72" t="s">
+      <c r="D63" s="64" t="s">
         <v>603</v>
       </c>
-      <c r="E63" s="73" t="s">
+      <c r="E63" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F63" s="73"/>
-    </row>
-    <row r="64" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A64" s="73"/>
-      <c r="B64" s="72" t="s">
+      <c r="F63" s="65"/>
+    </row>
+    <row r="64" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A64" s="65"/>
+      <c r="B64" s="64" t="s">
         <v>604</v>
       </c>
-      <c r="C64" s="73"/>
-      <c r="D64" s="72" t="s">
+      <c r="C64" s="65"/>
+      <c r="D64" s="64" t="s">
         <v>605</v>
       </c>
-      <c r="E64" s="73" t="s">
+      <c r="E64" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F64" s="73"/>
-    </row>
-    <row r="65" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A65" s="75">
+      <c r="F64" s="65"/>
+    </row>
+    <row r="65" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A65" s="67">
         <v>44083</v>
       </c>
-      <c r="B65" s="72" t="s">
+      <c r="B65" s="64" t="s">
         <v>606</v>
       </c>
-      <c r="C65" s="73">
+      <c r="C65" s="65">
         <v>185</v>
       </c>
-      <c r="D65" s="72" t="s">
+      <c r="D65" s="64" t="s">
         <v>607</v>
       </c>
-      <c r="E65" s="73" t="s">
+      <c r="E65" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F65" s="72" t="s">
+      <c r="F65" s="64" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A66" s="73"/>
-      <c r="B66" s="72" t="s">
+    <row r="66" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A66" s="65"/>
+      <c r="B66" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="C66" s="73">
+      <c r="C66" s="65">
         <v>380</v>
       </c>
-      <c r="D66" s="72" t="s">
+      <c r="D66" s="64" t="s">
         <v>609</v>
       </c>
-      <c r="E66" s="73" t="s">
+      <c r="E66" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F66" s="73"/>
-    </row>
-    <row r="67" spans="1:6" ht="63" thickBot="1">
-      <c r="A67" s="73"/>
-      <c r="B67" s="72" t="s">
+      <c r="F66" s="65"/>
+    </row>
+    <row r="67" spans="1:6" ht="50.25" thickBot="1">
+      <c r="A67" s="65"/>
+      <c r="B67" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C67" s="73">
+      <c r="C67" s="65">
         <v>580</v>
       </c>
-      <c r="D67" s="72" t="s">
+      <c r="D67" s="64" t="s">
         <v>610</v>
       </c>
-      <c r="E67" s="73" t="s">
+      <c r="E67" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F67" s="73"/>
-    </row>
-    <row r="68" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A68" s="73"/>
-      <c r="B68" s="72" t="s">
+      <c r="F67" s="65"/>
+    </row>
+    <row r="68" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A68" s="65"/>
+      <c r="B68" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="C68" s="73">
+      <c r="C68" s="65">
         <v>110</v>
       </c>
-      <c r="D68" s="72" t="s">
+      <c r="D68" s="64" t="s">
         <v>611</v>
       </c>
-      <c r="E68" s="73" t="s">
+      <c r="E68" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F68" s="73"/>
-    </row>
-    <row r="69" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A69" s="73"/>
-      <c r="B69" s="72" t="s">
+      <c r="F68" s="65"/>
+    </row>
+    <row r="69" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A69" s="65"/>
+      <c r="B69" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="C69" s="73">
+      <c r="C69" s="65">
         <v>15</v>
       </c>
-      <c r="D69" s="72" t="s">
+      <c r="D69" s="64" t="s">
         <v>613</v>
       </c>
-      <c r="E69" s="73" t="s">
+      <c r="E69" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F69" s="73"/>
-    </row>
-    <row r="70" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A70" s="75">
+      <c r="F69" s="65"/>
+    </row>
+    <row r="70" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A70" s="67">
         <v>44084</v>
       </c>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C70" s="73"/>
-      <c r="D70" s="72" t="s">
+      <c r="C70" s="65"/>
+      <c r="D70" s="64" t="s">
         <v>614</v>
       </c>
-      <c r="E70" s="73" t="s">
+      <c r="E70" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F70" s="72" t="s">
+      <c r="F70" s="64" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A71" s="73"/>
-      <c r="B71" s="72" t="s">
+    <row r="71" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A71" s="65"/>
+      <c r="B71" s="64" t="s">
         <v>616</v>
       </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="72" t="s">
+      <c r="C71" s="65"/>
+      <c r="D71" s="64" t="s">
         <v>586</v>
       </c>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-    </row>
-    <row r="72" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A72" s="73"/>
-      <c r="B72" s="72" t="s">
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+    </row>
+    <row r="72" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A72" s="65"/>
+      <c r="B72" s="64" t="s">
         <v>617</v>
       </c>
-      <c r="C72" s="73">
+      <c r="C72" s="65">
         <v>60</v>
       </c>
-      <c r="D72" s="72" t="s">
+      <c r="D72" s="64" t="s">
         <v>618</v>
       </c>
-      <c r="E72" s="73" t="s">
+      <c r="E72" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F72" s="73"/>
-    </row>
-    <row r="73" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A73" s="73"/>
-      <c r="B73" s="72" t="s">
+      <c r="F72" s="65"/>
+    </row>
+    <row r="73" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A73" s="65"/>
+      <c r="B73" s="64" t="s">
         <v>619</v>
       </c>
-      <c r="C73" s="73">
+      <c r="C73" s="65">
         <v>150</v>
       </c>
-      <c r="D73" s="72"/>
-      <c r="E73" s="73" t="s">
+      <c r="D73" s="64"/>
+      <c r="E73" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F73" s="73"/>
-    </row>
-    <row r="74" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A74" s="73"/>
-      <c r="B74" s="72" t="s">
+      <c r="F73" s="65"/>
+    </row>
+    <row r="74" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A74" s="65"/>
+      <c r="B74" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C74" s="73">
+      <c r="C74" s="65">
         <v>512</v>
       </c>
-      <c r="D74" s="72"/>
-      <c r="E74" s="73" t="s">
+      <c r="D74" s="64"/>
+      <c r="E74" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F74" s="73"/>
-    </row>
-    <row r="75" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A75" s="73"/>
-      <c r="B75" s="72" t="s">
+      <c r="F74" s="65"/>
+    </row>
+    <row r="75" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A75" s="65"/>
+      <c r="B75" s="64" t="s">
         <v>620</v>
       </c>
-      <c r="C75" s="73">
+      <c r="C75" s="65">
         <v>306</v>
       </c>
-      <c r="D75" s="72"/>
-      <c r="E75" s="73" t="s">
+      <c r="D75" s="64"/>
+      <c r="E75" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F75" s="73"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A76" s="73"/>
-      <c r="B76" s="72" t="s">
+      <c r="F75" s="65"/>
+    </row>
+    <row r="76" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A76" s="65"/>
+      <c r="B76" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="C76" s="73">
+      <c r="C76" s="65">
         <v>170</v>
       </c>
-      <c r="D76" s="72"/>
-      <c r="E76" s="73" t="s">
+      <c r="D76" s="64"/>
+      <c r="E76" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F76" s="73"/>
-    </row>
-    <row r="77" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A77" s="73"/>
-      <c r="B77" s="72" t="s">
+      <c r="F76" s="65"/>
+    </row>
+    <row r="77" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A77" s="65"/>
+      <c r="B77" s="64" t="s">
         <v>621</v>
       </c>
-      <c r="C77" s="73">
+      <c r="C77" s="65">
         <v>140</v>
       </c>
-      <c r="D77" s="72"/>
-      <c r="E77" s="73" t="s">
+      <c r="D77" s="64"/>
+      <c r="E77" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F77" s="73"/>
-    </row>
-    <row r="78" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A78" s="73"/>
-      <c r="B78" s="72" t="s">
+      <c r="F77" s="65"/>
+    </row>
+    <row r="78" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A78" s="65"/>
+      <c r="B78" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="C78" s="73">
+      <c r="C78" s="65">
         <v>27</v>
       </c>
-      <c r="D78" s="72" t="s">
+      <c r="D78" s="64" t="s">
         <v>622</v>
       </c>
-      <c r="E78" s="73" t="s">
+      <c r="E78" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F78" s="73"/>
-    </row>
-    <row r="79" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A79" s="75">
+      <c r="F78" s="65"/>
+    </row>
+    <row r="79" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A79" s="67">
         <v>44085</v>
       </c>
-      <c r="B79" s="72"/>
-      <c r="C79" s="73"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="72" t="s">
+      <c r="B79" s="64"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="64" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A80" s="73"/>
-      <c r="B80" s="72" t="s">
+    <row r="80" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A80" s="65"/>
+      <c r="B80" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C80" s="73">
+      <c r="C80" s="65">
         <v>282</v>
       </c>
-      <c r="D80" s="72" t="s">
+      <c r="D80" s="64" t="s">
         <v>624</v>
       </c>
-      <c r="E80" s="73" t="s">
+      <c r="E80" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F80" s="73"/>
-    </row>
-    <row r="81" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A81" s="73"/>
-      <c r="B81" s="72" t="s">
+      <c r="F80" s="65"/>
+    </row>
+    <row r="81" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A81" s="65"/>
+      <c r="B81" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C81" s="73" t="s">
+      <c r="C81" s="65" t="s">
         <v>625</v>
       </c>
-      <c r="D81" s="72"/>
-      <c r="E81" s="73" t="s">
+      <c r="D81" s="64"/>
+      <c r="E81" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F81" s="73"/>
-    </row>
-    <row r="82" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A82" s="73"/>
-      <c r="B82" s="72" t="s">
+      <c r="F81" s="65"/>
+    </row>
+    <row r="82" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A82" s="65"/>
+      <c r="B82" s="64" t="s">
         <v>592</v>
       </c>
-      <c r="C82" s="73">
+      <c r="C82" s="65">
         <v>10</v>
       </c>
-      <c r="D82" s="72"/>
-      <c r="E82" s="73" t="s">
+      <c r="D82" s="64"/>
+      <c r="E82" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F82" s="73"/>
-    </row>
-    <row r="83" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A83" s="73"/>
-      <c r="B83" s="72" t="s">
+      <c r="F82" s="65"/>
+    </row>
+    <row r="83" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A83" s="65"/>
+      <c r="B83" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C83" s="73">
+      <c r="C83" s="65">
         <v>304</v>
       </c>
-      <c r="D83" s="72" t="s">
+      <c r="D83" s="64" t="s">
         <v>626</v>
       </c>
-      <c r="E83" s="73" t="s">
+      <c r="E83" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F83" s="73"/>
-    </row>
-    <row r="84" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A84" s="75">
+      <c r="F83" s="65"/>
+    </row>
+    <row r="84" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A84" s="67">
         <v>44086</v>
       </c>
-      <c r="B84" s="72" t="s">
+      <c r="B84" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C84" s="73">
+      <c r="C84" s="65">
         <v>84</v>
       </c>
-      <c r="D84" s="72" t="s">
+      <c r="D84" s="64" t="s">
         <v>627</v>
       </c>
-      <c r="E84" s="73" t="s">
+      <c r="E84" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F84" s="72" t="s">
+      <c r="F84" s="64" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A85" s="73"/>
-      <c r="B85" s="72" t="s">
+    <row r="85" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A85" s="65"/>
+      <c r="B85" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C85" s="73" t="s">
+      <c r="C85" s="65" t="s">
         <v>628</v>
       </c>
-      <c r="D85" s="72" t="s">
+      <c r="D85" s="64" t="s">
         <v>629</v>
       </c>
-      <c r="E85" s="73" t="s">
+      <c r="E85" s="65" t="s">
         <v>537</v>
       </c>
-      <c r="F85" s="73"/>
-    </row>
-    <row r="86" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A86" s="73"/>
-      <c r="B86" s="72" t="s">
+      <c r="F85" s="65"/>
+    </row>
+    <row r="86" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A86" s="65"/>
+      <c r="B86" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C86" s="73">
+      <c r="C86" s="65">
         <v>20</v>
       </c>
-      <c r="D86" s="72" t="s">
+      <c r="D86" s="64" t="s">
         <v>630</v>
       </c>
-      <c r="E86" s="73" t="s">
+      <c r="E86" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F86" s="73"/>
-    </row>
-    <row r="87" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A87" s="73"/>
-      <c r="B87" s="72" t="s">
+      <c r="F86" s="65"/>
+    </row>
+    <row r="87" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A87" s="65"/>
+      <c r="B87" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C87" s="73">
+      <c r="C87" s="65">
         <v>376</v>
       </c>
-      <c r="D87" s="72" t="s">
+      <c r="D87" s="64" t="s">
         <v>631</v>
       </c>
-      <c r="E87" s="73" t="s">
+      <c r="E87" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F87" s="73"/>
-    </row>
-    <row r="88" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A88" s="73"/>
-      <c r="B88" s="72" t="s">
+      <c r="F87" s="65"/>
+    </row>
+    <row r="88" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A88" s="65"/>
+      <c r="B88" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="C88" s="73"/>
-      <c r="D88" s="72" t="s">
+      <c r="C88" s="65"/>
+      <c r="D88" s="64" t="s">
         <v>632</v>
       </c>
-      <c r="E88" s="73" t="s">
+      <c r="E88" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F88" s="73"/>
-    </row>
-    <row r="89" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A89" s="73"/>
-      <c r="B89" s="72" t="s">
+      <c r="F88" s="65"/>
+    </row>
+    <row r="89" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A89" s="65"/>
+      <c r="B89" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="C89" s="73"/>
-      <c r="D89" s="72" t="s">
+      <c r="C89" s="65"/>
+      <c r="D89" s="64" t="s">
         <v>633</v>
       </c>
-      <c r="E89" s="73" t="s">
+      <c r="E89" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F89" s="73"/>
-    </row>
-    <row r="90" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A90" s="73"/>
-      <c r="B90" s="72" t="s">
+      <c r="F89" s="65"/>
+    </row>
+    <row r="90" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A90" s="65"/>
+      <c r="B90" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="C90" s="73">
+      <c r="C90" s="65">
         <v>27</v>
       </c>
-      <c r="D90" s="72" t="s">
+      <c r="D90" s="64" t="s">
         <v>634</v>
       </c>
-      <c r="E90" s="73" t="s">
+      <c r="E90" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F90" s="73"/>
+      <c r="F90" s="65"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -5812,38 +5881,38 @@
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="17" width="11.44140625" customWidth="1"/>
+    <col min="14" max="17" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
       <c r="K1" s="36"/>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="72"/>
       <c r="O1" s="36">
         <v>6.1</v>
       </c>
@@ -5864,13 +5933,13 @@
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="36"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="71"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="75"/>
       <c r="O2" s="36"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
@@ -6585,6 +6654,7 @@
     <mergeCell ref="H1:J2"/>
     <mergeCell ref="L1:N2"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -6598,11 +6668,11 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -6666,6 +6736,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
 </worksheet>
@@ -6673,22 +6744,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="42.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>256</v>
       </c>
@@ -6708,7 +6779,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2">
+    <row r="2" spans="1:9" ht="14.25">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -6734,7 +6805,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.2">
+    <row r="3" spans="1:9" ht="14.25">
       <c r="A3" t="s">
         <v>267</v>
       </c>
@@ -6760,7 +6831,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>271</v>
       </c>
@@ -6780,17 +6851,23 @@
         <v>43625</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="E5" s="76" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="E6" s="76" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>202</v>
       </c>
@@ -6800,6 +6877,9 @@
       <c r="C7" t="s">
         <v>264</v>
       </c>
+      <c r="E7" s="76" t="s">
+        <v>635</v>
+      </c>
       <c r="F7" s="3">
         <v>43733</v>
       </c>
@@ -6810,11 +6890,43 @@
         <v>44</v>
       </c>
     </row>
+    <row r="8" spans="1:9" ht="14.25">
+      <c r="A8" s="76" t="s">
+        <v>641</v>
+      </c>
+      <c r="B8">
+        <v>141</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>640</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>639</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>635</v>
+      </c>
+      <c r="F8" s="3">
+        <v>43960</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>638</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="I8" s="76" t="s">
+        <v>642</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
     <hyperlink ref="H2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="H8" r:id="rId4" xr:uid="{D1607FEA-B27D-4FA1-BD81-B61930D53AC3}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{279C682E-B578-4215-ABA1-83F11D135776}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6830,18 +6942,18 @@
       <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" style="17" customWidth="1"/>
     <col min="2" max="2" width="7" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="17" customWidth="1"/>
     <col min="4" max="4" width="8" style="17" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="17"/>
-    <col min="7" max="8" width="19.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="5" max="6" width="9.125" style="17"/>
+    <col min="7" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
+    <row r="1" spans="1:11" ht="18.75">
       <c r="A1" s="18" t="s">
         <v>275</v>
       </c>
@@ -24654,13 +24766,14 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"已还,未还"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24672,11 +24785,11 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="19" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -25122,6 +25235,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -25136,11 +25250,11 @@
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="61.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="28.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="61.875" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
@@ -25839,7 +25953,7 @@
       </c>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" ht="15.6">
+    <row r="67" spans="1:4" ht="14.25">
       <c r="A67" s="7">
         <v>40704</v>
       </c>
@@ -25851,7 +25965,7 @@
       </c>
       <c r="D67" s="8"/>
     </row>
-    <row r="68" spans="1:4" ht="15.6">
+    <row r="68" spans="1:4" ht="14.25">
       <c r="A68" s="7"/>
       <c r="B68" s="11" t="s">
         <v>466</v>
@@ -26037,7 +26151,7 @@
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
     </row>
-    <row r="85" spans="1:4" ht="15.6">
+    <row r="85" spans="1:4" ht="14.25">
       <c r="A85" s="7">
         <v>40521</v>
       </c>
@@ -26124,6 +26238,7 @@
       <c r="D92" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B85" r:id="rId1" tooltip="操作系统：精髓与设计原理（第五版）——国外计算机科学教材系列" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
@@ -26140,13 +26255,13 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -26456,6 +26571,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"ongoing, not start, finish"</formula1>

--- a/myprogarm/excel/record.xlsx
+++ b/myprogarm/excel/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\example\myprogarm\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE076C03-BB94-424F-9662-B4F67C9A8CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DCD6F9-B9AA-44A2-BCDD-A0B18BFE0D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="615" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="账户" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="647">
   <si>
     <t>zhibo8.com</t>
   </si>
@@ -2064,6 +2064,22 @@
   </si>
   <si>
     <t>Chu123</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京银行</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用社</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈菲保险  南京银行</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京银行， 生活费</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2199,7 +2215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2420,6 +2436,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2428,7 +2455,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2598,6 +2625,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2954,7 +2984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+    <sheetView topLeftCell="A101" workbookViewId="0">
       <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
@@ -5875,10 +5905,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6648,6 +6678,50 @@
         <v>246</v>
       </c>
     </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3">
+        <v>43881</v>
+      </c>
+      <c r="B34" s="78">
+        <v>10000</v>
+      </c>
+      <c r="F34" s="79" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3">
+        <v>43935</v>
+      </c>
+      <c r="C35">
+        <v>8000</v>
+      </c>
+      <c r="F35" s="68" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3">
+        <v>43955</v>
+      </c>
+      <c r="C36">
+        <v>15000</v>
+      </c>
+      <c r="F36" s="77" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3">
+        <v>43958</v>
+      </c>
+      <c r="B37">
+        <v>10000</v>
+      </c>
+      <c r="F37" s="77" t="s">
+        <v>645</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:G1"/>
@@ -6665,12 +6739,12 @@
   <dimension ref="A3:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
@@ -6738,7 +6812,7 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6747,7 +6821,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6939,7 +7013,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -24781,7 +24855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -26252,7 +26326,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/myprogarm/excel/record.xlsx
+++ b/myprogarm/excel/record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\example\myprogarm\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C950A1DD-AB80-429D-9953-E918742EAB6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864D383A-DE85-4894-B74C-C70394A087B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22128" windowHeight="13176" tabRatio="615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="账户" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="639">
   <si>
     <t>zhibo8.com</t>
   </si>
@@ -2024,13 +2024,25 @@
   <si>
     <t>哈密瓜</t>
   </si>
+  <si>
+    <t>6月利息</t>
+  </si>
+  <si>
+    <t>安装空调</t>
+  </si>
+  <si>
+    <t>南京银行借款()</t>
+  </si>
+  <si>
+    <t>alteryx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -2133,7 +2145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2354,6 +2366,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2362,7 +2385,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2437,7 +2460,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2495,6 +2518,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2518,18 +2556,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2885,9 +2911,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
       <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
@@ -4368,6 +4394,17 @@
       </c>
       <c r="D134">
         <v>150</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="16.2">
+      <c r="A135" t="s">
+        <v>638</v>
+      </c>
+      <c r="B135" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4396,10 +4433,11 @@
     <hyperlink ref="C64" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="B133" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="B100" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B135" r:id="rId25" xr:uid="{2762F6FD-136B-48D5-9C21-2E4BB044F25B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId25"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -4407,7 +4445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FCE186-7079-4EBA-A603-35D06D68A497}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -4417,1386 +4455,1386 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="64" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="72" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="64" t="s">
         <v>525</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="64" t="s">
         <v>526</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="64" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A2" s="74">
+      <c r="A2" s="66">
         <v>44068</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="64" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="73">
+      <c r="C2" s="65">
         <v>3660</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A3" s="74">
+      <c r="A3" s="66">
         <v>44072</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="64" t="s">
         <v>529</v>
       </c>
-      <c r="C3" s="73">
+      <c r="C3" s="65">
         <v>6905</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="65"/>
     </row>
     <row r="4" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
     </row>
     <row r="5" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A5" s="74">
+      <c r="A5" s="66">
         <v>44073</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="64" t="s">
         <v>531</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="65">
         <v>120</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73" t="s">
+      <c r="D5" s="65"/>
+      <c r="E5" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="64" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="65">
         <v>382</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="64" t="s">
         <v>534</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F6" s="73"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72" t="s">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64" t="s">
         <v>535</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="65">
         <v>385</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73" t="s">
+      <c r="D7" s="65"/>
+      <c r="E7" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F7" s="73"/>
+      <c r="F7" s="65"/>
     </row>
     <row r="8" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A8" s="74">
+      <c r="A8" s="66">
         <v>44074</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="65">
         <v>90</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73" t="s">
+      <c r="D8" s="65"/>
+      <c r="E8" s="65" t="s">
         <v>537</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="64" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="72" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="64" t="s">
         <v>539</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="65">
         <v>521</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73" t="s">
+      <c r="D9" s="65"/>
+      <c r="E9" s="65" t="s">
         <v>537</v>
       </c>
-      <c r="F9" s="73"/>
+      <c r="F9" s="65"/>
     </row>
     <row r="10" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A10" s="73"/>
-      <c r="B10" s="72" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="65">
         <v>110</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73" t="s">
+      <c r="D10" s="65"/>
+      <c r="E10" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F10" s="73"/>
+      <c r="F10" s="65"/>
     </row>
     <row r="11" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="72" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="65" t="s">
         <v>542</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73" t="s">
+      <c r="D11" s="65"/>
+      <c r="E11" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F11" s="73"/>
+      <c r="F11" s="65"/>
     </row>
     <row r="12" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A12" s="73"/>
-      <c r="B12" s="72" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="65">
         <v>110</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73" t="s">
+      <c r="D12" s="65"/>
+      <c r="E12" s="65" t="s">
         <v>537</v>
       </c>
-      <c r="F12" s="73"/>
+      <c r="F12" s="65"/>
     </row>
     <row r="13" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="72" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="65">
         <v>339</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="64" t="s">
         <v>545</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F13" s="73"/>
+      <c r="F13" s="65"/>
     </row>
     <row r="14" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A14" s="73"/>
-      <c r="B14" s="72" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="64" t="s">
         <v>547</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="65">
         <v>4164</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73" t="s">
+      <c r="D14" s="65"/>
+      <c r="E14" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F14" s="73"/>
+      <c r="F14" s="65"/>
     </row>
     <row r="15" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A15" s="75">
+      <c r="A15" s="67">
         <v>44075</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="65">
         <v>30</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73" t="s">
+      <c r="D15" s="65"/>
+      <c r="E15" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="64" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A16" s="73"/>
-      <c r="B16" s="72" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="64" t="s">
         <v>549</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="65">
         <v>90</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73" t="s">
+      <c r="D16" s="65"/>
+      <c r="E16" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F16" s="73"/>
+      <c r="F16" s="65"/>
     </row>
     <row r="17" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A17" s="73"/>
-      <c r="B17" s="72" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="64" t="s">
         <v>550</v>
       </c>
-      <c r="C17" s="73">
+      <c r="C17" s="65">
         <v>210</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73" t="s">
+      <c r="D17" s="65"/>
+      <c r="E17" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F17" s="73"/>
+      <c r="F17" s="65"/>
     </row>
     <row r="18" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A18" s="73"/>
-      <c r="B18" s="72" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="65">
         <v>300</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F18" s="73"/>
+      <c r="F18" s="65"/>
     </row>
     <row r="19" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A19" s="73"/>
-      <c r="B19" s="72" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="65">
         <v>116</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="64" t="s">
         <v>552</v>
       </c>
-      <c r="E19" s="73" t="s">
+      <c r="E19" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F19" s="73"/>
+      <c r="F19" s="65"/>
     </row>
     <row r="20" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A20" s="75">
+      <c r="A20" s="67">
         <v>44076</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="65">
         <v>60</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="64" t="s">
         <v>553</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="64" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A21" s="73"/>
-      <c r="B21" s="72" t="s">
+      <c r="A21" s="65"/>
+      <c r="B21" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="65">
         <v>310</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73" t="s">
+      <c r="D21" s="65"/>
+      <c r="E21" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F21" s="73"/>
+      <c r="F21" s="65"/>
     </row>
     <row r="22" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A22" s="73"/>
-      <c r="B22" s="72" t="s">
+      <c r="A22" s="65"/>
+      <c r="B22" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="65">
         <v>15</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73" t="s">
+      <c r="D22" s="65"/>
+      <c r="E22" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F22" s="73"/>
+      <c r="F22" s="65"/>
     </row>
     <row r="23" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A23" s="73"/>
-      <c r="B23" s="72" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C23" s="73">
+      <c r="C23" s="65">
         <v>376</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="65"/>
     </row>
     <row r="24" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A24" s="73"/>
-      <c r="B24" s="72" t="s">
+      <c r="A24" s="65"/>
+      <c r="B24" s="64" t="s">
         <v>556</v>
       </c>
-      <c r="C24" s="73">
+      <c r="C24" s="65">
         <v>57</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73" t="s">
+      <c r="D24" s="65"/>
+      <c r="E24" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F24" s="73"/>
+      <c r="F24" s="65"/>
     </row>
     <row r="25" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A25" s="73"/>
-      <c r="B25" s="72" t="s">
+      <c r="A25" s="65"/>
+      <c r="B25" s="64" t="s">
         <v>531</v>
       </c>
-      <c r="C25" s="73">
+      <c r="C25" s="65">
         <v>18</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73" t="s">
+      <c r="D25" s="65"/>
+      <c r="E25" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F25" s="73"/>
+      <c r="F25" s="65"/>
     </row>
     <row r="26" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A26" s="75">
+      <c r="A26" s="67">
         <v>44077</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C26" s="73">
+      <c r="C26" s="65">
         <v>75</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="64" t="s">
         <v>557</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="64" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A27" s="73"/>
-      <c r="B27" s="72" t="s">
+      <c r="A27" s="65"/>
+      <c r="B27" s="64" t="s">
         <v>559</v>
       </c>
-      <c r="C27" s="73">
+      <c r="C27" s="65">
         <v>20</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73" t="s">
+      <c r="D27" s="65"/>
+      <c r="E27" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F27" s="73"/>
+      <c r="F27" s="65"/>
     </row>
     <row r="28" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A28" s="73"/>
-      <c r="B28" s="72" t="s">
+      <c r="A28" s="65"/>
+      <c r="B28" s="64" t="s">
         <v>560</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="65">
         <v>135</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73" t="s">
+      <c r="D28" s="65"/>
+      <c r="E28" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F28" s="73"/>
+      <c r="F28" s="65"/>
     </row>
     <row r="29" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A29" s="73"/>
-      <c r="B29" s="72" t="s">
+      <c r="A29" s="65"/>
+      <c r="B29" s="64" t="s">
         <v>561</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="65" t="s">
         <v>562</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73" t="s">
+      <c r="D29" s="65"/>
+      <c r="E29" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F29" s="73"/>
+      <c r="F29" s="65"/>
     </row>
     <row r="30" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A30" s="73"/>
-      <c r="B30" s="72" t="s">
+      <c r="A30" s="65"/>
+      <c r="B30" s="64" t="s">
         <v>563</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="65">
         <v>8</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
     </row>
     <row r="31" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A31" s="73"/>
-      <c r="B31" s="72" t="s">
+      <c r="A31" s="65"/>
+      <c r="B31" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="65" t="s">
         <v>564</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73" t="s">
+      <c r="D31" s="65"/>
+      <c r="E31" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F31" s="73"/>
+      <c r="F31" s="65"/>
     </row>
     <row r="32" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A32" s="73"/>
-      <c r="B32" s="72" t="s">
+      <c r="A32" s="65"/>
+      <c r="B32" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="65">
         <v>298</v>
       </c>
-      <c r="D32" s="72" t="s">
+      <c r="D32" s="64" t="s">
         <v>565</v>
       </c>
-      <c r="E32" s="73" t="s">
+      <c r="E32" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F32" s="73"/>
+      <c r="F32" s="65"/>
     </row>
     <row r="33" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A33" s="73"/>
-      <c r="B33" s="72" t="s">
+      <c r="A33" s="65"/>
+      <c r="B33" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C33" s="73">
+      <c r="C33" s="65">
         <v>190</v>
       </c>
-      <c r="D33" s="72" t="s">
+      <c r="D33" s="64" t="s">
         <v>566</v>
       </c>
-      <c r="E33" s="73" t="s">
+      <c r="E33" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F33" s="73"/>
+      <c r="F33" s="65"/>
     </row>
     <row r="34" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A34" s="75">
+      <c r="A34" s="67">
         <v>44078</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C34" s="73">
+      <c r="C34" s="65">
         <v>170</v>
       </c>
-      <c r="D34" s="72" t="s">
+      <c r="D34" s="64" t="s">
         <v>567</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="F34" s="72" t="s">
+      <c r="F34" s="64" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A35" s="73"/>
-      <c r="B35" s="72" t="s">
+      <c r="A35" s="65"/>
+      <c r="B35" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="65" t="s">
         <v>569</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73" t="s">
+      <c r="D35" s="65"/>
+      <c r="E35" s="65" t="s">
         <v>570</v>
       </c>
-      <c r="F35" s="73"/>
+      <c r="F35" s="65"/>
     </row>
     <row r="36" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A36" s="73"/>
-      <c r="B36" s="72" t="s">
+      <c r="A36" s="65"/>
+      <c r="B36" s="64" t="s">
         <v>571</v>
       </c>
-      <c r="C36" s="73">
+      <c r="C36" s="65">
         <v>210</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73" t="s">
+      <c r="D36" s="65"/>
+      <c r="E36" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F36" s="73"/>
+      <c r="F36" s="65"/>
     </row>
     <row r="37" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A37" s="73"/>
-      <c r="B37" s="72" t="s">
+      <c r="A37" s="65"/>
+      <c r="B37" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C37" s="73">
+      <c r="C37" s="65">
         <v>149</v>
       </c>
-      <c r="D37" s="72" t="s">
+      <c r="D37" s="64" t="s">
         <v>572</v>
       </c>
-      <c r="E37" s="73" t="s">
+      <c r="E37" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F37" s="73"/>
+      <c r="F37" s="65"/>
     </row>
     <row r="38" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A38" s="73"/>
-      <c r="B38" s="72" t="s">
+      <c r="A38" s="65"/>
+      <c r="B38" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C38" s="73">
+      <c r="C38" s="65">
         <v>240</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="64" t="s">
         <v>573</v>
       </c>
-      <c r="E38" s="73" t="s">
+      <c r="E38" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F38" s="73"/>
+      <c r="F38" s="65"/>
     </row>
     <row r="39" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A39" s="75">
+      <c r="A39" s="67">
         <v>44079</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C39" s="73">
+      <c r="C39" s="65">
         <v>78</v>
       </c>
-      <c r="D39" s="72" t="s">
+      <c r="D39" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="E39" s="73"/>
-      <c r="F39" s="72" t="s">
+      <c r="E39" s="65"/>
+      <c r="F39" s="64" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A40" s="73"/>
-      <c r="B40" s="72" t="s">
+      <c r="A40" s="65"/>
+      <c r="B40" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="C40" s="73">
+      <c r="C40" s="65">
         <v>325</v>
       </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="73" t="s">
+      <c r="D40" s="64"/>
+      <c r="E40" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F40" s="73"/>
+      <c r="F40" s="65"/>
     </row>
     <row r="41" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A41" s="73"/>
-      <c r="B41" s="72" t="s">
+      <c r="A41" s="65"/>
+      <c r="B41" s="64" t="s">
         <v>576</v>
       </c>
-      <c r="C41" s="73">
+      <c r="C41" s="65">
         <v>86</v>
       </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="73" t="s">
+      <c r="D41" s="64"/>
+      <c r="E41" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F41" s="73"/>
+      <c r="F41" s="65"/>
     </row>
     <row r="42" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A42" s="73"/>
-      <c r="B42" s="72" t="s">
+      <c r="A42" s="65"/>
+      <c r="B42" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C42" s="73">
+      <c r="C42" s="65">
         <v>16</v>
       </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="73" t="s">
+      <c r="D42" s="64"/>
+      <c r="E42" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F42" s="73"/>
+      <c r="F42" s="65"/>
     </row>
     <row r="43" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A43" s="73"/>
-      <c r="B43" s="72" t="s">
+      <c r="A43" s="65"/>
+      <c r="B43" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C43" s="73">
+      <c r="C43" s="65">
         <v>270</v>
       </c>
-      <c r="D43" s="72" t="s">
+      <c r="D43" s="64" t="s">
         <v>577</v>
       </c>
-      <c r="E43" s="73" t="s">
+      <c r="E43" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F43" s="73"/>
+      <c r="F43" s="65"/>
     </row>
     <row r="44" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A44" s="73"/>
-      <c r="B44" s="72" t="s">
+      <c r="A44" s="65"/>
+      <c r="B44" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C44" s="73">
+      <c r="C44" s="65">
         <v>150</v>
       </c>
-      <c r="D44" s="72" t="s">
+      <c r="D44" s="64" t="s">
         <v>578</v>
       </c>
-      <c r="E44" s="73" t="s">
+      <c r="E44" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F44" s="73"/>
+      <c r="F44" s="65"/>
     </row>
     <row r="45" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A45" s="75">
+      <c r="A45" s="67">
         <v>44080</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C45" s="73">
+      <c r="C45" s="65">
         <v>126</v>
       </c>
-      <c r="D45" s="72" t="s">
+      <c r="D45" s="64" t="s">
         <v>579</v>
       </c>
-      <c r="E45" s="73" t="s">
+      <c r="E45" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F45" s="72" t="s">
+      <c r="F45" s="64" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A46" s="73"/>
-      <c r="B46" s="72" t="s">
+      <c r="A46" s="65"/>
+      <c r="B46" s="64" t="s">
         <v>581</v>
       </c>
-      <c r="C46" s="73">
+      <c r="C46" s="65">
         <v>22</v>
       </c>
-      <c r="D46" s="72"/>
-      <c r="E46" s="73" t="s">
+      <c r="D46" s="64"/>
+      <c r="E46" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F46" s="73"/>
+      <c r="F46" s="65"/>
     </row>
     <row r="47" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A47" s="73"/>
-      <c r="B47" s="72" t="s">
+      <c r="A47" s="65"/>
+      <c r="B47" s="64" t="s">
         <v>582</v>
       </c>
-      <c r="C47" s="73">
+      <c r="C47" s="65">
         <v>30</v>
       </c>
-      <c r="D47" s="72" t="s">
+      <c r="D47" s="64" t="s">
         <v>583</v>
       </c>
-      <c r="E47" s="73" t="s">
+      <c r="E47" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F47" s="73"/>
+      <c r="F47" s="65"/>
     </row>
     <row r="48" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A48" s="73"/>
-      <c r="B48" s="72" t="s">
+      <c r="A48" s="65"/>
+      <c r="B48" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C48" s="73" t="s">
+      <c r="C48" s="65" t="s">
         <v>584</v>
       </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="73" t="s">
+      <c r="D48" s="64"/>
+      <c r="E48" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F48" s="73"/>
+      <c r="F48" s="65"/>
     </row>
     <row r="49" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A49" s="73"/>
-      <c r="B49" s="72" t="s">
+      <c r="A49" s="65"/>
+      <c r="B49" s="64" t="s">
         <v>585</v>
       </c>
-      <c r="C49" s="73">
+      <c r="C49" s="65">
         <v>90</v>
       </c>
-      <c r="D49" s="72" t="s">
+      <c r="D49" s="64" t="s">
         <v>586</v>
       </c>
-      <c r="E49" s="73" t="s">
+      <c r="E49" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F49" s="73"/>
+      <c r="F49" s="65"/>
     </row>
     <row r="50" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A50" s="73"/>
-      <c r="B50" s="72" t="s">
+      <c r="A50" s="65"/>
+      <c r="B50" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C50" s="73">
+      <c r="C50" s="65">
         <v>336</v>
       </c>
-      <c r="D50" s="72" t="s">
+      <c r="D50" s="64" t="s">
         <v>587</v>
       </c>
-      <c r="E50" s="73" t="s">
+      <c r="E50" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F50" s="73"/>
+      <c r="F50" s="65"/>
     </row>
     <row r="51" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A51" s="73"/>
-      <c r="B51" s="72" t="s">
+      <c r="A51" s="65"/>
+      <c r="B51" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C51" s="73">
+      <c r="C51" s="65">
         <v>150</v>
       </c>
-      <c r="D51" s="72" t="s">
+      <c r="D51" s="64" t="s">
         <v>588</v>
       </c>
-      <c r="E51" s="73" t="s">
+      <c r="E51" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F51" s="73"/>
+      <c r="F51" s="65"/>
     </row>
     <row r="52" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A52" s="75">
+      <c r="A52" s="67">
         <v>44081</v>
       </c>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C52" s="73">
+      <c r="C52" s="65">
         <v>208</v>
       </c>
-      <c r="D52" s="72" t="s">
+      <c r="D52" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="E52" s="73" t="s">
+      <c r="E52" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F52" s="72" t="s">
+      <c r="F52" s="64" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A53" s="73"/>
-      <c r="B53" s="72" t="s">
+      <c r="A53" s="65"/>
+      <c r="B53" s="64" t="s">
         <v>591</v>
       </c>
-      <c r="C53" s="73">
+      <c r="C53" s="65">
         <v>240</v>
       </c>
-      <c r="D53" s="72"/>
-      <c r="E53" s="73" t="s">
+      <c r="D53" s="64"/>
+      <c r="E53" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F53" s="73"/>
+      <c r="F53" s="65"/>
     </row>
     <row r="54" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A54" s="73"/>
-      <c r="B54" s="72" t="s">
+      <c r="A54" s="65"/>
+      <c r="B54" s="64" t="s">
         <v>592</v>
       </c>
-      <c r="C54" s="73">
+      <c r="C54" s="65">
         <v>2</v>
       </c>
-      <c r="D54" s="72"/>
-      <c r="E54" s="73" t="s">
+      <c r="D54" s="64"/>
+      <c r="E54" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F54" s="73"/>
+      <c r="F54" s="65"/>
     </row>
     <row r="55" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A55" s="73"/>
-      <c r="B55" s="72" t="s">
+      <c r="A55" s="65"/>
+      <c r="B55" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C55" s="73" t="s">
+      <c r="C55" s="65" t="s">
         <v>593</v>
       </c>
-      <c r="D55" s="72"/>
-      <c r="E55" s="73" t="s">
+      <c r="D55" s="64"/>
+      <c r="E55" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F55" s="73"/>
+      <c r="F55" s="65"/>
     </row>
     <row r="56" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A56" s="73"/>
-      <c r="B56" s="72" t="s">
+      <c r="A56" s="65"/>
+      <c r="B56" s="64" t="s">
         <v>594</v>
       </c>
-      <c r="C56" s="73">
+      <c r="C56" s="65">
         <v>435</v>
       </c>
-      <c r="D56" s="72"/>
-      <c r="E56" s="73" t="s">
+      <c r="D56" s="64"/>
+      <c r="E56" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F56" s="73"/>
+      <c r="F56" s="65"/>
     </row>
     <row r="57" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A57" s="73"/>
-      <c r="B57" s="72" t="s">
+      <c r="A57" s="65"/>
+      <c r="B57" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C57" s="73">
+      <c r="C57" s="65">
         <v>350</v>
       </c>
-      <c r="D57" s="72" t="s">
+      <c r="D57" s="64" t="s">
         <v>595</v>
       </c>
-      <c r="E57" s="73" t="s">
+      <c r="E57" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F57" s="73"/>
+      <c r="F57" s="65"/>
     </row>
     <row r="58" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A58" s="73"/>
-      <c r="B58" s="72" t="s">
+      <c r="A58" s="65"/>
+      <c r="B58" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="C58" s="73">
+      <c r="C58" s="65">
         <v>100</v>
       </c>
-      <c r="D58" s="72" t="s">
+      <c r="D58" s="64" t="s">
         <v>597</v>
       </c>
-      <c r="E58" s="73" t="s">
+      <c r="E58" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F58" s="73"/>
+      <c r="F58" s="65"/>
     </row>
     <row r="59" spans="1:6" ht="46.2" thickBot="1">
-      <c r="A59" s="75">
+      <c r="A59" s="67">
         <v>44082</v>
       </c>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="64" t="s">
         <v>598</v>
       </c>
-      <c r="C59" s="73">
+      <c r="C59" s="65">
         <v>82</v>
       </c>
-      <c r="D59" s="72"/>
-      <c r="E59" s="73" t="s">
+      <c r="D59" s="64"/>
+      <c r="E59" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F59" s="73" t="s">
+      <c r="F59" s="65" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="43.8" thickBot="1">
-      <c r="A60" s="73"/>
-      <c r="B60" s="72" t="s">
+      <c r="A60" s="65"/>
+      <c r="B60" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C60" s="73" t="s">
+      <c r="C60" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="D60" s="72"/>
-      <c r="E60" s="73" t="s">
+      <c r="D60" s="64"/>
+      <c r="E60" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F60" s="73"/>
+      <c r="F60" s="65"/>
     </row>
     <row r="61" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A61" s="73"/>
-      <c r="B61" s="72" t="s">
+      <c r="A61" s="65"/>
+      <c r="B61" s="64" t="s">
         <v>601</v>
       </c>
-      <c r="C61" s="73">
+      <c r="C61" s="65">
         <v>186</v>
       </c>
-      <c r="D61" s="72" t="s">
+      <c r="D61" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="E61" s="73" t="s">
+      <c r="E61" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F61" s="73"/>
+      <c r="F61" s="65"/>
     </row>
     <row r="62" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A62" s="73"/>
-      <c r="B62" s="72" t="s">
+      <c r="A62" s="65"/>
+      <c r="B62" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C62" s="73">
+      <c r="C62" s="65">
         <v>420</v>
       </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="73" t="s">
+      <c r="D62" s="64"/>
+      <c r="E62" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F62" s="73"/>
+      <c r="F62" s="65"/>
     </row>
     <row r="63" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A63" s="73"/>
-      <c r="B63" s="72" t="s">
+      <c r="A63" s="65"/>
+      <c r="B63" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="C63" s="73">
+      <c r="C63" s="65">
         <v>300</v>
       </c>
-      <c r="D63" s="72" t="s">
+      <c r="D63" s="64" t="s">
         <v>603</v>
       </c>
-      <c r="E63" s="73" t="s">
+      <c r="E63" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F63" s="73"/>
+      <c r="F63" s="65"/>
     </row>
     <row r="64" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A64" s="73"/>
-      <c r="B64" s="72" t="s">
+      <c r="A64" s="65"/>
+      <c r="B64" s="64" t="s">
         <v>604</v>
       </c>
-      <c r="C64" s="73"/>
-      <c r="D64" s="72" t="s">
+      <c r="C64" s="65"/>
+      <c r="D64" s="64" t="s">
         <v>605</v>
       </c>
-      <c r="E64" s="73" t="s">
+      <c r="E64" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F64" s="73"/>
+      <c r="F64" s="65"/>
     </row>
     <row r="65" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A65" s="75">
+      <c r="A65" s="67">
         <v>44083</v>
       </c>
-      <c r="B65" s="72" t="s">
+      <c r="B65" s="64" t="s">
         <v>606</v>
       </c>
-      <c r="C65" s="73">
+      <c r="C65" s="65">
         <v>185</v>
       </c>
-      <c r="D65" s="72" t="s">
+      <c r="D65" s="64" t="s">
         <v>607</v>
       </c>
-      <c r="E65" s="73" t="s">
+      <c r="E65" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F65" s="72" t="s">
+      <c r="F65" s="64" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A66" s="73"/>
-      <c r="B66" s="72" t="s">
+      <c r="A66" s="65"/>
+      <c r="B66" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="C66" s="73">
+      <c r="C66" s="65">
         <v>380</v>
       </c>
-      <c r="D66" s="72" t="s">
+      <c r="D66" s="64" t="s">
         <v>609</v>
       </c>
-      <c r="E66" s="73" t="s">
+      <c r="E66" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F66" s="73"/>
+      <c r="F66" s="65"/>
     </row>
     <row r="67" spans="1:6" ht="63" thickBot="1">
-      <c r="A67" s="73"/>
-      <c r="B67" s="72" t="s">
+      <c r="A67" s="65"/>
+      <c r="B67" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C67" s="73">
+      <c r="C67" s="65">
         <v>580</v>
       </c>
-      <c r="D67" s="72" t="s">
+      <c r="D67" s="64" t="s">
         <v>610</v>
       </c>
-      <c r="E67" s="73" t="s">
+      <c r="E67" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F67" s="73"/>
+      <c r="F67" s="65"/>
     </row>
     <row r="68" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A68" s="73"/>
-      <c r="B68" s="72" t="s">
+      <c r="A68" s="65"/>
+      <c r="B68" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="C68" s="73">
+      <c r="C68" s="65">
         <v>110</v>
       </c>
-      <c r="D68" s="72" t="s">
+      <c r="D68" s="64" t="s">
         <v>611</v>
       </c>
-      <c r="E68" s="73" t="s">
+      <c r="E68" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F68" s="73"/>
+      <c r="F68" s="65"/>
     </row>
     <row r="69" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A69" s="73"/>
-      <c r="B69" s="72" t="s">
+      <c r="A69" s="65"/>
+      <c r="B69" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="C69" s="73">
+      <c r="C69" s="65">
         <v>15</v>
       </c>
-      <c r="D69" s="72" t="s">
+      <c r="D69" s="64" t="s">
         <v>613</v>
       </c>
-      <c r="E69" s="73" t="s">
+      <c r="E69" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F69" s="73"/>
+      <c r="F69" s="65"/>
     </row>
     <row r="70" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A70" s="75">
+      <c r="A70" s="67">
         <v>44084</v>
       </c>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C70" s="73"/>
-      <c r="D70" s="72" t="s">
+      <c r="C70" s="65"/>
+      <c r="D70" s="64" t="s">
         <v>614</v>
       </c>
-      <c r="E70" s="73" t="s">
+      <c r="E70" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F70" s="72" t="s">
+      <c r="F70" s="64" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A71" s="73"/>
-      <c r="B71" s="72" t="s">
+      <c r="A71" s="65"/>
+      <c r="B71" s="64" t="s">
         <v>616</v>
       </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="72" t="s">
+      <c r="C71" s="65"/>
+      <c r="D71" s="64" t="s">
         <v>586</v>
       </c>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
     </row>
     <row r="72" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A72" s="73"/>
-      <c r="B72" s="72" t="s">
+      <c r="A72" s="65"/>
+      <c r="B72" s="64" t="s">
         <v>617</v>
       </c>
-      <c r="C72" s="73">
+      <c r="C72" s="65">
         <v>60</v>
       </c>
-      <c r="D72" s="72" t="s">
+      <c r="D72" s="64" t="s">
         <v>618</v>
       </c>
-      <c r="E72" s="73" t="s">
+      <c r="E72" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F72" s="73"/>
+      <c r="F72" s="65"/>
     </row>
     <row r="73" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A73" s="73"/>
-      <c r="B73" s="72" t="s">
+      <c r="A73" s="65"/>
+      <c r="B73" s="64" t="s">
         <v>619</v>
       </c>
-      <c r="C73" s="73">
+      <c r="C73" s="65">
         <v>150</v>
       </c>
-      <c r="D73" s="72"/>
-      <c r="E73" s="73" t="s">
+      <c r="D73" s="64"/>
+      <c r="E73" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F73" s="73"/>
+      <c r="F73" s="65"/>
     </row>
     <row r="74" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A74" s="73"/>
-      <c r="B74" s="72" t="s">
+      <c r="A74" s="65"/>
+      <c r="B74" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C74" s="73">
+      <c r="C74" s="65">
         <v>512</v>
       </c>
-      <c r="D74" s="72"/>
-      <c r="E74" s="73" t="s">
+      <c r="D74" s="64"/>
+      <c r="E74" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F74" s="73"/>
+      <c r="F74" s="65"/>
     </row>
     <row r="75" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A75" s="73"/>
-      <c r="B75" s="72" t="s">
+      <c r="A75" s="65"/>
+      <c r="B75" s="64" t="s">
         <v>620</v>
       </c>
-      <c r="C75" s="73">
+      <c r="C75" s="65">
         <v>306</v>
       </c>
-      <c r="D75" s="72"/>
-      <c r="E75" s="73" t="s">
+      <c r="D75" s="64"/>
+      <c r="E75" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F75" s="73"/>
+      <c r="F75" s="65"/>
     </row>
     <row r="76" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A76" s="73"/>
-      <c r="B76" s="72" t="s">
+      <c r="A76" s="65"/>
+      <c r="B76" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="C76" s="73">
+      <c r="C76" s="65">
         <v>170</v>
       </c>
-      <c r="D76" s="72"/>
-      <c r="E76" s="73" t="s">
+      <c r="D76" s="64"/>
+      <c r="E76" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F76" s="73"/>
+      <c r="F76" s="65"/>
     </row>
     <row r="77" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A77" s="73"/>
-      <c r="B77" s="72" t="s">
+      <c r="A77" s="65"/>
+      <c r="B77" s="64" t="s">
         <v>621</v>
       </c>
-      <c r="C77" s="73">
+      <c r="C77" s="65">
         <v>140</v>
       </c>
-      <c r="D77" s="72"/>
-      <c r="E77" s="73" t="s">
+      <c r="D77" s="64"/>
+      <c r="E77" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F77" s="73"/>
+      <c r="F77" s="65"/>
     </row>
     <row r="78" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A78" s="73"/>
-      <c r="B78" s="72" t="s">
+      <c r="A78" s="65"/>
+      <c r="B78" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="C78" s="73">
+      <c r="C78" s="65">
         <v>27</v>
       </c>
-      <c r="D78" s="72" t="s">
+      <c r="D78" s="64" t="s">
         <v>622</v>
       </c>
-      <c r="E78" s="73" t="s">
+      <c r="E78" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F78" s="73"/>
+      <c r="F78" s="65"/>
     </row>
     <row r="79" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A79" s="75">
+      <c r="A79" s="67">
         <v>44085</v>
       </c>
-      <c r="B79" s="72"/>
-      <c r="C79" s="73"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="72" t="s">
+      <c r="B79" s="64"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="64" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A80" s="73"/>
-      <c r="B80" s="72" t="s">
+      <c r="A80" s="65"/>
+      <c r="B80" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C80" s="73">
+      <c r="C80" s="65">
         <v>282</v>
       </c>
-      <c r="D80" s="72" t="s">
+      <c r="D80" s="64" t="s">
         <v>624</v>
       </c>
-      <c r="E80" s="73" t="s">
+      <c r="E80" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F80" s="73"/>
+      <c r="F80" s="65"/>
     </row>
     <row r="81" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A81" s="73"/>
-      <c r="B81" s="72" t="s">
+      <c r="A81" s="65"/>
+      <c r="B81" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C81" s="73" t="s">
+      <c r="C81" s="65" t="s">
         <v>625</v>
       </c>
-      <c r="D81" s="72"/>
-      <c r="E81" s="73" t="s">
+      <c r="D81" s="64"/>
+      <c r="E81" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F81" s="73"/>
+      <c r="F81" s="65"/>
     </row>
     <row r="82" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A82" s="73"/>
-      <c r="B82" s="72" t="s">
+      <c r="A82" s="65"/>
+      <c r="B82" s="64" t="s">
         <v>592</v>
       </c>
-      <c r="C82" s="73">
+      <c r="C82" s="65">
         <v>10</v>
       </c>
-      <c r="D82" s="72"/>
-      <c r="E82" s="73" t="s">
+      <c r="D82" s="64"/>
+      <c r="E82" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F82" s="73"/>
+      <c r="F82" s="65"/>
     </row>
     <row r="83" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A83" s="73"/>
-      <c r="B83" s="72" t="s">
+      <c r="A83" s="65"/>
+      <c r="B83" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C83" s="73">
+      <c r="C83" s="65">
         <v>304</v>
       </c>
-      <c r="D83" s="72" t="s">
+      <c r="D83" s="64" t="s">
         <v>626</v>
       </c>
-      <c r="E83" s="73" t="s">
+      <c r="E83" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F83" s="73"/>
+      <c r="F83" s="65"/>
     </row>
     <row r="84" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A84" s="75">
+      <c r="A84" s="67">
         <v>44086</v>
       </c>
-      <c r="B84" s="72" t="s">
+      <c r="B84" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C84" s="73">
+      <c r="C84" s="65">
         <v>84</v>
       </c>
-      <c r="D84" s="72" t="s">
+      <c r="D84" s="64" t="s">
         <v>627</v>
       </c>
-      <c r="E84" s="73" t="s">
+      <c r="E84" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F84" s="72" t="s">
+      <c r="F84" s="64" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A85" s="73"/>
-      <c r="B85" s="72" t="s">
+      <c r="A85" s="65"/>
+      <c r="B85" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C85" s="73" t="s">
+      <c r="C85" s="65" t="s">
         <v>628</v>
       </c>
-      <c r="D85" s="72" t="s">
+      <c r="D85" s="64" t="s">
         <v>629</v>
       </c>
-      <c r="E85" s="73" t="s">
+      <c r="E85" s="65" t="s">
         <v>537</v>
       </c>
-      <c r="F85" s="73"/>
+      <c r="F85" s="65"/>
     </row>
     <row r="86" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A86" s="73"/>
-      <c r="B86" s="72" t="s">
+      <c r="A86" s="65"/>
+      <c r="B86" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C86" s="73">
+      <c r="C86" s="65">
         <v>20</v>
       </c>
-      <c r="D86" s="72" t="s">
+      <c r="D86" s="64" t="s">
         <v>630</v>
       </c>
-      <c r="E86" s="73" t="s">
+      <c r="E86" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="F86" s="73"/>
+      <c r="F86" s="65"/>
     </row>
     <row r="87" spans="1:6" ht="47.4" thickBot="1">
-      <c r="A87" s="73"/>
-      <c r="B87" s="72" t="s">
+      <c r="A87" s="65"/>
+      <c r="B87" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C87" s="73">
+      <c r="C87" s="65">
         <v>376</v>
       </c>
-      <c r="D87" s="72" t="s">
+      <c r="D87" s="64" t="s">
         <v>631</v>
       </c>
-      <c r="E87" s="73" t="s">
+      <c r="E87" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F87" s="73"/>
+      <c r="F87" s="65"/>
     </row>
     <row r="88" spans="1:6" ht="31.8" thickBot="1">
-      <c r="A88" s="73"/>
-      <c r="B88" s="72" t="s">
+      <c r="A88" s="65"/>
+      <c r="B88" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="C88" s="73"/>
-      <c r="D88" s="72" t="s">
+      <c r="C88" s="65"/>
+      <c r="D88" s="64" t="s">
         <v>632</v>
       </c>
-      <c r="E88" s="73" t="s">
+      <c r="E88" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F88" s="73"/>
+      <c r="F88" s="65"/>
     </row>
     <row r="89" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A89" s="73"/>
-      <c r="B89" s="72" t="s">
+      <c r="A89" s="65"/>
+      <c r="B89" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="C89" s="73"/>
-      <c r="D89" s="72" t="s">
+      <c r="C89" s="65"/>
+      <c r="D89" s="64" t="s">
         <v>633</v>
       </c>
-      <c r="E89" s="73" t="s">
+      <c r="E89" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="F89" s="73"/>
+      <c r="F89" s="65"/>
     </row>
     <row r="90" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A90" s="73"/>
-      <c r="B90" s="72" t="s">
+      <c r="A90" s="65"/>
+      <c r="B90" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="C90" s="73">
+      <c r="C90" s="65">
         <v>27</v>
       </c>
-      <c r="D90" s="72" t="s">
+      <c r="D90" s="64" t="s">
         <v>634</v>
       </c>
-      <c r="E90" s="73" t="s">
+      <c r="E90" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="F90" s="73"/>
+      <c r="F90" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5806,10 +5844,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5825,25 +5863,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
       <c r="K1" s="36"/>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="75"/>
       <c r="O1" s="36">
         <v>6.1</v>
       </c>
@@ -5864,13 +5902,13 @@
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
       <c r="K2" s="36"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="71"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="78"/>
       <c r="O2" s="36"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
@@ -6577,6 +6615,46 @@
       <c r="E33" s="33"/>
       <c r="F33" s="33" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="69">
+        <v>43989</v>
+      </c>
+      <c r="B34" s="68">
+        <v>6600</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="70" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="69">
+        <v>43997</v>
+      </c>
+      <c r="B35" s="68">
+        <v>3000</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="70" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3">
+        <v>44003</v>
+      </c>
+      <c r="B36">
+        <f>316+790</f>
+        <v>1106</v>
+      </c>
+      <c r="F36" s="68" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>
